--- a/sheets/BEMT.xlsx
+++ b/sheets/BEMT.xlsx
@@ -5,68 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Tutorials/pyBEMT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4AAA55-73A2-9248-960F-332BC462E664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50AF903-446A-AC48-963E-A1FACF966845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3818933C-C78F-A44D-BD0C-A20632FBDB3F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{3818933C-C78F-A44D-BD0C-A20632FBDB3F}"/>
   </bookViews>
   <sheets>
     <sheet name="BEMT" sheetId="1" r:id="rId1"/>
     <sheet name="airfoil_tables" sheetId="2" r:id="rId2"/>
     <sheet name="validation" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">validation!$C$4:$C$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">validation!$D$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">validation!$C$4:$C$20</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">validation!$D$24:$D$69</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">validation!$D$4:$D$20</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">validation!$E$4:$E$20</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">validation!$F$4:$F$20</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">validation!$C$4:$C$20</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">validation!$D$3</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">validation!$D$4:$D$20</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">validation!$C$24:$C$69</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">validation!$C$4:$C$20</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">validation!$D$4:$D$20</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">validation!$D$24:$D$69</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">validation!$D$4:$D$20</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">validation!$E$4:$E$20</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">validation!$F$4:$F$20</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">validation!$C$24:$C$69</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">validation!$C$4:$C$20</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">validation!$D$24:$D$69</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">validation!$D$4:$D$20</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">validation!$E$4:$E$20</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">validation!$F$4:$F$20</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">validation!$C$24:$C$69</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">validation!$C$24:$C$69</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">validation!$C$4:$C$20</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">validation!$D$24:$D$69</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">validation!$D$4:$D$20</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">validation!$E$4:$E$20</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">validation!$F$4:$F$20</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">validation!$C$24:$C$69</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">validation!$C$4:$C$20</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">validation!$D$24:$D$69</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">validation!$D$4:$D$20</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">validation!$C$4:$C$20</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">validation!$E$4:$E$20</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">validation!$F$4:$F$20</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">validation!$C$24:$C$69</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">validation!$C$4:$C$20</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">validation!$D$24:$D$69</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">validation!$D$4:$D$20</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">validation!$E$4:$E$20</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">validation!$F$4:$F$20</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">validation!$D$24:$D$69</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">validation!$D$4:$D$20</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">validation!$E$4:$E$20</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">validation!$F$4:$F$20</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">validation!$C$24:$C$69</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -88,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -756,7 +706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -847,27 +797,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -886,21 +815,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7903,7 +7847,7 @@
                   <c:v>0.13468643485481518</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13244612392823049</c:v>
+                  <c:v>0.13244612392822999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.130152000348078</c:v>
@@ -9225,6 +9169,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="602030496"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -28190,8 +28135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B2AB9D-DC7A-E946-B7FC-3BFE04AF1B17}">
   <dimension ref="B2:BE136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:H33"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28230,58 +28175,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="F2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="J2" s="33" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="J2" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="R2" s="33" t="s">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="R2" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Z2" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AK2" s="33" t="s">
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AK2" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
       <c r="AV2" s="16" t="s">
         <v>50</v>
       </c>
@@ -28311,33 +28256,33 @@
         <v>22</v>
       </c>
       <c r="G3" s="2">
-        <f>0.5*C9</f>
+        <f>0.5*C8</f>
         <v>1.5269999999999999</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="N3" s="35" t="s">
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="N3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="R3" s="35" t="s">
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="R3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="35" t="s">
+      <c r="V3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
       <c r="Z3" s="8" t="s">
         <v>33</v>
       </c>
@@ -28399,21 +28344,21 @@
         <v>42</v>
       </c>
       <c r="AV3" s="19"/>
-      <c r="AW3" s="34" t="s">
+      <c r="AW3" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AX3" s="34"/>
-      <c r="AY3" s="34"/>
-      <c r="AZ3" s="34" t="s">
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="BA3" s="34"/>
-      <c r="BB3" s="34"/>
-      <c r="BC3" s="34" t="s">
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="BD3" s="34"/>
-      <c r="BE3" s="36"/>
+      <c r="BD3" s="45"/>
+      <c r="BE3" s="46"/>
     </row>
     <row r="4" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -28439,7 +28384,7 @@
         <v>91</v>
       </c>
       <c r="K4" s="2">
-        <f>$C$18-$C$10</f>
+        <f>$C$18-$C$9</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -28548,15 +28493,6 @@
       </c>
     </row>
     <row r="5" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
@@ -28591,7 +28527,7 @@
         <v>30</v>
       </c>
       <c r="S5" s="2">
-        <f>($C$32+$C$5)/180*PI()</f>
+        <f>($C$32+$C$10)/180*PI()</f>
         <v>0.29670597283903599</v>
       </c>
       <c r="T5" s="2" t="s">
@@ -28602,7 +28538,7 @@
         <v>30</v>
       </c>
       <c r="W5" s="2">
-        <f>($C$33+$C$5)/180*PI()</f>
+        <f>($C$33+$C$10)/180*PI()</f>
         <v>0.29670597283903599</v>
       </c>
       <c r="X5" s="2" t="s">
@@ -28624,7 +28560,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="AD5" s="2">
-        <f t="dataTable" ref="AD5:AD34" dt2D="0" dtr="0" r1="S4" ca="1"/>
+        <f t="dataTable" ref="AD5:AD34" dt2D="0" dtr="0" r1="S4"/>
         <v>0.13161971972094719</v>
       </c>
       <c r="AE5" s="2">
@@ -28632,7 +28568,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="AF5" s="2">
-        <f t="dataTable" ref="AF5:AF34" dt2D="0" dtr="0" r1="S4"/>
+        <f t="dataTable" ref="AF5:AF34" dt2D="0" dtr="0" r1="S4" ca="1"/>
         <v>0.96152670698992004</v>
       </c>
       <c r="AG5" s="2">
@@ -28663,7 +28599,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="AO5" s="2">
-        <f t="dataTable" ref="AO5:AO34" dt2D="0" dtr="0" r1="W4" ca="1"/>
+        <f t="dataTable" ref="AO5:AO34" dt2D="0" dtr="0" r1="W4"/>
         <v>0.15090777810591835</v>
       </c>
       <c r="AP5" s="2">
@@ -28671,7 +28607,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="AQ5" s="2">
-        <f t="dataTable" ref="AQ5:AQ34" dt2D="0" dtr="0" r1="W4"/>
+        <f t="dataTable" ref="AQ5:AQ34" dt2D="0" dtr="0" r1="W4" ca="1"/>
         <v>0.96520909025823931</v>
       </c>
       <c r="AR5" s="2">
@@ -28718,9 +28654,11 @@
       </c>
     </row>
     <row r="6" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
       <c r="F6" s="2" t="s">
         <v>114</v>
       </c>
@@ -28876,16 +28814,18 @@
       </c>
     </row>
     <row r="7" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B7" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="F7" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G7" s="30">
-        <f>$C$3/(G6*C9)</f>
+        <f>$C$3/(G6*C8)</f>
         <v>1.7860332202178961E-2</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -29004,12 +28944,14 @@
     </row>
     <row r="8" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>3.0539999999999998</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J8" s="2" t="s">
         <v>89</v>
       </c>
@@ -29030,7 +28972,7 @@
         <v>73</v>
       </c>
       <c r="S8" s="2">
-        <f xml:space="preserve"> $C$8*$C$25 / (2*PI()*$C$18)</f>
+        <f xml:space="preserve"> $C$7*$C$25 / (2*PI()*$C$18)</f>
         <v>0.16370222718023522</v>
       </c>
       <c r="T8" s="2"/>
@@ -29039,7 +28981,7 @@
         <v>73</v>
       </c>
       <c r="W8" s="2">
-        <f xml:space="preserve"> $C$8*$C$26 / (2*PI()*$C$19)</f>
+        <f xml:space="preserve"> $C$7*$C$26 / (2*PI()*$C$19)</f>
         <v>0.15915494309189535</v>
       </c>
       <c r="X8" s="2"/>
@@ -29118,19 +29060,19 @@
     </row>
     <row r="9" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9">
-        <v>3.0539999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
       <c r="J9" s="2" t="s">
         <v>90</v>
       </c>
@@ -29155,7 +29097,7 @@
         <v>71</v>
       </c>
       <c r="S9" s="2">
-        <f>IF(-$C$8*($G$3-$C$18)/(2*$C$18*SIN(S4))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$8*($G$3-$C$18)/(2*$C$18*SIN(S4)))))/PI() )</f>
+        <f>IF(-$C$7*($G$3-$C$18)/(2*$C$18*SIN(S4))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$7*($G$3-$C$18)/(2*$C$18*SIN(S4)))))/PI() )</f>
         <v>0.99999939354124312</v>
       </c>
       <c r="T9" s="2"/>
@@ -29164,7 +29106,7 @@
         <v>71</v>
       </c>
       <c r="W9" s="2">
-        <f>IF(-$C$8*($G$3-$C$19)/(2*$C$19*SIN(W4))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$8*($G$3-$C$19)/(2*$C$19*SIN(W4)))))/PI() )</f>
+        <f>IF(-$C$7*($G$3-$C$19)/(2*$C$19*SIN(W4))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$7*($G$3-$C$19)/(2*$C$19*SIN(W4)))))/PI() )</f>
         <v>0.99995045915579239</v>
       </c>
       <c r="X9" s="2"/>
@@ -29243,13 +29185,13 @@
     </row>
     <row r="10" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>96</v>
@@ -29285,7 +29227,7 @@
         <v>72</v>
       </c>
       <c r="S10" s="2">
-        <f>IF(-$C$8*($C$18-$C$10)/(2*$C$18*SIN(S4))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$8*($C$18-$C$10)/(2*$C$18*SIN(S4)))))/PI() )</f>
+        <f>IF(-$C$7*($C$18-$C$9)/(2*$C$18*SIN(S4))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$7*($C$18-$C$9)/(2*$C$18*SIN(S4)))))/PI() )</f>
         <v>0.91989351400523434</v>
       </c>
       <c r="T10" s="2"/>
@@ -29294,7 +29236,7 @@
         <v>72</v>
       </c>
       <c r="W10" s="2">
-        <f>IF(-$C$8*($C$19-$C$10)/(2*$C$19*SIN(W4))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$8*($C$19-$C$10)/(2*$C$19*SIN(W4)))))/PI() )</f>
+        <f>IF(-$C$7*($C$19-$C$9)/(2*$C$19*SIN(W4))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$7*($C$19-$C$9)/(2*$C$19*SIN(W4)))))/PI() )</f>
         <v>0.977240066943313</v>
       </c>
       <c r="X10" s="2"/>
@@ -29372,7 +29314,7 @@
       </c>
     </row>
     <row r="11" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -29481,7 +29423,7 @@
       </c>
     </row>
     <row r="12" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B12" s="32"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
@@ -29496,16 +29438,16 @@
       <c r="H12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="N12" s="35" t="s">
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="N12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
       <c r="R12" s="2" t="s">
         <v>48</v>
       </c>
@@ -29597,7 +29539,7 @@
       </c>
     </row>
     <row r="13" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="9" t="s">
         <v>16</v>
       </c>
@@ -29713,16 +29655,16 @@
       </c>
     </row>
     <row r="14" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B14" s="32"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
       <c r="J14" s="2" t="s">
         <v>86</v>
       </c>
@@ -29834,7 +29776,7 @@
       </c>
     </row>
     <row r="15" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -29843,7 +29785,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="2">
-        <f>SQRT(G10^3/(2*C41*PI()*(C9/2)^2))/1000</f>
+        <f>SQRT(G10^3/(2*C41*PI()*(C8/2)^2))/1000</f>
         <v>82.927947944833036</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -29960,7 +29902,7 @@
       </c>
     </row>
     <row r="16" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B16" s="32"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="9" t="s">
         <v>16</v>
       </c>
@@ -30084,7 +30026,7 @@
       </c>
     </row>
     <row r="17" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B17" s="32"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="9" t="s">
         <v>16</v>
       </c>
@@ -30093,7 +30035,7 @@
         <v>66</v>
       </c>
       <c r="G17" s="2">
-        <f>G10/($C$41*G6^2*C9^4)</f>
+        <f>G10/($C$41*G6^2*C8^4)</f>
         <v>0.13900706290509893</v>
       </c>
       <c r="H17" s="2"/>
@@ -30204,7 +30146,7 @@
       </c>
     </row>
     <row r="18" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="9">
@@ -30217,7 +30159,7 @@
         <v>67</v>
       </c>
       <c r="G18" s="2">
-        <f>G11/($C$41*G6^2*C9^5)</f>
+        <f>G11/($C$41*G6^2*C8^5)</f>
         <v>8.6075281278111364E-3</v>
       </c>
       <c r="H18" s="3"/>
@@ -30332,7 +30274,7 @@
       </c>
     </row>
     <row r="19" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="9">
         <v>0.67500000000000004</v>
       </c>
@@ -30458,7 +30400,7 @@
       </c>
     </row>
     <row r="20" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B20" s="32"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="9">
         <v>0.82499999999999996</v>
       </c>
@@ -30564,7 +30506,7 @@
       </c>
     </row>
     <row r="21" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B21" s="32"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="9">
         <v>0.97499999999999998</v>
       </c>
@@ -30572,16 +30514,16 @@
         <v>10</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="N21" s="35" t="s">
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="N21" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -30663,18 +30605,18 @@
       </c>
     </row>
     <row r="22" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B22" s="32"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="9">
         <v>1.125</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
       <c r="J22" s="2" t="s">
         <v>91</v>
       </c>
@@ -30695,17 +30637,17 @@
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="35" t="s">
+      <c r="R22" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="35" t="s">
+      <c r="V22" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
       <c r="Z22" s="2">
         <v>18</v>
       </c>
@@ -30780,21 +30722,21 @@
       </c>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B23" s="32"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="9">
         <v>1.2749999999999999</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="47">
         <f>S20</f>
         <v>-5.785007573672063E-9</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="47"/>
       <c r="J23" s="2" t="s">
         <v>86</v>
       </c>
@@ -30910,19 +30852,19 @@
       </c>
     </row>
     <row r="24" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B24" s="32"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="9">
         <v>1.425</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="32">
+      <c r="F24" s="45"/>
+      <c r="G24" s="47">
         <f>W20</f>
         <v>-2.4493098400163449E-9</v>
       </c>
-      <c r="H24" s="32"/>
+      <c r="H24" s="47"/>
       <c r="J24" s="2" t="s">
         <v>87</v>
       </c>
@@ -30947,7 +30889,7 @@
         <v>30</v>
       </c>
       <c r="S24" s="2">
-        <f>($C$34+$C$5)/180*PI()</f>
+        <f>($C$34+$C$10)/180*PI()</f>
         <v>0.29670597283903599</v>
       </c>
       <c r="T24" s="2" t="s">
@@ -30958,7 +30900,7 @@
         <v>30</v>
       </c>
       <c r="W24" s="2">
-        <f>($C$35+$C$5)/180*PI()</f>
+        <f>($C$35+$C$10)/180*PI()</f>
         <v>0.29670597283903599</v>
       </c>
       <c r="X24" s="2" t="s">
@@ -31038,7 +30980,7 @@
       </c>
     </row>
     <row r="25" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="9">
@@ -31047,12 +30989,12 @@
       <c r="D25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="32">
+      <c r="F25" s="45"/>
+      <c r="G25" s="47">
         <f>S39</f>
         <v>-7.1855308803742135E-9</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="47"/>
       <c r="J25" s="2" t="s">
         <v>88</v>
       </c>
@@ -31168,19 +31110,19 @@
       </c>
     </row>
     <row r="26" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B26" s="32"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="9">
         <v>0.22500000000000001</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="32">
+      <c r="F26" s="45"/>
+      <c r="G26" s="47">
         <f>W39</f>
         <v>-5.7714195835639748E-9</v>
       </c>
-      <c r="H26" s="32"/>
+      <c r="H26" s="47"/>
       <c r="J26" s="2" t="s">
         <v>89</v>
       </c>
@@ -31292,19 +31234,19 @@
       </c>
     </row>
     <row r="27" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B27" s="32"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="9">
         <v>0.22500000000000001</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="32">
+      <c r="F27" s="45"/>
+      <c r="G27" s="47">
         <f>S58</f>
         <v>2.8131671818421022E-9</v>
       </c>
-      <c r="H27" s="32"/>
+      <c r="H27" s="47"/>
       <c r="J27" s="2" t="s">
         <v>90</v>
       </c>
@@ -31329,7 +31271,7 @@
         <v>73</v>
       </c>
       <c r="S27" s="2">
-        <f xml:space="preserve"> $C$8*$C$27 / (2*PI()*$C$20)</f>
+        <f xml:space="preserve"> $C$7*$C$27 / (2*PI()*$C$20)</f>
         <v>0.13021768071155074</v>
       </c>
       <c r="T27" s="2"/>
@@ -31338,7 +31280,7 @@
         <v>73</v>
       </c>
       <c r="W27" s="2">
-        <f xml:space="preserve"> $C$8*$C$28 / (2*PI()*$C$21)</f>
+        <f xml:space="preserve"> $C$7*$C$28 / (2*PI()*$C$21)</f>
         <v>0.10283857861322468</v>
       </c>
       <c r="X27" s="2"/>
@@ -31416,19 +31358,19 @@
       </c>
     </row>
     <row r="28" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B28" s="32"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="9">
         <v>0.21</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="32">
+      <c r="F28" s="45"/>
+      <c r="G28" s="47">
         <f>W58</f>
         <v>8.1482677983385488E-10</v>
       </c>
-      <c r="H28" s="32"/>
+      <c r="H28" s="47"/>
       <c r="J28" s="2" t="s">
         <v>94</v>
       </c>
@@ -31453,7 +31395,7 @@
         <v>71</v>
       </c>
       <c r="S28" s="2">
-        <f>IF(-$C$8*($G$3-$C$20)/(2*$C$20*SIN(S23))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$8*($G$3-$C$20)/(2*$C$20*SIN(S23)))))/PI() )</f>
+        <f>IF(-$C$7*($G$3-$C$20)/(2*$C$20*SIN(S23))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$7*($G$3-$C$20)/(2*$C$20*SIN(S23)))))/PI() )</f>
         <v>0.99931571126568908</v>
       </c>
       <c r="T28" s="2"/>
@@ -31462,7 +31404,7 @@
         <v>71</v>
       </c>
       <c r="W28" s="2">
-        <f>IF(-$C$8*($G$3-$C$21)/(2*$C$21*SIN(W23))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$8*($G$3-$C$21)/(2*$C$21*SIN(W23)))))/PI() )</f>
+        <f>IF(-$C$7*($G$3-$C$21)/(2*$C$21*SIN(W23))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$7*($G$3-$C$21)/(2*$C$21*SIN(W23)))))/PI() )</f>
         <v>0.99537176520309123</v>
       </c>
       <c r="X28" s="2"/>
@@ -31540,24 +31482,24 @@
       </c>
     </row>
     <row r="29" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B29" s="32"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="9">
         <v>0.1875</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="32">
+      <c r="F29" s="45"/>
+      <c r="G29" s="47">
         <f>S77</f>
         <v>-4.7047981378833814E-9</v>
       </c>
-      <c r="H29" s="32"/>
+      <c r="H29" s="47"/>
       <c r="R29" s="2" t="s">
         <v>72</v>
       </c>
       <c r="S29" s="2">
-        <f>IF(-$C$8*($C$20-$C$10)/(2*$C$20*SIN(S23))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$8*($C$20-$C$10)/(2*$C$20*SIN(S23)))))/PI() )</f>
+        <f>IF(-$C$7*($C$20-$C$9)/(2*$C$20*SIN(S23))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$7*($C$20-$C$9)/(2*$C$20*SIN(S23)))))/PI() )</f>
         <v>0.99203993604646279</v>
       </c>
       <c r="T29" s="2"/>
@@ -31566,7 +31508,7 @@
         <v>72</v>
       </c>
       <c r="W29" s="2">
-        <f>IF(-$C$8*($C$21-$C$10)/(2*$C$21*SIN(W23))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$8*($C$21-$C$10)/(2*$C$21*SIN(W23)))))/PI() )</f>
+        <f>IF(-$C$7*($C$21-$C$9)/(2*$C$21*SIN(W23))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$7*($C$21-$C$9)/(2*$C$21*SIN(W23)))))/PI() )</f>
         <v>0.99698380515021612</v>
       </c>
       <c r="X29" s="2"/>
@@ -31644,7 +31586,7 @@
       </c>
     </row>
     <row r="30" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B30" s="32"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="9">
         <v>0.14249999999999999</v>
       </c>
@@ -31654,16 +31596,16 @@
       <c r="F30" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="32" t="b">
+      <c r="G30" s="47" t="b">
         <f>IF(G23&lt;0.00001,IF(G24&lt;0.00001,IF(G25&lt;0.00001,IF(G26&lt;0.00001,IF(G27&lt;0.00001,IF(G28&lt;0.00001,IF(G29&lt;0.00001,TRUE,FALSE),FALSE),FALSE),FALSE),FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="H30" s="32"/>
-      <c r="J30" s="35" t="s">
+      <c r="H30" s="47"/>
+      <c r="J30" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
       <c r="R30" s="2" t="s">
         <v>70</v>
       </c>
@@ -31755,7 +31697,7 @@
       </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B31" s="32"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="9">
         <v>0.12</v>
       </c>
@@ -31863,7 +31805,7 @@
       </c>
     </row>
     <row r="32" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="47" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="9">
@@ -31973,7 +31915,7 @@
       </c>
     </row>
     <row r="33" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B33" s="32"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="9">
         <v>17</v>
       </c>
@@ -32080,7 +32022,7 @@
       </c>
     </row>
     <row r="34" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B34" s="32"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="9">
         <v>17</v>
       </c>
@@ -32187,7 +32129,7 @@
       </c>
     </row>
     <row r="35" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B35" s="32"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="9">
         <v>17</v>
       </c>
@@ -32230,7 +32172,7 @@
       <c r="AI35" s="2"/>
     </row>
     <row r="36" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B36" s="32"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="9">
         <v>17</v>
       </c>
@@ -32263,33 +32205,33 @@
         <v>32.417433011526782</v>
       </c>
       <c r="X36" s="2"/>
-      <c r="Z36" s="33" t="s">
+      <c r="Z36" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="33"/>
-      <c r="AI36" s="33"/>
-      <c r="AK36" s="33" t="s">
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="43"/>
+      <c r="AC36" s="43"/>
+      <c r="AD36" s="43"/>
+      <c r="AE36" s="43"/>
+      <c r="AF36" s="43"/>
+      <c r="AG36" s="43"/>
+      <c r="AH36" s="43"/>
+      <c r="AI36" s="43"/>
+      <c r="AK36" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="AL36" s="33"/>
-      <c r="AM36" s="33"/>
-      <c r="AN36" s="33"/>
-      <c r="AO36" s="33"/>
-      <c r="AP36" s="33"/>
-      <c r="AQ36" s="33"/>
-      <c r="AR36" s="33"/>
-      <c r="AS36" s="33"/>
-      <c r="AT36" s="33"/>
+      <c r="AL36" s="43"/>
+      <c r="AM36" s="43"/>
+      <c r="AN36" s="43"/>
+      <c r="AO36" s="43"/>
+      <c r="AP36" s="43"/>
+      <c r="AQ36" s="43"/>
+      <c r="AR36" s="43"/>
+      <c r="AS36" s="43"/>
+      <c r="AT36" s="43"/>
     </row>
     <row r="37" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B37" s="32"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="9">
         <v>17</v>
       </c>
@@ -32384,7 +32326,7 @@
       </c>
     </row>
     <row r="38" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B38" s="32"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="9">
         <v>17</v>
       </c>
@@ -32486,7 +32428,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="AD39" s="2">
-        <f t="dataTable" ref="AD39:AD68" dt2D="0" dtr="0" r1="S23" ca="1"/>
+        <f t="dataTable" ref="AD39:AD68" dt2D="0" dtr="0" r1="S23"/>
         <v>0.18263494917145773</v>
       </c>
       <c r="AE39" s="2">
@@ -32494,7 +32436,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="AF39" s="2">
-        <f t="dataTable" ref="AF39:AF68" dt2D="0" dtr="0" r1="S23"/>
+        <f t="dataTable" ref="AF39:AF68" dt2D="0" dtr="0" r1="S23" ca="1"/>
         <v>0.96914364094302141</v>
       </c>
       <c r="AG39" s="2">
@@ -32525,7 +32467,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="AO39" s="2">
-        <f t="dataTable" ref="AO39:AO68" dt2D="0" dtr="0" r1="W23" ca="1"/>
+        <f t="dataTable" ref="AO39:AO68" dt2D="0" dtr="0" r1="W23"/>
         <v>0.20783581121173944</v>
       </c>
       <c r="AP39" s="2">
@@ -32533,7 +32475,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="AQ39" s="2">
-        <f t="dataTable" ref="AQ39:AQ68" dt2D="0" dtr="0" r1="W23"/>
+        <f t="dataTable" ref="AQ39:AQ68" dt2D="0" dtr="0" r1="W23" ca="1"/>
         <v>0.97190949455447628</v>
       </c>
       <c r="AR39" s="2">
@@ -32550,11 +32492,11 @@
       </c>
     </row>
     <row r="40" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
       <c r="Z40" s="2">
         <v>2</v>
       </c>
@@ -32638,17 +32580,17 @@
       <c r="D41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="35" t="s">
+      <c r="R41" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
       <c r="U41" s="2"/>
-      <c r="V41" s="35" t="s">
+      <c r="V41" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
       <c r="Z41" s="2">
         <v>3</v>
       </c>
@@ -32834,7 +32776,7 @@
         <v>30</v>
       </c>
       <c r="S43" s="2">
-        <f>($C$36+$C$5)/180*PI()</f>
+        <f>($C$36+$C$10)/180*PI()</f>
         <v>0.29670597283903599</v>
       </c>
       <c r="T43" s="2" t="s">
@@ -32845,7 +32787,7 @@
         <v>30</v>
       </c>
       <c r="W43" s="2">
-        <f>($C$37+$C$5)/180*PI()</f>
+        <f>($C$37+$C$10)/180*PI()</f>
         <v>0.29670597283903599</v>
       </c>
       <c r="X43" s="2" t="s">
@@ -33119,7 +33061,7 @@
         <v>73</v>
       </c>
       <c r="S46" s="2">
-        <f xml:space="preserve"> $C$8*$C$29 / (2*PI()*$C$22)</f>
+        <f xml:space="preserve"> $C$7*$C$29 / (2*PI()*$C$22)</f>
         <v>7.9577471545947673E-2</v>
       </c>
       <c r="T46" s="2"/>
@@ -33128,7 +33070,7 @@
         <v>73</v>
       </c>
       <c r="W46" s="2">
-        <f xml:space="preserve"> $C$8*$C$30 / (2*PI()*$C$23)</f>
+        <f xml:space="preserve"> $C$7*$C$30 / (2*PI()*$C$23)</f>
         <v>5.3363716213164915E-2</v>
       </c>
       <c r="X46" s="2"/>
@@ -33210,7 +33152,7 @@
         <v>71</v>
       </c>
       <c r="S47" s="2">
-        <f>IF(-$C$8*($G$3-$C$22)/(2*$C$22*SIN(S42))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$8*($G$3-$C$22)/(2*$C$22*SIN(S42)))))/PI() )</f>
+        <f>IF(-$C$7*($G$3-$C$22)/(2*$C$22*SIN(S42))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$7*($G$3-$C$22)/(2*$C$22*SIN(S42)))))/PI() )</f>
         <v>0.97835518326401305</v>
       </c>
       <c r="T47" s="2"/>
@@ -33219,7 +33161,7 @@
         <v>71</v>
       </c>
       <c r="W47" s="2">
-        <f>IF(-$C$8*($G$3-$C$23)/(2*$C$23*SIN(W42))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$8*($G$3-$C$23)/(2*$C$23*SIN(W42)))))/PI() )</f>
+        <f>IF(-$C$7*($G$3-$C$23)/(2*$C$23*SIN(W42))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$7*($G$3-$C$23)/(2*$C$23*SIN(W42)))))/PI() )</f>
         <v>0.92337472227762463</v>
       </c>
       <c r="X47" s="2"/>
@@ -33304,7 +33246,7 @@
         <v>72</v>
       </c>
       <c r="S48" s="2">
-        <f>IF(-$C$8*($C$22-$C$10)/(2*$C$22*SIN(S42))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$8*($C$22-$C$10)/(2*$C$22*SIN(S42)))))/PI() )</f>
+        <f>IF(-$C$7*($C$22-$C$9)/(2*$C$22*SIN(S42))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$7*($C$22-$C$9)/(2*$C$22*SIN(S42)))))/PI() )</f>
         <v>0.99884139193582311</v>
       </c>
       <c r="T48" s="2"/>
@@ -33313,7 +33255,7 @@
         <v>72</v>
       </c>
       <c r="W48" s="2">
-        <f>IF(-$C$8*($C$23-$C$10)/(2*$C$23*SIN(W42))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$8*($C$23-$C$10)/(2*$C$23*SIN(W42)))))/PI() )</f>
+        <f>IF(-$C$7*($C$23-$C$9)/(2*$C$23*SIN(W42))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$7*($C$23-$C$9)/(2*$C$23*SIN(W42)))))/PI() )</f>
         <v>0.99967177178655009</v>
       </c>
       <c r="X48" s="2"/>
@@ -34418,11 +34360,11 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="3"/>
-      <c r="R60" s="35" t="s">
+      <c r="R60" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="44"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
@@ -34597,7 +34539,7 @@
         <v>30</v>
       </c>
       <c r="S62" s="2">
-        <f>($C$38+$C$5)/180*PI()</f>
+        <f>($C$38+$C$10)/180*PI()</f>
         <v>0.29670597283903599</v>
       </c>
       <c r="T62" s="2" t="s">
@@ -34864,7 +34806,7 @@
         <v>73</v>
       </c>
       <c r="S65" s="2">
-        <f xml:space="preserve"> $C$8*$C$31 / (2*PI()*$C$24)</f>
+        <f xml:space="preserve"> $C$7*$C$31 / (2*PI()*$C$24)</f>
         <v>4.0207564570584081E-2</v>
       </c>
       <c r="T65" s="2"/>
@@ -34950,7 +34892,7 @@
         <v>71</v>
       </c>
       <c r="S66" s="2">
-        <f>IF(-$C$8*($G$3-$C$24)/(2*$C$24*SIN(S61))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$8*($G$3-$C$24)/(2*$C$24*SIN(S61)))))/PI() )</f>
+        <f>IF(-$C$7*($G$3-$C$24)/(2*$C$24*SIN(S61))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$7*($G$3-$C$24)/(2*$C$24*SIN(S61)))))/PI() )</f>
         <v>0.69288800068466716</v>
       </c>
       <c r="T66" s="2"/>
@@ -35036,7 +34978,7 @@
         <v>72</v>
       </c>
       <c r="S67" s="2">
-        <f>IF(-$C$8*($C$24-$C$10)/(2*$C$24*SIN(S61))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$8*($C$24-$C$10)/(2*$C$24*SIN(S61)))))/PI() )</f>
+        <f>IF(-$C$7*($C$24-$C$9)/(2*$C$24*SIN(S61))&gt;500, 1, 2*ACOS(MIN(1, EXP(-$C$7*($C$24-$C$9)/(2*$C$24*SIN(S61)))))/PI() )</f>
         <v>0.99976548745651161</v>
       </c>
       <c r="T67" s="2"/>
@@ -35230,30 +35172,30 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
       <c r="X70" s="3"/>
-      <c r="Z70" s="33" t="s">
+      <c r="Z70" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="AA70" s="33"/>
-      <c r="AB70" s="33"/>
-      <c r="AC70" s="33"/>
-      <c r="AD70" s="33"/>
-      <c r="AE70" s="33"/>
-      <c r="AF70" s="33"/>
-      <c r="AG70" s="33"/>
-      <c r="AH70" s="33"/>
-      <c r="AI70" s="33"/>
-      <c r="AK70" s="33" t="s">
+      <c r="AA70" s="43"/>
+      <c r="AB70" s="43"/>
+      <c r="AC70" s="43"/>
+      <c r="AD70" s="43"/>
+      <c r="AE70" s="43"/>
+      <c r="AF70" s="43"/>
+      <c r="AG70" s="43"/>
+      <c r="AH70" s="43"/>
+      <c r="AI70" s="43"/>
+      <c r="AK70" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="AL70" s="33"/>
-      <c r="AM70" s="33"/>
-      <c r="AN70" s="33"/>
-      <c r="AO70" s="33"/>
-      <c r="AP70" s="33"/>
-      <c r="AQ70" s="33"/>
-      <c r="AR70" s="33"/>
-      <c r="AS70" s="33"/>
-      <c r="AT70" s="33"/>
+      <c r="AL70" s="43"/>
+      <c r="AM70" s="43"/>
+      <c r="AN70" s="43"/>
+      <c r="AO70" s="43"/>
+      <c r="AP70" s="43"/>
+      <c r="AQ70" s="43"/>
+      <c r="AR70" s="43"/>
+      <c r="AS70" s="43"/>
+      <c r="AT70" s="43"/>
     </row>
     <row r="71" spans="4:46" x14ac:dyDescent="0.2">
       <c r="R71" s="2" t="s">
@@ -35414,7 +35356,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="AD73" s="2">
-        <f t="dataTable" ref="AD73:AD102" dt2D="0" dtr="0" r1="S42" ca="1"/>
+        <f t="dataTable" ref="AD73:AD102" dt2D="0" dtr="0" r1="S42"/>
         <v>0.2252761116937701</v>
       </c>
       <c r="AE73" s="2">
@@ -35422,7 +35364,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="AF73" s="2">
-        <f t="dataTable" ref="AF73:AF102" dt2D="0" dtr="0" r1="S42"/>
+        <f t="dataTable" ref="AF73:AF102" dt2D="0" dtr="0" r1="S42" ca="1"/>
         <v>0.97371053655894602</v>
       </c>
       <c r="AG73" s="2">
@@ -35453,7 +35395,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="AO73" s="2">
-        <f t="dataTable" ref="AO73:AO102" dt2D="0" dtr="0" r1="W42" ca="1"/>
+        <f t="dataTable" ref="AO73:AO102" dt2D="0" dtr="0" r1="W42"/>
         <v>0.24354650109782877</v>
       </c>
       <c r="AP73" s="2">
@@ -35461,7 +35403,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="AQ73" s="2">
-        <f t="dataTable" ref="AQ73:AQ102" dt2D="0" dtr="0" r1="W42"/>
+        <f t="dataTable" ref="AQ73:AQ102" dt2D="0" dtr="0" r1="W42" ca="1"/>
         <v>0.97608040491649806</v>
       </c>
       <c r="AR73" s="2">
@@ -37664,18 +37606,18 @@
       </c>
     </row>
     <row r="104" spans="26:46" x14ac:dyDescent="0.2">
-      <c r="Z104" s="33" t="s">
+      <c r="Z104" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="AA104" s="33"/>
-      <c r="AB104" s="33"/>
-      <c r="AC104" s="33"/>
-      <c r="AD104" s="33"/>
-      <c r="AE104" s="33"/>
-      <c r="AF104" s="33"/>
-      <c r="AG104" s="33"/>
-      <c r="AH104" s="33"/>
-      <c r="AI104" s="33"/>
+      <c r="AA104" s="43"/>
+      <c r="AB104" s="43"/>
+      <c r="AC104" s="43"/>
+      <c r="AD104" s="43"/>
+      <c r="AE104" s="43"/>
+      <c r="AF104" s="43"/>
+      <c r="AG104" s="43"/>
+      <c r="AH104" s="43"/>
+      <c r="AI104" s="43"/>
     </row>
     <row r="105" spans="26:46" x14ac:dyDescent="0.2">
       <c r="Z105" s="8" t="s">
@@ -37749,7 +37691,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="AD107" s="2">
-        <f t="dataTable" ref="AD107:AD136" dt2D="0" dtr="0" r1="S61" ca="1"/>
+        <f t="dataTable" ref="AD107:AD136" dt2D="0" dtr="0" r1="S61"/>
         <v>0.23386125212353859</v>
       </c>
       <c r="AE107" s="2">
@@ -37757,7 +37699,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="AF107" s="2">
-        <f t="dataTable" ref="AF107:AF136" dt2D="0" dtr="0" r1="S61"/>
+        <f t="dataTable" ref="AF107:AF136" dt2D="0" dtr="0" r1="S61" ca="1"/>
         <v>0.97358925215015468</v>
       </c>
       <c r="AG107" s="2">
@@ -38877,39 +38819,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="Z2:AI2"/>
-    <mergeCell ref="Z104:AI104"/>
-    <mergeCell ref="AK2:AT2"/>
-    <mergeCell ref="Z36:AI36"/>
-    <mergeCell ref="AK36:AT36"/>
-    <mergeCell ref="Z70:AI70"/>
-    <mergeCell ref="AK70:AT70"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="N12:P12"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="N21:P21"/>
     <mergeCell ref="J30:L30"/>
@@ -38923,6 +38832,39 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="Z2:AI2"/>
+    <mergeCell ref="Z104:AI104"/>
+    <mergeCell ref="AK2:AT2"/>
+    <mergeCell ref="Z36:AI36"/>
+    <mergeCell ref="AK36:AT36"/>
+    <mergeCell ref="Z70:AI70"/>
+    <mergeCell ref="AK70:AT70"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38994,97 +38936,97 @@
       <c r="BL2" s="2"/>
     </row>
     <row r="3" spans="2:71" x14ac:dyDescent="0.2">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
       <c r="N3"/>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37" t="s">
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37" t="s">
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="AA3" s="37" t="s">
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="AA3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37" t="s">
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37" t="s">
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AM3" s="37" t="s">
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AM3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="37" t="s">
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="37" t="s">
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="48"/>
+      <c r="AS3" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AY3" s="37" t="s">
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AY3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37" t="s">
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37" t="s">
+      <c r="BC3" s="48"/>
+      <c r="BD3" s="48"/>
+      <c r="BE3" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BK3" s="37" t="s">
+      <c r="BF3" s="48"/>
+      <c r="BG3" s="48"/>
+      <c r="BK3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="37"/>
-      <c r="BN3" s="37" t="s">
+      <c r="BL3" s="48"/>
+      <c r="BM3" s="48"/>
+      <c r="BN3" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="37" t="s">
+      <c r="BO3" s="48"/>
+      <c r="BP3" s="48"/>
+      <c r="BQ3" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="37"/>
+      <c r="BR3" s="48"/>
+      <c r="BS3" s="48"/>
     </row>
     <row r="4" spans="2:71" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
@@ -45829,6 +45771,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="BN3:BP3"/>
     <mergeCell ref="BQ3:BS3"/>
     <mergeCell ref="AS3:AU3"/>
@@ -45836,17 +45789,6 @@
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45859,7 +45801,7 @@
   <dimension ref="B2:L69"/>
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45876,98 +45818,98 @@
       <c r="F2" s="49"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="40" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="43">
+      <c r="C4" s="36">
         <v>0</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="2">
         <v>0.13220000000000001</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="36">
         <v>5.8400000000000001E-2</v>
       </c>
       <c r="F4" s="20">
         <v>0</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="38" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="43">
+      <c r="C5" s="36">
         <v>0.05</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="2">
         <v>0.128</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="36">
         <v>5.8200000000000002E-2</v>
       </c>
       <c r="F5" s="20">
         <v>0.11</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="39" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="43">
+      <c r="C6" s="36">
         <v>0.1</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="2">
         <v>0.12239999999999999</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="36">
         <v>5.7799999999999997E-2</v>
       </c>
       <c r="F6" s="20">
         <v>0.21199999999999999</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="39" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="43">
+      <c r="C7" s="36">
         <v>0.15</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="2">
         <v>0.11650000000000001</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="36">
         <v>5.7200000000000001E-2</v>
       </c>
       <c r="F7" s="20">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="39" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="43">
+      <c r="C8" s="36">
         <v>0.2</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="2">
         <v>0.1101</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="36">
         <v>5.6399999999999999E-2</v>
       </c>
       <c r="F8" s="20">
@@ -45975,13 +45917,13 @@
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="43">
+      <c r="C9" s="36">
         <v>0.25</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="2">
         <v>0.1036</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="36">
         <v>5.5500000000000001E-2</v>
       </c>
       <c r="F9" s="20">
@@ -45989,13 +45931,13 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="43">
+      <c r="C10" s="36">
         <v>0.3</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="2">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="36">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F10" s="20">
@@ -46003,13 +45945,13 @@
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="43">
+      <c r="C11" s="36">
         <v>0.35</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="2">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="36">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="F11" s="20">
@@ -46017,13 +45959,13 @@
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="43">
+      <c r="C12" s="36">
         <v>0.4</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="2">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="36">
         <v>5.1400000000000001E-2</v>
       </c>
       <c r="F12" s="20">
@@ -46031,13 +45973,13 @@
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="43">
+      <c r="C13" s="36">
         <v>0.45</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="2">
         <v>7.5200000000000003E-2</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="36">
         <v>4.9200000000000001E-2</v>
       </c>
       <c r="F13" s="20">
@@ -46045,13 +45987,13 @@
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="43">
+      <c r="C14" s="36">
         <v>0.5</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="2">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="36">
         <v>4.6100000000000002E-2</v>
       </c>
       <c r="F14" s="20">
@@ -46059,13 +46001,13 @@
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="43">
+      <c r="C15" s="36">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="2">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="36">
         <v>4.19E-2</v>
       </c>
       <c r="F15" s="20">
@@ -46073,13 +46015,13 @@
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="43">
+      <c r="C16" s="36">
         <v>0.6</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="2">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="36">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="F16" s="20">
@@ -46087,13 +46029,13 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="43">
+      <c r="C17" s="36">
         <v>0.65</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="2">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="36">
         <v>3.1399999999999997E-2</v>
       </c>
       <c r="F17" s="20">
@@ -46101,13 +46043,13 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="43">
+      <c r="C18" s="36">
         <v>0.7</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="2">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="36">
         <v>2.52E-2</v>
       </c>
       <c r="F18" s="20">
@@ -46115,13 +46057,13 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="43">
+      <c r="C19" s="36">
         <v>0.75</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="2">
         <v>1.83E-2</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="36">
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="F19" s="20">
@@ -46129,13 +46071,13 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C20" s="44">
+      <c r="C20" s="37">
         <v>0.8</v>
       </c>
       <c r="D20" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="37">
         <v>1.06E-2</v>
       </c>
       <c r="F20" s="22">
@@ -46152,947 +46094,947 @@
       <c r="F22" s="49"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="43" cm="1">
+      <c r="B24" s="36" cm="1">
         <f t="array" ref="B24:B69">_xlfn.SEQUENCE(46,1,0,1)</f>
         <v>0</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="36">
         <f>B24*60/(1100*3.054)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="41">
         <v>0.13756114149530227</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="42">
         <v>5.2588148987480245E-2</v>
       </c>
       <c r="F24" s="18">
         <v>0</v>
       </c>
-      <c r="H24" s="38"/>
-      <c r="J24" s="38"/>
+      <c r="H24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="43">
+      <c r="B25" s="36">
         <v>1</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="36">
         <f>B25*60/(1100*3.054)</f>
         <v>1.7860332202178964E-2</v>
       </c>
       <c r="D25" s="19">
         <v>0.13900706290509893</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="36">
         <v>5.4082694263797942E-2</v>
       </c>
       <c r="F25" s="20">
         <v>4.5905855019433478E-2</v>
       </c>
-      <c r="H25" s="38"/>
-      <c r="J25" s="38"/>
+      <c r="H25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="43">
+      <c r="B26" s="36">
         <v>2</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="36">
         <f t="shared" ref="C26:C38" si="0">B26*60/(1100*3.054)</f>
         <v>3.5720664404357928E-2</v>
       </c>
       <c r="D26" s="19">
         <v>0.13687327609543906</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="36">
         <v>5.4248917972665969E-2</v>
       </c>
       <c r="F26" s="20">
         <v>9.0125380266454239E-2</v>
       </c>
-      <c r="H26" s="38"/>
-      <c r="J26" s="38"/>
+      <c r="H26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="43">
+      <c r="B27" s="36">
         <v>3</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="36">
         <f t="shared" si="0"/>
         <v>5.3580996606536889E-2</v>
       </c>
       <c r="D27" s="19">
         <v>0.13468643485481518</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="36">
         <v>5.4388139009096559E-2</v>
       </c>
       <c r="F27" s="20">
         <v>0.13268763264165745</v>
       </c>
-      <c r="H27" s="38"/>
-      <c r="J27" s="38"/>
+      <c r="H27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="43">
+      <c r="B28" s="36">
         <v>4</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="36">
         <f t="shared" si="0"/>
         <v>7.1441328808715857E-2</v>
       </c>
       <c r="D28" s="19">
-        <v>0.13244612392823049</v>
-      </c>
-      <c r="E28" s="43">
+        <v>0.13244612392822999</v>
+      </c>
+      <c r="E28" s="36">
         <v>5.4498255617636729E-2</v>
       </c>
       <c r="F28" s="20">
         <v>0.17362256794756029</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="H28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="43">
+      <c r="B29" s="36">
         <v>5</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="36">
         <f t="shared" si="0"/>
         <v>8.9301661010894817E-2</v>
       </c>
       <c r="D29" s="19">
         <v>0.130152000348078</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="36">
         <v>5.4577101702351034E-2</v>
       </c>
       <c r="F29" s="20">
         <v>0.21296092046736914</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="J29" s="38"/>
+      <c r="H29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="43">
+      <c r="B30" s="36">
         <v>6</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="36">
         <f t="shared" si="0"/>
         <v>0.10716199321307378</v>
       </c>
       <c r="D30" s="19">
         <v>0.12780379143048623</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="36">
         <v>5.4622449587135073E-2</v>
       </c>
       <c r="F30" s="20">
         <v>0.25073406874642507</v>
       </c>
-      <c r="H30" s="38"/>
-      <c r="J30" s="38"/>
+      <c r="H30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="43">
+      <c r="B31" s="36">
         <v>7</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="36">
         <f t="shared" si="0"/>
         <v>0.12502232541525274</v>
       </c>
       <c r="D31" s="19">
         <v>0.12540129088350571</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="36">
         <v>5.4632014768505488E-2</v>
       </c>
       <c r="F31" s="20">
         <v>0.28697387535062174</v>
       </c>
-      <c r="H31" s="38"/>
-      <c r="J31" s="38"/>
+      <c r="H31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="43">
+      <c r="B32" s="36">
         <v>8</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="36">
         <f t="shared" si="0"/>
         <v>0.14288265761743171</v>
       </c>
       <c r="D32" s="19">
         <v>0.12294437025873374</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="36">
         <v>5.4603462101377245E-2</v>
       </c>
       <c r="F32" s="20">
         <v>0.32171253773350622</v>
       </c>
-      <c r="H32" s="38"/>
-      <c r="J32" s="38"/>
+      <c r="H32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="43">
+      <c r="B33" s="36">
         <v>9</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="36">
         <f t="shared" si="0"/>
         <v>0.16074298981961066</v>
       </c>
       <c r="D33" s="19">
         <v>0.12043296699527706</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="36">
         <v>5.4534410555322911E-2</v>
       </c>
       <c r="F33" s="20">
         <v>0.35498238617668137</v>
       </c>
-      <c r="H33" s="38"/>
-      <c r="J33" s="38"/>
+      <c r="H33" s="2"/>
+      <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="43">
+      <c r="B34" s="36">
         <v>10</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="36">
         <f t="shared" si="0"/>
         <v>0.17860332202178963</v>
       </c>
       <c r="D34" s="19">
         <v>0.11786709903466028</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="36">
         <v>5.4422440954226992E-2</v>
       </c>
       <c r="F34" s="20">
         <v>0.38681571564140826</v>
       </c>
-      <c r="H34" s="38"/>
-      <c r="J34" s="38"/>
+      <c r="H34" s="2"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="43">
+      <c r="B35" s="36">
         <v>11</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="36">
         <f t="shared" si="0"/>
         <v>0.19646365422396858</v>
       </c>
       <c r="D35" s="19">
         <v>0.11524684278473754</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="36">
         <v>5.4265099849561585E-2</v>
       </c>
       <c r="F35" s="20">
         <v>0.4172445261141019</v>
       </c>
-      <c r="H35" s="38"/>
-      <c r="J35" s="38"/>
+      <c r="H35" s="2"/>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="43">
+      <c r="B36" s="36">
         <v>12</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="36">
         <f t="shared" si="0"/>
         <v>0.21432398642614756</v>
       </c>
       <c r="D36" s="19">
         <v>0.11257235615034641</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="36">
         <v>5.4059909541711047E-2</v>
       </c>
       <c r="F36" s="20">
         <v>0.44630034226954524</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="J36" s="38"/>
+      <c r="H36" s="2"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="43">
+      <c r="B37" s="36">
         <v>13</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="36">
         <f t="shared" si="0"/>
         <v>0.2321843186283265</v>
       </c>
       <c r="D37" s="19">
         <v>0.10984385704477058</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E37" s="36">
         <v>5.3804372180135722E-2</v>
       </c>
       <c r="F37" s="20">
         <v>0.4740139150413375</v>
       </c>
-      <c r="H37" s="38"/>
-      <c r="J37" s="38"/>
+      <c r="H37" s="2"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="43">
+      <c r="B38" s="36">
         <v>14</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="36">
         <f t="shared" si="0"/>
         <v>0.25004465083050548</v>
       </c>
       <c r="D38" s="19">
         <v>0.10706163067370951</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="36">
         <v>5.3495978015493717E-2</v>
       </c>
       <c r="F38" s="20">
         <v>0.5004149667363581</v>
       </c>
-      <c r="H38" s="38"/>
-      <c r="J38" s="38"/>
+      <c r="H38" s="2"/>
+      <c r="J38" s="2"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="43">
+      <c r="B39" s="36">
         <v>15</v>
       </c>
-      <c r="C39" s="43">
+      <c r="C39" s="36">
         <f>B39*60/(1100*3.054)</f>
         <v>0.26790498303268445</v>
       </c>
       <c r="D39" s="19">
         <v>0.10422602209693513</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="36">
         <v>5.3132211963645572E-2</v>
       </c>
       <c r="F39" s="20">
         <v>0.52553186945329911</v>
       </c>
-      <c r="H39" s="38"/>
-      <c r="J39" s="38"/>
+      <c r="H39" s="2"/>
+      <c r="J39" s="2"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="43">
+      <c r="B40" s="36">
         <v>16</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="36">
         <f>B40*60/(1100*3.054)</f>
         <v>0.28576531523486343</v>
       </c>
       <c r="D40" s="19">
         <v>0.10133743682024815</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="36">
         <v>5.2710561000284817E-2</v>
       </c>
       <c r="F40" s="20">
         <v>0.54939131795381169</v>
       </c>
-      <c r="H40" s="38"/>
-      <c r="J40" s="38"/>
+      <c r="H40" s="2"/>
+      <c r="J40" s="2"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="43">
+      <c r="B41" s="36">
         <v>17</v>
       </c>
-      <c r="C41" s="43">
+      <c r="C41" s="36">
         <f t="shared" ref="C41:C69" si="1">B41*60/(1100*3.054)</f>
         <v>0.30362564743704235</v>
       </c>
       <c r="D41" s="19">
         <v>9.8396332682932228E-2</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="36">
         <v>5.2228520118700737E-2</v>
       </c>
       <c r="F41" s="20">
         <v>0.57201793480625063</v>
       </c>
-      <c r="H41" s="38"/>
-      <c r="J41" s="38"/>
+      <c r="H41" s="2"/>
+      <c r="J41" s="2"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="19">
         <v>18</v>
       </c>
-      <c r="C42" s="43">
+      <c r="C42" s="36">
         <f t="shared" si="1"/>
         <v>0.32148597963922132</v>
       </c>
       <c r="D42" s="19">
         <v>9.5403220360501251E-2</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="36">
         <v>5.1683599726241938E-2</v>
       </c>
       <c r="F42" s="20">
         <v>0.59343385369419988</v>
       </c>
-      <c r="H42" s="38"/>
-      <c r="J42" s="38"/>
+      <c r="H42" s="2"/>
+      <c r="J42" s="2"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="19">
         <v>19</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="36">
         <f t="shared" si="1"/>
         <v>0.33934631184140029</v>
       </c>
       <c r="D43" s="19">
         <v>9.2358650601593553E-2</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="36">
         <v>5.1073330068599425E-2</v>
       </c>
       <c r="F43" s="20">
         <v>0.61365819315487558</v>
       </c>
-      <c r="H43" s="38"/>
-      <c r="J43" s="38"/>
+      <c r="H43" s="2"/>
+      <c r="J43" s="2"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="19">
         <v>20</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="36">
         <f t="shared" si="1"/>
         <v>0.35720664404357927</v>
       </c>
       <c r="D44" s="19">
         <v>8.9263222154719948E-2</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="36">
         <v>5.0395270131194138E-2</v>
       </c>
       <c r="F44" s="20">
         <v>0.63270652065951039</v>
       </c>
-      <c r="H44" s="38"/>
-      <c r="J44" s="38"/>
+      <c r="H44" s="2"/>
+      <c r="J44" s="2"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="19">
         <v>21</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="36">
         <f t="shared" si="1"/>
         <v>0.37506697624575819</v>
       </c>
       <c r="D45" s="19">
         <v>8.611756323739439E-2</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="36">
         <v>4.9647009681194371E-2</v>
       </c>
       <c r="F45" s="20">
         <v>0.65059012118784543</v>
       </c>
-      <c r="H45" s="38"/>
-      <c r="J45" s="38"/>
+      <c r="H45" s="2"/>
+      <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="19">
         <v>22</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="36">
         <f t="shared" si="1"/>
         <v>0.39292730844793716</v>
       </c>
       <c r="D46" s="19">
         <v>8.2922336819380466E-2</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="36">
         <v>4.8826176719182254E-2</v>
       </c>
       <c r="F46" s="20">
         <v>0.66731521503406666</v>
       </c>
-      <c r="H46" s="38"/>
-      <c r="J46" s="38"/>
+      <c r="H46" s="2"/>
+      <c r="J46" s="2"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="19">
         <v>23</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="36">
         <f t="shared" si="1"/>
         <v>0.41078764065011614</v>
       </c>
       <c r="D47" s="19">
         <v>7.9678231508325606E-2</v>
       </c>
-      <c r="E47" s="43">
+      <c r="E47" s="36">
         <v>4.7930441166935414E-2</v>
       </c>
       <c r="F47" s="20">
         <v>0.68288194173889694</v>
       </c>
-      <c r="H47" s="38"/>
-      <c r="J47" s="38"/>
+      <c r="H47" s="2"/>
+      <c r="J47" s="2"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="19">
         <v>24</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="36">
         <f t="shared" si="1"/>
         <v>0.42864797285229511</v>
       </c>
       <c r="D48" s="19">
         <v>7.638595659731566E-2</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="36">
         <v>4.6957518943194825E-2</v>
       </c>
       <c r="F48" s="20">
         <v>0.69728312284624838</v>
       </c>
-      <c r="H48" s="38"/>
-      <c r="J48" s="38"/>
+      <c r="H48" s="2"/>
+      <c r="J48" s="2"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="19">
         <v>25</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="36">
         <f t="shared" si="1"/>
         <v>0.44650830505447409</v>
       </c>
       <c r="D49" s="19">
         <v>7.3046238743475406E-2</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="36">
         <v>4.5905175709907271E-2</v>
       </c>
       <c r="F49" s="20">
         <v>0.71050272104534196</v>
       </c>
-      <c r="H49" s="38"/>
-      <c r="J49" s="38"/>
+      <c r="H49" s="2"/>
+      <c r="J49" s="2"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="19">
         <v>26</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="36">
         <f t="shared" si="1"/>
         <v>0.46436863725665301</v>
       </c>
       <c r="D50" s="19">
         <v>6.9659815418716103E-2</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="36">
         <v>4.477122964425307E-2</v>
       </c>
       <c r="F50" s="20">
         <v>0.72251385129627366</v>
       </c>
-      <c r="H50" s="38"/>
-      <c r="J50" s="38"/>
+      <c r="H50" s="2"/>
+      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="19">
         <v>27</v>
       </c>
-      <c r="C51" s="43">
+      <c r="C51" s="36">
         <f t="shared" si="1"/>
         <v>0.48222896945883198</v>
       </c>
       <c r="D51" s="19">
         <v>6.6227430577614307E-2</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="36">
         <v>4.3553553662657195E-2</v>
       </c>
       <c r="F51" s="20">
         <v>0.73327622918475832</v>
       </c>
-      <c r="H51" s="38"/>
-      <c r="J51" s="38"/>
+      <c r="H51" s="2"/>
+      <c r="J51" s="2"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="19">
         <v>28</v>
       </c>
-      <c r="C52" s="43">
+      <c r="C52" s="36">
         <f t="shared" si="1"/>
         <v>0.50008930166101095</v>
       </c>
       <c r="D52" s="19">
         <v>6.2749833362113094E-2</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="36">
         <v>4.2250078583909931E-2</v>
       </c>
       <c r="F52" s="20">
         <v>0.74273282789477613</v>
       </c>
-      <c r="H52" s="38"/>
-      <c r="J52" s="38"/>
+      <c r="H52" s="2"/>
+      <c r="J52" s="2"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="19">
         <v>29</v>
       </c>
-      <c r="C53" s="43">
+      <c r="C53" s="36">
         <f t="shared" si="1"/>
         <v>0.51794963386318993</v>
       </c>
       <c r="D53" s="19">
         <v>5.9227772381406377E-2</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E53" s="36">
         <v>4.0858794452282646E-2</v>
       </c>
       <c r="F53" s="20">
         <v>0.750805387939388</v>
       </c>
-      <c r="H53" s="38"/>
-      <c r="J53" s="38"/>
+      <c r="H53" s="2"/>
+      <c r="J53" s="2"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="19">
         <v>30</v>
       </c>
-      <c r="C54" s="43">
+      <c r="C54" s="36">
         <f t="shared" si="1"/>
         <v>0.5358099660653689</v>
       </c>
       <c r="D54" s="19">
         <v>5.5661987509543508E-2</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="36">
         <v>3.937774944449788E-2</v>
       </c>
       <c r="F54" s="20">
         <v>0.75738832359264596</v>
       </c>
-      <c r="H54" s="38"/>
-      <c r="J54" s="38"/>
+      <c r="H54" s="2"/>
+      <c r="J54" s="2"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="19">
         <v>31</v>
       </c>
-      <c r="C55" s="43">
+      <c r="C55" s="36">
         <f t="shared" si="1"/>
         <v>0.55367029826754788</v>
       </c>
       <c r="D55" s="19">
         <v>5.2053213750376616E-2</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="36">
         <v>3.7805053446073308E-2</v>
       </c>
       <c r="F55" s="20">
         <v>0.76234036870403954</v>
       </c>
-      <c r="H55" s="38"/>
-      <c r="J55" s="38"/>
+      <c r="H55" s="2"/>
+      <c r="J55" s="2"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="19">
         <v>32</v>
       </c>
-      <c r="C56" s="43">
+      <c r="C56" s="36">
         <f t="shared" si="1"/>
         <v>0.57153063046972685</v>
       </c>
       <c r="D56" s="19">
         <v>4.8402174324246629E-2</v>
       </c>
-      <c r="E56" s="43">
+      <c r="E56" s="36">
         <v>3.6138876930226757E-2</v>
       </c>
       <c r="F56" s="20">
         <v>0.76547274175265079</v>
       </c>
-      <c r="H56" s="38"/>
-      <c r="J56" s="38"/>
+      <c r="H56" s="2"/>
+      <c r="J56" s="2"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="19">
         <v>33</v>
       </c>
-      <c r="C57" s="43">
+      <c r="C57" s="36">
         <f t="shared" si="1"/>
         <v>0.58939096267190572</v>
       </c>
       <c r="D57" s="19">
         <v>4.4709578491025227E-2</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E57" s="36">
         <v>3.4377451150045792E-2</v>
       </c>
       <c r="F57" s="20">
         <v>0.76653214900853361</v>
       </c>
-      <c r="H57" s="38"/>
-      <c r="J57" s="38"/>
+      <c r="H57" s="2"/>
+      <c r="J57" s="2"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="19">
         <v>34</v>
       </c>
-      <c r="C58" s="43">
+      <c r="C58" s="36">
         <f t="shared" si="1"/>
         <v>0.60725129487408469</v>
       </c>
       <c r="D58" s="19">
         <v>4.1543323116758443E-2</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="36">
         <v>3.3208413976648005E-2</v>
       </c>
       <c r="F58" s="20">
         <v>0.75966400484418584</v>
       </c>
-      <c r="H58" s="38"/>
-      <c r="J58" s="38"/>
+      <c r="H58" s="2"/>
+      <c r="J58" s="2"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="19">
         <v>35</v>
       </c>
-      <c r="C59" s="43">
+      <c r="C59" s="36">
         <f t="shared" si="1"/>
         <v>0.62511162707626367</v>
       </c>
       <c r="D59" s="19">
         <v>3.7971951154892644E-2</v>
       </c>
-      <c r="E59" s="43">
+      <c r="E59" s="36">
         <v>3.1260643752866954E-2</v>
       </c>
       <c r="F59" s="20">
         <v>0.75931603831793859</v>
       </c>
-      <c r="H59" s="38"/>
-      <c r="J59" s="38"/>
+      <c r="H59" s="2"/>
+      <c r="J59" s="2"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="19">
         <v>36</v>
       </c>
-      <c r="C60" s="43">
+      <c r="C60" s="36">
         <f t="shared" si="1"/>
         <v>0.64297195927844264</v>
       </c>
       <c r="D60" s="19">
         <v>3.4366650775569448E-2</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E60" s="36">
         <v>2.9215999168895716E-2</v>
       </c>
       <c r="F60" s="20">
         <v>0.75632507569793639</v>
       </c>
-      <c r="H60" s="38"/>
-      <c r="J60" s="38"/>
+      <c r="H60" s="2"/>
+      <c r="J60" s="2"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="19">
         <v>37</v>
       </c>
-      <c r="C61" s="43">
+      <c r="C61" s="36">
         <f t="shared" si="1"/>
         <v>0.66083229148062161</v>
       </c>
       <c r="D61" s="19">
         <v>3.0728073222855617E-2</v>
       </c>
-      <c r="E61" s="43">
+      <c r="E61" s="36">
         <v>2.7073060859561449E-2</v>
       </c>
       <c r="F61" s="20">
         <v>0.7500482913985862</v>
       </c>
-      <c r="H61" s="38"/>
-      <c r="J61" s="38"/>
+      <c r="H61" s="2"/>
+      <c r="J61" s="2"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="19">
         <v>38</v>
       </c>
-      <c r="C62" s="43">
+      <c r="C62" s="36">
         <f t="shared" si="1"/>
         <v>0.67869262368280059</v>
       </c>
       <c r="D62" s="19">
         <v>2.7056837308200583E-2</v>
       </c>
-      <c r="E62" s="43">
+      <c r="E62" s="36">
         <v>2.4830454913392794E-2</v>
       </c>
       <c r="F62" s="20">
         <v>0.73954649503246694</v>
       </c>
-      <c r="H62" s="38"/>
-      <c r="J62" s="38"/>
+      <c r="H62" s="2"/>
+      <c r="J62" s="2"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="19">
         <v>39</v>
       </c>
-      <c r="C63" s="43">
+      <c r="C63" s="36">
         <f t="shared" si="1"/>
         <v>0.69655295588497956</v>
       </c>
       <c r="D63" s="19">
         <v>2.3353540249377965E-2</v>
       </c>
-      <c r="E63" s="43">
+      <c r="E63" s="36">
         <v>2.24868576646267E-2</v>
       </c>
       <c r="F63" s="20">
         <v>0.72339931766776311</v>
       </c>
-      <c r="H63" s="38"/>
-      <c r="J63" s="38"/>
+      <c r="H63" s="2"/>
+      <c r="J63" s="2"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="19">
         <v>40</v>
       </c>
-      <c r="C64" s="43">
+      <c r="C64" s="36">
         <f t="shared" si="1"/>
         <v>0.71441328808715854</v>
       </c>
       <c r="D64" s="19">
         <v>1.9618751498962167E-2</v>
       </c>
-      <c r="E64" s="43">
+      <c r="E64" s="36">
         <v>2.0040991672569414E-2</v>
       </c>
       <c r="F64" s="20">
         <v>0.69936143857204069</v>
       </c>
-      <c r="H64" s="38"/>
-      <c r="J64" s="38"/>
+      <c r="H64" s="2"/>
+      <c r="J64" s="2"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="19">
         <v>41</v>
       </c>
-      <c r="C65" s="43">
+      <c r="C65" s="36">
         <f t="shared" si="1"/>
         <v>0.73227362028933751</v>
       </c>
       <c r="D65" s="19">
         <v>1.5853013965171921E-2</v>
       </c>
-      <c r="E65" s="43">
+      <c r="E65" s="36">
         <v>1.7491624618448474E-2</v>
       </c>
       <c r="F65" s="20">
         <v>0.66367442601815763</v>
       </c>
-      <c r="H65" s="38"/>
-      <c r="J65" s="38"/>
+      <c r="H65" s="2"/>
+      <c r="J65" s="2"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="19">
         <v>42</v>
       </c>
-      <c r="C66" s="43">
+      <c r="C66" s="36">
         <f t="shared" si="1"/>
         <v>0.75013395249151638</v>
       </c>
       <c r="D66" s="19">
         <v>1.2056846041127757E-2</v>
       </c>
-      <c r="E66" s="43">
+      <c r="E66" s="36">
         <v>1.4837569799811086E-2</v>
       </c>
       <c r="F66" s="20">
         <v>0.60955060009409423</v>
       </c>
-      <c r="H66" s="38"/>
-      <c r="J66" s="38"/>
+      <c r="H66" s="2"/>
+      <c r="J66" s="2"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" s="19">
         <v>43</v>
       </c>
-      <c r="C67" s="43">
+      <c r="C67" s="36">
         <f t="shared" si="1"/>
         <v>0.76799428469369535</v>
       </c>
       <c r="D67" s="19">
         <v>9.478771566653544E-3</v>
       </c>
-      <c r="E67" s="43">
+      <c r="E67" s="36">
         <v>1.3969921951479934E-2</v>
       </c>
       <c r="F67" s="20">
         <v>0.52109399139025547</v>
       </c>
-      <c r="H67" s="38"/>
-      <c r="J67" s="38"/>
+      <c r="H67" s="2"/>
+      <c r="J67" s="2"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" s="19">
         <v>44</v>
       </c>
-      <c r="C68" s="43">
+      <c r="C68" s="36">
         <f t="shared" si="1"/>
         <v>0.78585461689587432</v>
       </c>
       <c r="D68" s="19">
         <v>5.9745670722236117E-3</v>
       </c>
-      <c r="E68" s="43">
+      <c r="E68" s="36">
         <v>1.113815586381486E-2</v>
       </c>
       <c r="F68" s="20">
         <v>0.42153666864317774</v>
       </c>
-      <c r="H68" s="38"/>
-      <c r="J68" s="38"/>
+      <c r="H68" s="2"/>
+      <c r="J68" s="2"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="39">
+      <c r="B69" s="32">
         <v>45</v>
       </c>
-      <c r="C69" s="44">
+      <c r="C69" s="37">
         <f t="shared" si="1"/>
         <v>0.8037149490980533</v>
       </c>
-      <c r="D69" s="39">
+      <c r="D69" s="32">
         <v>2.4488326488181986E-3</v>
       </c>
-      <c r="E69" s="44">
+      <c r="E69" s="37">
         <v>8.2051630940321672E-3</v>
       </c>
       <c r="F69" s="22">
         <v>0.2398688953698028</v>
       </c>
-      <c r="H69" s="38"/>
-      <c r="J69" s="38"/>
+      <c r="H69" s="2"/>
+      <c r="J69" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/sheets/BEMT.xlsx
+++ b/sheets/BEMT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50AF903-446A-AC48-963E-A1FACF966845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA46C16-88BA-6845-B3CD-91458BB8FE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{3818933C-C78F-A44D-BD0C-A20632FBDB3F}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="122">
   <si>
     <t>[case]</t>
   </si>
@@ -28136,7 +28136,7 @@
   <dimension ref="B2:BE136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="N21" sqref="N21:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29785,8 +29785,8 @@
         <v>100</v>
       </c>
       <c r="G15" s="2">
-        <f>SQRT(G10^3/(2*C41*PI()*(C8/2)^2))/1000</f>
-        <v>82.927947944833036</v>
+        <f>G10*(C3/2 + SQRT( (C3/2)^2 + (G10/(2*C41*PI()*G3^2))) )/1000</f>
+        <v>85.454746924080695</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>99</v>
@@ -29912,7 +29912,7 @@
       </c>
       <c r="G16" s="2">
         <f>G15/G12</f>
-        <v>0.76460484091480463</v>
+        <v>0.7879022066332545</v>
       </c>
       <c r="H16" s="3"/>
       <c r="J16" s="2" t="s">
@@ -38872,10 +38872,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF676D7-47B6-0F44-A1F9-CF984FF81BA6}">
-  <dimension ref="B2:BS117"/>
+  <dimension ref="B2:CE117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38893,7 +38893,7 @@
     <col min="61" max="61" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>50</v>
       </c>
@@ -38934,8 +38934,15 @@
         <v>121</v>
       </c>
       <c r="BL2" s="2"/>
+      <c r="BV2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BX2" s="2"/>
     </row>
-    <row r="3" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:83" x14ac:dyDescent="0.2">
       <c r="C3" s="48" t="s">
         <v>60</v>
       </c>
@@ -39027,8 +39034,23 @@
       </c>
       <c r="BR3" s="48"/>
       <c r="BS3" s="48"/>
+      <c r="BW3" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="BX3" s="48"/>
+      <c r="BY3" s="48"/>
+      <c r="BZ3" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="CA3" s="48"/>
+      <c r="CB3" s="48"/>
+      <c r="CC3" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD3" s="48"/>
+      <c r="CE3" s="48"/>
     </row>
-    <row r="4" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:83" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>63</v>
       </c>
@@ -39141,8 +39163,24 @@
       </c>
       <c r="BR4" s="2"/>
       <c r="BS4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BX4" s="7"/>
+      <c r="BY4" s="7"/>
+      <c r="BZ4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
     </row>
-    <row r="5" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>52</v>
       </c>
@@ -39223,8 +39261,18 @@
       <c r="BO5" s="10"/>
       <c r="BP5" s="10"/>
       <c r="BQ5" s="10"/>
+      <c r="BV5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BW5" s="7"/>
+      <c r="BX5" s="7"/>
+      <c r="BY5" s="10"/>
+      <c r="BZ5" s="10"/>
+      <c r="CA5" s="10"/>
+      <c r="CB5" s="10"/>
+      <c r="CC5" s="10"/>
     </row>
-    <row r="6" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>53</v>
       </c>
@@ -39305,8 +39353,18 @@
       <c r="BO6" s="10"/>
       <c r="BP6" s="10"/>
       <c r="BQ6" s="10"/>
+      <c r="BV6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BW6" s="7"/>
+      <c r="BX6" s="7"/>
+      <c r="BY6" s="10"/>
+      <c r="BZ6" s="10"/>
+      <c r="CA6" s="10"/>
+      <c r="CB6" s="10"/>
+      <c r="CC6" s="10"/>
     </row>
-    <row r="7" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:83" x14ac:dyDescent="0.2">
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -39320,7 +39378,7 @@
       <c r="BK7" s="2"/>
       <c r="BL7" s="2"/>
     </row>
-    <row r="8" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -39400,8 +39458,17 @@
       <c r="BL8" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="BV8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BW8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BX8" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="9" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>-180</v>
       </c>
@@ -39483,7 +39550,7 @@
         <v>7.9652736000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>-176.363636363636</v>
       </c>
@@ -39563,7 +39630,7 @@
         <v>8.2075064419237106E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>-172.72727272727201</v>
       </c>
@@ -39638,7 +39705,7 @@
         <v>9.8626242426573404E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>-169.09090909090901</v>
       </c>
@@ -39718,7 +39785,7 @@
         <v>0.14254193778124399</v>
       </c>
     </row>
-    <row r="13" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>-165.45454545454501</v>
       </c>
@@ -39798,7 +39865,7 @@
         <v>0.21516547684083201</v>
       </c>
     </row>
-    <row r="14" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>-161.81818181818099</v>
       </c>
@@ -39873,7 +39940,7 @@
         <v>0.28708838802095399</v>
       </c>
     </row>
-    <row r="15" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>-158.18181818181799</v>
       </c>
@@ -39953,7 +40020,7 @@
         <v>0.34429008436838299</v>
       </c>
     </row>
-    <row r="16" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>-154.54545454545399</v>
       </c>
@@ -45770,7 +45837,7 @@
       <c r="I117" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="I3:K3"/>
@@ -45782,13 +45849,16 @@
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
     <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
     <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sheets/BEMT.xlsx
+++ b/sheets/BEMT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA8DD69-4670-9041-8C7A-8F2C6B160E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D07FCC-A026-7944-8E5B-C3FA29A72039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{3818933C-C78F-A44D-BD0C-A20632FBDB3F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3818933C-C78F-A44D-BD0C-A20632FBDB3F}"/>
   </bookViews>
   <sheets>
     <sheet name="BEMT" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -835,52 +835,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -890,6 +854,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -38323,7 +38308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B2AB9D-DC7A-E946-B7FC-3BFE04AF1B17}">
   <dimension ref="B2:BF136"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
       <selection activeCell="F33" sqref="F33:H33"/>
     </sheetView>
   </sheetViews>
@@ -38370,58 +38355,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="J2" s="43" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="J2" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="R2" s="43" t="s">
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="R2" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Z2" s="43" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AK2" s="43" t="s">
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AK2" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
       <c r="AV2" s="16" t="s">
         <v>50</v>
       </c>
@@ -38458,27 +38443,27 @@
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="N3" s="44" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="N3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="R3" s="44" t="s">
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="R3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="44" t="s">
+      <c r="V3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
       <c r="Z3" s="8" t="s">
         <v>33</v>
       </c>
@@ -38540,22 +38525,22 @@
         <v>42</v>
       </c>
       <c r="AV3" s="19"/>
-      <c r="AW3" s="52" t="s">
+      <c r="AW3" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52" t="s">
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52" t="s">
+      <c r="BA3" s="53"/>
+      <c r="BB3" s="53"/>
+      <c r="BC3" s="53"/>
+      <c r="BD3" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="46"/>
+      <c r="BE3" s="53"/>
+      <c r="BF3" s="54"/>
     </row>
     <row r="4" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -38661,29 +38646,29 @@
       <c r="AS4" s="15"/>
       <c r="AT4" s="15"/>
       <c r="AV4" s="19"/>
-      <c r="AW4" s="53" t="s">
+      <c r="AW4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AX4" s="51">
+      <c r="AX4" s="2">
         <v>-180</v>
       </c>
-      <c r="AY4" s="51">
+      <c r="AY4" s="2">
         <v>-9.25</v>
       </c>
-      <c r="AZ4" s="52" t="s">
+      <c r="AZ4" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="51">
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="2">
         <v>-9.25</v>
       </c>
-      <c r="BC4" s="51">
+      <c r="BC4" s="2">
         <v>17</v>
       </c>
-      <c r="BD4" s="53" t="s">
+      <c r="BD4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="BE4" s="51">
+      <c r="BE4" s="2">
         <v>17</v>
       </c>
       <c r="BF4" s="20">
@@ -38750,7 +38735,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="AB5" s="2">
-        <f t="dataTable" ref="AB5:AB34" dt2D="0" dtr="0" r1="S4" ca="1"/>
+        <f t="dataTable" ref="AB5:AB34" dt2D="0" dtr="0" r1="S4"/>
         <v>-2.650293839619299</v>
       </c>
       <c r="AC5" s="9">
@@ -38766,7 +38751,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="AF5" s="2">
-        <f t="dataTable" ref="AF5:AF34" dt2D="0" dtr="0" r1="S4"/>
+        <f t="dataTable" ref="AF5:AF34" dt2D="0" dtr="0" r1="S4" ca="1"/>
         <v>0.94325854817413146</v>
       </c>
       <c r="AG5" s="2">
@@ -38789,7 +38774,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="AM5" s="2">
-        <f t="dataTable" ref="AM5:AM34" dt2D="0" dtr="0" r1="W4"/>
+        <f t="dataTable" ref="AM5:AM34" dt2D="0" dtr="0" r1="W4" ca="1"/>
         <v>-2.4089855897477293</v>
       </c>
       <c r="AN5" s="9">
@@ -38797,7 +38782,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="AO5" s="2">
-        <f t="dataTable" ref="AO5:AO34" dt2D="0" dtr="0" r1="W4" ca="1"/>
+        <f t="dataTable" ref="AO5:AO34" dt2D="0" dtr="0" r1="W4"/>
         <v>0.68741166787871211</v>
       </c>
       <c r="AP5" s="2">
@@ -38823,43 +38808,43 @@
       <c r="AV5" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AW5" s="54">
+      <c r="AW5" s="29">
         <v>1.6055E-4</v>
       </c>
-      <c r="AX5" s="54">
+      <c r="AX5" s="29">
         <v>3.0383250000000001E-2</v>
       </c>
-      <c r="AY5" s="54">
+      <c r="AY5" s="29">
         <v>-0.12669162</v>
       </c>
-      <c r="AZ5" s="56">
+      <c r="AZ5" s="44">
         <v>-2.262E-4</v>
       </c>
-      <c r="BA5" s="56">
+      <c r="BA5" s="44">
         <v>3.5166E-4</v>
       </c>
-      <c r="BB5" s="56">
+      <c r="BB5" s="44">
         <v>0.11501989</v>
       </c>
-      <c r="BC5" s="56">
+      <c r="BC5" s="44">
         <v>0.376</v>
       </c>
-      <c r="BD5" s="58">
+      <c r="BD5" s="46">
         <v>1.3341000000000001E-4</v>
       </c>
-      <c r="BE5" s="58">
+      <c r="BE5" s="46">
         <v>-2.6282719999999999E-2</v>
       </c>
-      <c r="BF5" s="59">
+      <c r="BF5" s="47">
         <v>1.7592493499999999</v>
       </c>
     </row>
     <row r="6" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="F6" s="2" t="s">
         <v>114</v>
       </c>
@@ -38986,34 +38971,34 @@
       <c r="AV6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="AW6" s="55">
+      <c r="AW6" s="43">
         <v>1.0179E-4</v>
       </c>
-      <c r="AX6" s="55">
+      <c r="AX6" s="43">
         <v>1.9263349999999999E-2</v>
       </c>
-      <c r="AY6" s="55">
+      <c r="AY6" s="43">
         <v>0.25451674000000002</v>
       </c>
-      <c r="AZ6" s="57">
+      <c r="AZ6" s="45">
         <v>5.6300000000000003E-6</v>
       </c>
-      <c r="BA6" s="57">
+      <c r="BA6" s="45">
         <v>2.6542999999999998E-4</v>
       </c>
-      <c r="BB6" s="57">
+      <c r="BB6" s="45">
         <v>-1.7055799999999999E-3</v>
       </c>
-      <c r="BC6" s="57">
+      <c r="BC6" s="45">
         <v>6.5199999999999998E-3</v>
       </c>
-      <c r="BD6" s="60">
+      <c r="BD6" s="48">
         <v>-1.0645999999999999E-4</v>
       </c>
-      <c r="BE6" s="60">
+      <c r="BE6" s="48">
         <v>2.097336E-2</v>
       </c>
-      <c r="BF6" s="61">
+      <c r="BF6" s="49">
         <v>-0.23195915</v>
       </c>
     </row>
@@ -39272,11 +39257,11 @@
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
       <c r="J9" s="2" t="s">
         <v>90</v>
       </c>
@@ -39518,7 +39503,7 @@
       </c>
     </row>
     <row r="11" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="51" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -39627,7 +39612,7 @@
       </c>
     </row>
     <row r="12" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B12" s="47"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
@@ -39642,16 +39627,16 @@
       <c r="H12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="N12" s="44" t="s">
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="N12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
       <c r="R12" s="2" t="s">
         <v>48</v>
       </c>
@@ -39743,7 +39728,7 @@
       </c>
     </row>
     <row r="13" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="9" t="s">
         <v>16</v>
       </c>
@@ -39859,16 +39844,16 @@
       </c>
     </row>
     <row r="14" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B14" s="47"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
       <c r="J14" s="2" t="s">
         <v>86</v>
       </c>
@@ -39980,7 +39965,7 @@
       </c>
     </row>
     <row r="15" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B15" s="47"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -40106,7 +40091,7 @@
       </c>
     </row>
     <row r="16" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B16" s="47"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="9" t="s">
         <v>16</v>
       </c>
@@ -40230,7 +40215,7 @@
       </c>
     </row>
     <row r="17" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B17" s="47"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="9" t="s">
         <v>16</v>
       </c>
@@ -40350,7 +40335,7 @@
       </c>
     </row>
     <row r="18" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="51" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="9">
@@ -40478,7 +40463,7 @@
       </c>
     </row>
     <row r="19" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B19" s="47"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="9">
         <v>0.67500000000000004</v>
       </c>
@@ -40604,7 +40589,7 @@
       </c>
     </row>
     <row r="20" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B20" s="47"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="9">
         <v>0.82499999999999996</v>
       </c>
@@ -40710,7 +40695,7 @@
       </c>
     </row>
     <row r="21" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B21" s="47"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="9">
         <v>0.97499999999999998</v>
       </c>
@@ -40718,16 +40703,16 @@
         <v>10</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="J21" s="44" t="s">
+      <c r="J21" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="N21" s="44" t="s">
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="N21" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -40809,18 +40794,18 @@
       </c>
     </row>
     <row r="22" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B22" s="47"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="9">
         <v>1.125</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
       <c r="J22" s="2" t="s">
         <v>91</v>
       </c>
@@ -40841,17 +40826,17 @@
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="44" t="s">
+      <c r="R22" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="44" t="s">
+      <c r="V22" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
       <c r="Z22" s="2">
         <v>18</v>
       </c>
@@ -40926,21 +40911,21 @@
       </c>
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B23" s="47"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="9">
         <v>1.2749999999999999</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="51">
         <f>S20</f>
         <v>-1.2030288987219251E-9</v>
       </c>
-      <c r="H23" s="47"/>
+      <c r="H23" s="51"/>
       <c r="J23" s="2" t="s">
         <v>86</v>
       </c>
@@ -41056,19 +41041,19 @@
       </c>
     </row>
     <row r="24" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B24" s="47"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="9">
         <v>1.425</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="47">
+      <c r="F24" s="53"/>
+      <c r="G24" s="51">
         <f>W20</f>
         <v>2.914779528850886E-9</v>
       </c>
-      <c r="H24" s="47"/>
+      <c r="H24" s="51"/>
       <c r="J24" s="2" t="s">
         <v>87</v>
       </c>
@@ -41184,7 +41169,7 @@
       </c>
     </row>
     <row r="25" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="51" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="9">
@@ -41193,12 +41178,12 @@
       <c r="D25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="47">
+      <c r="F25" s="53"/>
+      <c r="G25" s="51">
         <f>S39</f>
         <v>-2.1474398925747096E-9</v>
       </c>
-      <c r="H25" s="47"/>
+      <c r="H25" s="51"/>
       <c r="J25" s="2" t="s">
         <v>88</v>
       </c>
@@ -41314,19 +41299,19 @@
       </c>
     </row>
     <row r="26" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B26" s="47"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="9">
         <v>0.22500000000000001</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="47">
+      <c r="F26" s="53"/>
+      <c r="G26" s="51">
         <f>W39</f>
         <v>-3.3225527329427962E-9</v>
       </c>
-      <c r="H26" s="47"/>
+      <c r="H26" s="51"/>
       <c r="J26" s="2" t="s">
         <v>89</v>
       </c>
@@ -41438,19 +41423,19 @@
       </c>
     </row>
     <row r="27" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B27" s="47"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="9">
         <v>0.22500000000000001</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="47">
+      <c r="F27" s="53"/>
+      <c r="G27" s="51">
         <f>S58</f>
         <v>-3.7887176174145054E-9</v>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="51"/>
       <c r="J27" s="2" t="s">
         <v>90</v>
       </c>
@@ -41562,19 +41547,19 @@
       </c>
     </row>
     <row r="28" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B28" s="47"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="9">
         <v>0.21</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="47">
+      <c r="F28" s="53"/>
+      <c r="G28" s="51">
         <f>W58</f>
         <v>-1.3615447658210655E-10</v>
       </c>
-      <c r="H28" s="47"/>
+      <c r="H28" s="51"/>
       <c r="J28" s="2" t="s">
         <v>94</v>
       </c>
@@ -41686,19 +41671,19 @@
       </c>
     </row>
     <row r="29" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B29" s="47"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="9">
         <v>0.1875</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="47">
+      <c r="F29" s="53"/>
+      <c r="G29" s="51">
         <f>S77</f>
         <v>-3.6604095310366347E-9</v>
       </c>
-      <c r="H29" s="47"/>
+      <c r="H29" s="51"/>
       <c r="R29" s="2" t="s">
         <v>72</v>
       </c>
@@ -41790,7 +41775,7 @@
       </c>
     </row>
     <row r="30" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B30" s="47"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="9">
         <v>0.14249999999999999</v>
       </c>
@@ -41800,16 +41785,16 @@
       <c r="F30" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="47" t="b">
+      <c r="G30" s="51" t="b">
         <f>IF(G23&lt;0.00001,IF(G24&lt;0.00001,IF(G25&lt;0.00001,IF(G26&lt;0.00001,IF(G27&lt;0.00001,IF(G28&lt;0.00001,IF(G29&lt;0.00001,TRUE,FALSE),FALSE),FALSE),FALSE),FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="H30" s="47"/>
-      <c r="J30" s="44" t="s">
+      <c r="H30" s="51"/>
+      <c r="J30" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
       <c r="R30" s="2" t="s">
         <v>70</v>
       </c>
@@ -41901,7 +41886,7 @@
       </c>
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B31" s="47"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="9">
         <v>0.12</v>
       </c>
@@ -42009,7 +41994,7 @@
       </c>
     </row>
     <row r="32" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="51" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="9">
@@ -42119,24 +42104,12 @@
       </c>
     </row>
     <row r="33" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B33" s="47"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="9">
         <v>17</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F33">
-        <f>G17</f>
-        <v>1.3742627880093507E-3</v>
-      </c>
-      <c r="G33">
-        <f>G19</f>
-        <v>8.398762688869835E-3</v>
-      </c>
-      <c r="H33">
-        <f>G20</f>
-        <v>0.1315093172207383</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>87</v>
@@ -42238,7 +42211,7 @@
       </c>
     </row>
     <row r="34" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B34" s="47"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="9">
         <v>17</v>
       </c>
@@ -42345,7 +42318,7 @@
       </c>
     </row>
     <row r="35" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B35" s="47"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="9">
         <v>17</v>
       </c>
@@ -42388,7 +42361,7 @@
       <c r="AI35" s="2"/>
     </row>
     <row r="36" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B36" s="47"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="9">
         <v>17</v>
       </c>
@@ -42421,33 +42394,33 @@
         <v>-597.34060987781902</v>
       </c>
       <c r="X36" s="2"/>
-      <c r="Z36" s="43" t="s">
+      <c r="Z36" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="43"/>
-      <c r="AC36" s="43"/>
-      <c r="AD36" s="43"/>
-      <c r="AE36" s="43"/>
-      <c r="AF36" s="43"/>
-      <c r="AG36" s="43"/>
-      <c r="AH36" s="43"/>
-      <c r="AI36" s="43"/>
-      <c r="AK36" s="43" t="s">
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="52"/>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52"/>
+      <c r="AK36" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="AL36" s="43"/>
-      <c r="AM36" s="43"/>
-      <c r="AN36" s="43"/>
-      <c r="AO36" s="43"/>
-      <c r="AP36" s="43"/>
-      <c r="AQ36" s="43"/>
-      <c r="AR36" s="43"/>
-      <c r="AS36" s="43"/>
-      <c r="AT36" s="43"/>
+      <c r="AL36" s="52"/>
+      <c r="AM36" s="52"/>
+      <c r="AN36" s="52"/>
+      <c r="AO36" s="52"/>
+      <c r="AP36" s="52"/>
+      <c r="AQ36" s="52"/>
+      <c r="AR36" s="52"/>
+      <c r="AS36" s="52"/>
+      <c r="AT36" s="52"/>
     </row>
     <row r="37" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B37" s="47"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="9">
         <v>17</v>
       </c>
@@ -42542,7 +42515,7 @@
       </c>
     </row>
     <row r="38" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B38" s="47"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="9">
         <v>17</v>
       </c>
@@ -42636,7 +42609,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="AB39" s="2">
-        <f t="dataTable" ref="AB39:AB68" dt2D="0" dtr="0" r1="S23"/>
+        <f t="dataTable" ref="AB39:AB68" dt2D="0" dtr="0" r1="S23" ca="1"/>
         <v>-1.9537184248143031</v>
       </c>
       <c r="AC39" s="9">
@@ -42644,7 +42617,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="AD39" s="2">
-        <f t="dataTable" ref="AD39:AD68" dt2D="0" dtr="0" r1="S23" ca="1"/>
+        <f t="dataTable" ref="AD39:AD68" dt2D="0" dtr="0" r1="S23"/>
         <v>0.62186968739748272</v>
       </c>
       <c r="AE39" s="2">
@@ -42675,7 +42648,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="AM39" s="2">
-        <f t="dataTable" ref="AM39:AM68" dt2D="0" dtr="0" r1="W23" ca="1"/>
+        <f t="dataTable" ref="AM39:AM68" dt2D="0" dtr="0" r1="W23"/>
         <v>-1.5567107390906405</v>
       </c>
       <c r="AN39" s="9">
@@ -42691,7 +42664,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="AQ39" s="2">
-        <f t="dataTable" ref="AQ39:AQ68" dt2D="0" dtr="0" r1="W23"/>
+        <f t="dataTable" ref="AQ39:AQ68" dt2D="0" dtr="0" r1="W23" ca="1"/>
         <v>0.94498240947545264</v>
       </c>
       <c r="AR39" s="2">
@@ -42708,11 +42681,11 @@
       </c>
     </row>
     <row r="40" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
       <c r="Z40" s="2">
         <v>2</v>
       </c>
@@ -42796,17 +42769,17 @@
       <c r="D41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="44" t="s">
+      <c r="R41" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
       <c r="U41" s="2"/>
-      <c r="V41" s="44" t="s">
+      <c r="V41" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
       <c r="Z41" s="2">
         <v>3</v>
       </c>
@@ -44576,11 +44549,11 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="3"/>
-      <c r="R60" s="44" t="s">
+      <c r="R60" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="S60" s="44"/>
-      <c r="T60" s="44"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="50"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
@@ -45388,30 +45361,30 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
       <c r="X70" s="3"/>
-      <c r="Z70" s="43" t="s">
+      <c r="Z70" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="AA70" s="43"/>
-      <c r="AB70" s="43"/>
-      <c r="AC70" s="43"/>
-      <c r="AD70" s="43"/>
-      <c r="AE70" s="43"/>
-      <c r="AF70" s="43"/>
-      <c r="AG70" s="43"/>
-      <c r="AH70" s="43"/>
-      <c r="AI70" s="43"/>
-      <c r="AK70" s="43" t="s">
+      <c r="AA70" s="52"/>
+      <c r="AB70" s="52"/>
+      <c r="AC70" s="52"/>
+      <c r="AD70" s="52"/>
+      <c r="AE70" s="52"/>
+      <c r="AF70" s="52"/>
+      <c r="AG70" s="52"/>
+      <c r="AH70" s="52"/>
+      <c r="AI70" s="52"/>
+      <c r="AK70" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="AL70" s="43"/>
-      <c r="AM70" s="43"/>
-      <c r="AN70" s="43"/>
-      <c r="AO70" s="43"/>
-      <c r="AP70" s="43"/>
-      <c r="AQ70" s="43"/>
-      <c r="AR70" s="43"/>
-      <c r="AS70" s="43"/>
-      <c r="AT70" s="43"/>
+      <c r="AL70" s="52"/>
+      <c r="AM70" s="52"/>
+      <c r="AN70" s="52"/>
+      <c r="AO70" s="52"/>
+      <c r="AP70" s="52"/>
+      <c r="AQ70" s="52"/>
+      <c r="AR70" s="52"/>
+      <c r="AS70" s="52"/>
+      <c r="AT70" s="52"/>
     </row>
     <row r="71" spans="4:46" x14ac:dyDescent="0.2">
       <c r="R71" s="2" t="s">
@@ -45564,7 +45537,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="AB73" s="2">
-        <f t="dataTable" ref="AB73:AB102" dt2D="0" dtr="0" r1="S42" ca="1"/>
+        <f t="dataTable" ref="AB73:AB102" dt2D="0" dtr="0" r1="S42"/>
         <v>-1.2310933246421905</v>
       </c>
       <c r="AC73" s="9">
@@ -45580,7 +45553,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="AF73" s="2">
-        <f t="dataTable" ref="AF73:AF102" dt2D="0" dtr="0" r1="S42"/>
+        <f t="dataTable" ref="AF73:AF102" dt2D="0" dtr="0" r1="S42" ca="1"/>
         <v>0.94788735587718886</v>
       </c>
       <c r="AG73" s="2">
@@ -45603,7 +45576,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="AM73" s="2">
-        <f t="dataTable" ref="AM73:AM102" dt2D="0" dtr="0" r1="W42" ca="1"/>
+        <f t="dataTable" ref="AM73:AM102" dt2D="0" dtr="0" r1="W42"/>
         <v>-0.88690003378398174</v>
       </c>
       <c r="AN73" s="9">
@@ -45619,7 +45592,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="AQ73" s="2">
-        <f t="dataTable" ref="AQ73:AQ102" dt2D="0" dtr="0" r1="W42"/>
+        <f t="dataTable" ref="AQ73:AQ102" dt2D="0" dtr="0" r1="W42" ca="1"/>
         <v>0.95037090597399254</v>
       </c>
       <c r="AR73" s="2">
@@ -47822,18 +47795,18 @@
       </c>
     </row>
     <row r="104" spans="26:46" x14ac:dyDescent="0.2">
-      <c r="Z104" s="43" t="s">
+      <c r="Z104" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="AA104" s="43"/>
-      <c r="AB104" s="43"/>
-      <c r="AC104" s="43"/>
-      <c r="AD104" s="43"/>
-      <c r="AE104" s="43"/>
-      <c r="AF104" s="43"/>
-      <c r="AG104" s="43"/>
-      <c r="AH104" s="43"/>
-      <c r="AI104" s="43"/>
+      <c r="AA104" s="52"/>
+      <c r="AB104" s="52"/>
+      <c r="AC104" s="52"/>
+      <c r="AD104" s="52"/>
+      <c r="AE104" s="52"/>
+      <c r="AF104" s="52"/>
+      <c r="AG104" s="52"/>
+      <c r="AH104" s="52"/>
+      <c r="AI104" s="52"/>
     </row>
     <row r="105" spans="26:46" x14ac:dyDescent="0.2">
       <c r="Z105" s="8" t="s">
@@ -47899,7 +47872,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="AB107" s="2">
-        <f t="dataTable" ref="AB107:AB136" dt2D="0" dtr="0" r1="S61" ca="1"/>
+        <f t="dataTable" ref="AB107:AB136" dt2D="0" dtr="0" r1="S61"/>
         <v>-0.71245338447031192</v>
       </c>
       <c r="AC107" s="9">
@@ -47915,7 +47888,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="AF107" s="2">
-        <f t="dataTable" ref="AF107:AF136" dt2D="0" dtr="0" r1="S61"/>
+        <f t="dataTable" ref="AF107:AF136" dt2D="0" dtr="0" r1="S61" ca="1"/>
         <v>0.95348012650484926</v>
       </c>
       <c r="AG107" s="2">
@@ -49035,37 +49008,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BC3"/>
-    <mergeCell ref="BD3:BF3"/>
-    <mergeCell ref="AZ4:BA4"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="Z2:AI2"/>
     <mergeCell ref="Z104:AI104"/>
@@ -49082,6 +49024,37 @@
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F9:H9"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BC3"/>
+    <mergeCell ref="BD3:BF3"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49091,7 +49064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF676D7-47B6-0F44-A1F9-CF984FF81BA6}">
   <dimension ref="B2:CS208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="94" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
@@ -49186,129 +49159,129 @@
       <c r="CL2" s="2"/>
     </row>
     <row r="3" spans="2:97" x14ac:dyDescent="0.2">
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48" t="s">
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="P3" s="48" t="s">
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="P3" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48" t="s">
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48" t="s">
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
       <c r="AB3"/>
-      <c r="AC3" s="48" t="s">
+      <c r="AC3" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48" t="s">
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48" t="s">
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AO3" s="48" t="s">
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AO3" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="48" t="s">
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="AS3" s="48"/>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48" t="s">
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="48"/>
-      <c r="BA3" s="48" t="s">
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="BA3" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="BB3" s="48"/>
-      <c r="BC3" s="48"/>
-      <c r="BD3" s="48" t="s">
+      <c r="BB3" s="55"/>
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="BE3" s="48"/>
-      <c r="BF3" s="48"/>
-      <c r="BG3" s="48" t="s">
+      <c r="BE3" s="55"/>
+      <c r="BF3" s="55"/>
+      <c r="BG3" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="BH3" s="48"/>
-      <c r="BI3" s="48"/>
-      <c r="BM3" s="48" t="s">
+      <c r="BH3" s="55"/>
+      <c r="BI3" s="55"/>
+      <c r="BM3" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="BN3" s="48"/>
-      <c r="BO3" s="48"/>
-      <c r="BP3" s="48" t="s">
+      <c r="BN3" s="55"/>
+      <c r="BO3" s="55"/>
+      <c r="BP3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="BQ3" s="48"/>
-      <c r="BR3" s="48"/>
-      <c r="BS3" s="48" t="s">
+      <c r="BQ3" s="55"/>
+      <c r="BR3" s="55"/>
+      <c r="BS3" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="BT3" s="48"/>
-      <c r="BU3" s="48"/>
-      <c r="BY3" s="48" t="s">
+      <c r="BT3" s="55"/>
+      <c r="BU3" s="55"/>
+      <c r="BY3" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="BZ3" s="48"/>
-      <c r="CA3" s="48"/>
-      <c r="CB3" s="48" t="s">
+      <c r="BZ3" s="55"/>
+      <c r="CA3" s="55"/>
+      <c r="CB3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="CC3" s="48"/>
-      <c r="CD3" s="48"/>
-      <c r="CE3" s="48" t="s">
+      <c r="CC3" s="55"/>
+      <c r="CD3" s="55"/>
+      <c r="CE3" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="CF3" s="48"/>
-      <c r="CG3" s="48"/>
-      <c r="CK3" s="48" t="s">
+      <c r="CF3" s="55"/>
+      <c r="CG3" s="55"/>
+      <c r="CK3" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="CL3" s="48"/>
-      <c r="CM3" s="48"/>
-      <c r="CN3" s="48" t="s">
+      <c r="CL3" s="55"/>
+      <c r="CM3" s="55"/>
+      <c r="CN3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="CO3" s="48"/>
-      <c r="CP3" s="48"/>
-      <c r="CQ3" s="48" t="s">
+      <c r="CO3" s="55"/>
+      <c r="CP3" s="55"/>
+      <c r="CQ3" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="CR3" s="48"/>
-      <c r="CS3" s="48"/>
+      <c r="CR3" s="55"/>
+      <c r="CS3" s="55"/>
     </row>
     <row r="4" spans="2:97" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
@@ -49322,10 +49295,10 @@
         <f>B58</f>
         <v>-9.25</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="45"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="2">
         <f>B59</f>
         <v>-9.25</v>
@@ -49356,10 +49329,10 @@
         <f>O58</f>
         <v>-9.5</v>
       </c>
-      <c r="S4" s="45" t="s">
+      <c r="S4" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="T4" s="45"/>
+      <c r="T4" s="53"/>
       <c r="U4" s="2">
         <f>O59</f>
         <v>-9.5</v>
@@ -49868,13 +49841,13 @@
       </c>
     </row>
     <row r="9" spans="2:97" x14ac:dyDescent="0.2">
-      <c r="B9" s="50">
+      <c r="B9" s="2">
         <v>-180</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="2">
         <v>-0.39400000000000002</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="2">
         <v>8.5040000000000004E-2</v>
       </c>
       <c r="E9" s="7"/>
@@ -49901,13 +49874,13 @@
         <f>K8*180/PI()</f>
         <v>90</v>
       </c>
-      <c r="O9" s="50">
+      <c r="O9" s="2">
         <v>-180</v>
       </c>
-      <c r="P9" s="50">
+      <c r="P9" s="2">
         <v>-0.50449999999999895</v>
       </c>
-      <c r="Q9" s="50">
+      <c r="Q9" s="2">
         <v>9.4700000000000006E-2</v>
       </c>
       <c r="R9" s="7"/>
@@ -49983,13 +49956,13 @@
       </c>
     </row>
     <row r="10" spans="2:97" x14ac:dyDescent="0.2">
-      <c r="B10" s="50">
+      <c r="B10" s="2">
         <v>-176.51530612244801</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="2">
         <v>-0.48757694050010397</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="2">
         <v>2.5711089349865299E-2</v>
       </c>
       <c r="E10" s="7"/>
@@ -50005,7 +49978,7 @@
         <v>-0.16203294999999995</v>
       </c>
       <c r="I10" s="15">
-        <f t="shared" ref="H10:K10" si="0">IF(I9&lt;$H$4, $C$5*I9^2 + $D$5*I9 + $E$5, IF(I9&gt;$I$4, $J$5*I9^2 + $K$5*I9 + $L$5, $F$5*I9^3 + $G$5*I9^2 + $H$5*I9 + $I$5))</f>
+        <f t="shared" ref="I10:K10" si="0">IF(I9&lt;$H$4, $C$5*I9^2 + $D$5*I9 + $E$5, IF(I9&gt;$I$4, $J$5*I9^2 + $K$5*I9 + $L$5, $F$5*I9^3 + $G$5*I9^2 + $H$5*I9 + $I$5))</f>
         <v>0.376</v>
       </c>
       <c r="J10" s="15">
@@ -50016,13 +49989,13 @@
         <f t="shared" si="0"/>
         <v>0.47442554999999986</v>
       </c>
-      <c r="O10" s="50">
+      <c r="O10" s="2">
         <v>-176.52040816326499</v>
       </c>
-      <c r="P10" s="50">
+      <c r="P10" s="2">
         <v>-0.47560188396813102</v>
       </c>
-      <c r="Q10" s="50">
+      <c r="Q10" s="2">
         <v>0.181146535767786</v>
       </c>
       <c r="R10" s="7"/>
@@ -50096,13 +50069,13 @@
       </c>
     </row>
     <row r="11" spans="2:97" x14ac:dyDescent="0.2">
-      <c r="B11" s="50">
+      <c r="B11" s="2">
         <v>-173.03061224489699</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="2">
         <v>-0.57725484181270303</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="2">
         <v>-3.1145783356513499E-2</v>
       </c>
       <c r="E11" s="7"/>
@@ -50124,13 +50097,13 @@
       <c r="K11" s="2">
         <v>0.47446463389319299</v>
       </c>
-      <c r="O11" s="50">
+      <c r="O11" s="2">
         <v>-173.04081632653001</v>
       </c>
-      <c r="P11" s="50">
+      <c r="P11" s="2">
         <v>-0.44790785610425699</v>
       </c>
-      <c r="Q11" s="50">
+      <c r="Q11" s="2">
         <v>0.26399113254524897</v>
       </c>
       <c r="R11" s="7"/>
@@ -50199,13 +50172,13 @@
       </c>
     </row>
     <row r="12" spans="2:97" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="2">
         <v>-169.54591836734599</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="2">
         <v>-0.66303370393779903</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="2">
         <v>-8.5530618119136897E-2</v>
       </c>
       <c r="E12" s="7"/>
@@ -50232,13 +50205,13 @@
         <f>ABS(K11-K10)/K11</f>
         <v>8.2374723849120611E-5</v>
       </c>
-      <c r="O12" s="50">
+      <c r="O12" s="2">
         <v>-169.56122448979499</v>
       </c>
-      <c r="P12" s="50">
+      <c r="P12" s="2">
         <v>-0.421417916408378</v>
       </c>
-      <c r="Q12" s="50">
+      <c r="Q12" s="2">
         <v>0.34323379033238699</v>
       </c>
       <c r="R12" s="7"/>
@@ -50312,13 +50285,13 @@
       </c>
     </row>
     <row r="13" spans="2:97" x14ac:dyDescent="0.2">
-      <c r="B13" s="50">
+      <c r="B13" s="2">
         <v>-166.06122448979499</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="2">
         <v>-0.74491352687539003</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="2">
         <v>-0.13744341493800399</v>
       </c>
       <c r="E13" s="7"/>
@@ -50334,7 +50307,7 @@
         <v>2.0979899999999996E-2</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" ref="H13:K13" si="2">IF(I9&lt;$H$4, $C$6*I9^2 + $D$6*I9 + $E$6, IF(I9&gt;$I$4, $J$6*I9^2 + $K$6*I9 + $L$6, $F$6*I9^3 + $G$6*I9^2 + $H$6*I9 + $I$6))</f>
+        <f t="shared" ref="I13:K13" si="2">IF(I9&lt;$H$4, $C$6*I9^2 + $D$6*I9 + $E$6, IF(I9&gt;$I$4, $J$6*I9^2 + $K$6*I9 + $L$6, $F$6*I9^3 + $G$6*I9^2 + $H$6*I9 + $I$6))</f>
         <v>6.5199999999999998E-3</v>
       </c>
       <c r="J13" s="15">
@@ -50345,13 +50318,13 @@
         <f t="shared" si="2"/>
         <v>0.79331725000000008</v>
       </c>
-      <c r="O13" s="50">
+      <c r="O13" s="2">
         <v>-166.08163265306101</v>
       </c>
-      <c r="P13" s="50">
+      <c r="P13" s="2">
         <v>-0.39613206488049302</v>
       </c>
-      <c r="Q13" s="50">
+      <c r="Q13" s="2">
         <v>0.41887450912919999</v>
       </c>
       <c r="R13" s="7"/>
@@ -50425,13 +50398,13 @@
       </c>
     </row>
     <row r="14" spans="2:97" x14ac:dyDescent="0.2">
-      <c r="B14" s="50">
+      <c r="B14" s="2">
         <v>-162.576530612244</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="2">
         <v>-0.82289431062547602</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="2">
         <v>-0.18688417381311601</v>
       </c>
       <c r="E14" s="7"/>
@@ -50453,13 +50426,13 @@
       <c r="K14" s="2">
         <v>0.79328700032664701</v>
       </c>
-      <c r="O14" s="50">
+      <c r="O14" s="2">
         <v>-162.602040816326</v>
       </c>
-      <c r="P14" s="50">
+      <c r="P14" s="2">
         <v>-0.37205030152060298</v>
       </c>
-      <c r="Q14" s="50">
+      <c r="Q14" s="2">
         <v>0.49091328893568897</v>
       </c>
       <c r="R14" s="7"/>
@@ -50528,13 +50501,13 @@
       </c>
     </row>
     <row r="15" spans="2:97" x14ac:dyDescent="0.2">
-      <c r="B15" s="50">
+      <c r="B15" s="2">
         <v>-159.091836734693</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="2">
         <v>-0.89697605518805901</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="2">
         <v>-0.23385289474447299</v>
       </c>
       <c r="E15" s="7"/>
@@ -50561,13 +50534,13 @@
         <f>ABS(K14-K13)/K14</f>
         <v>3.8132067386232201E-5</v>
       </c>
-      <c r="O15" s="50">
+      <c r="O15" s="2">
         <v>-159.12244897959101</v>
       </c>
-      <c r="P15" s="50">
+      <c r="P15" s="2">
         <v>-0.34917262632870699</v>
       </c>
-      <c r="Q15" s="50">
+      <c r="Q15" s="2">
         <v>0.55935012975185305</v>
       </c>
       <c r="R15" s="7"/>
@@ -50641,13 +50614,13 @@
       </c>
     </row>
     <row r="16" spans="2:97" x14ac:dyDescent="0.2">
-      <c r="B16" s="50">
+      <c r="B16" s="2">
         <v>-155.60714285714201</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="2">
         <v>-0.96715876056313699</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="2">
         <v>-0.27834957773207403</v>
       </c>
       <c r="E16" s="7"/>
@@ -50656,13 +50629,13 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="O16" s="50">
+      <c r="O16" s="2">
         <v>-155.642857142857</v>
       </c>
-      <c r="P16" s="50">
+      <c r="P16" s="2">
         <v>-0.32749903930480601</v>
       </c>
-      <c r="Q16" s="50">
+      <c r="Q16" s="2">
         <v>0.62418503157769401</v>
       </c>
       <c r="R16" s="7"/>
@@ -50718,13 +50691,13 @@
       </c>
     </row>
     <row r="17" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B17" s="50">
+      <c r="B17" s="2">
         <v>-152.12244897959101</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="2">
         <v>-1.0334424267507101</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="2">
         <v>-0.32037422277591898</v>
       </c>
       <c r="E17" s="7"/>
@@ -50733,13 +50706,13 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="O17" s="50">
+      <c r="O17" s="2">
         <v>-152.16326530612201</v>
       </c>
-      <c r="P17" s="50">
+      <c r="P17" s="2">
         <v>-0.30702954044889902</v>
       </c>
-      <c r="Q17" s="50">
+      <c r="Q17" s="2">
         <v>0.68541799441320905</v>
       </c>
       <c r="R17" s="7"/>
@@ -50795,13 +50768,13 @@
       </c>
     </row>
     <row r="18" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B18" s="50">
+      <c r="B18" s="2">
         <v>-148.63775510203999</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="2">
         <v>-1.0958270537507799</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="2">
         <v>-0.35992682987600899</v>
       </c>
       <c r="E18" s="7"/>
@@ -50810,13 +50783,13 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="O18" s="50">
+      <c r="O18" s="2">
         <v>-148.683673469387</v>
       </c>
-      <c r="P18" s="50">
+      <c r="P18" s="2">
         <v>-0.28776412976098698</v>
       </c>
-      <c r="Q18" s="50">
+      <c r="Q18" s="2">
         <v>0.74304901825839997</v>
       </c>
       <c r="R18" s="7"/>
@@ -50872,13 +50845,13 @@
       </c>
     </row>
     <row r="19" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B19" s="50">
+      <c r="B19" s="2">
         <v>-145.15306122448899</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="2">
         <v>-1.15431264156334</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="2">
         <v>-0.397007399032343</v>
       </c>
       <c r="E19" s="7"/>
@@ -50887,13 +50860,13 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="O19" s="50">
+      <c r="O19" s="2">
         <v>-145.20408163265299</v>
       </c>
-      <c r="P19" s="50">
+      <c r="P19" s="2">
         <v>-0.26970280724106899</v>
       </c>
-      <c r="Q19" s="50">
+      <c r="Q19" s="2">
         <v>0.79707810311326699</v>
       </c>
       <c r="R19" s="7"/>
@@ -50949,13 +50922,13 @@
       </c>
     </row>
     <row r="20" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B20" s="50">
+      <c r="B20" s="2">
         <v>-141.668367346938</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="2">
         <v>-1.2088991901884001</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="2">
         <v>-0.43161593024492101</v>
       </c>
       <c r="E20" s="7"/>
@@ -50964,13 +50937,13 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="O20" s="50">
+      <c r="O20" s="2">
         <v>-141.724489795918</v>
       </c>
-      <c r="P20" s="50">
+      <c r="P20" s="2">
         <v>-0.252845572889146</v>
       </c>
-      <c r="Q20" s="50">
+      <c r="Q20" s="2">
         <v>0.84750524897780899</v>
       </c>
       <c r="R20" s="7"/>
@@ -51026,13 +50999,13 @@
       </c>
     </row>
     <row r="21" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B21" s="50">
+      <c r="B21" s="2">
         <v>-138.183673469387</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="2">
         <v>-1.2595866996259599</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="2">
         <v>-0.46375242351374402</v>
       </c>
       <c r="E21" s="7"/>
@@ -51041,13 +51014,13 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="O21" s="50">
+      <c r="O21" s="2">
         <v>-138.24489795918299</v>
       </c>
-      <c r="P21" s="50">
+      <c r="P21" s="2">
         <v>-0.23719242670521701</v>
       </c>
-      <c r="Q21" s="50">
+      <c r="Q21" s="2">
         <v>0.89433045585202697</v>
       </c>
       <c r="R21" s="7"/>
@@ -51103,13 +51076,13 @@
       </c>
     </row>
     <row r="22" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B22" s="50">
+      <c r="B22" s="2">
         <v>-134.69897959183601</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="2">
         <v>-1.30637516987601</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="2">
         <v>-0.49341687883881102</v>
       </c>
       <c r="E22" s="7"/>
@@ -51118,13 +51091,13 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="O22" s="50">
+      <c r="O22" s="2">
         <v>-134.76530612244801</v>
       </c>
-      <c r="P22" s="50">
+      <c r="P22" s="2">
         <v>-0.22274336868928299</v>
       </c>
-      <c r="Q22" s="50">
+      <c r="Q22" s="2">
         <v>0.93755372373592005</v>
       </c>
       <c r="R22" s="7"/>
@@ -51180,13 +51153,13 @@
       </c>
     </row>
     <row r="23" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B23" s="50">
+      <c r="B23" s="2">
         <v>-131.21428571428501</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="2">
         <v>-1.34926460093856</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="2">
         <v>-0.52060929622012297</v>
       </c>
       <c r="E23" s="7"/>
@@ -51195,13 +51168,13 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="O23" s="50">
+      <c r="O23" s="2">
         <v>-131.28571428571399</v>
       </c>
-      <c r="P23" s="50">
+      <c r="P23" s="2">
         <v>-0.209498398841343</v>
       </c>
-      <c r="Q23" s="50">
+      <c r="Q23" s="2">
         <v>0.977175052629489</v>
       </c>
       <c r="R23" s="7"/>
@@ -51257,13 +51230,13 @@
       </c>
     </row>
     <row r="24" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B24" s="50">
+      <c r="B24" s="2">
         <v>-127.729591836734</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="2">
         <v>-1.3882549928136001</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="2">
         <v>-0.54532967565767898</v>
       </c>
       <c r="E24" s="7"/>
@@ -51272,13 +51245,13 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="O24" s="50">
+      <c r="O24" s="2">
         <v>-127.806122448979</v>
       </c>
-      <c r="P24" s="50">
+      <c r="P24" s="2">
         <v>-0.19745751716139801</v>
       </c>
-      <c r="Q24" s="50">
+      <c r="Q24" s="2">
         <v>1.0131944425327299</v>
       </c>
       <c r="R24" s="7"/>
@@ -51334,13 +51307,13 @@
       </c>
     </row>
     <row r="25" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B25" s="50">
+      <c r="B25" s="2">
         <v>-124.24489795918301</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="2">
         <v>-1.4233463455011399</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="2">
         <v>-0.56757801715147904</v>
       </c>
       <c r="E25" s="7"/>
@@ -51349,13 +51322,13 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="O25" s="50">
+      <c r="O25" s="2">
         <v>-124.326530612244</v>
       </c>
-      <c r="P25" s="50">
+      <c r="P25" s="2">
         <v>-0.18662072364944801</v>
       </c>
-      <c r="Q25" s="50">
+      <c r="Q25" s="2">
         <v>1.04561189344565</v>
       </c>
       <c r="R25" s="7"/>
@@ -51411,13 +51384,13 @@
       </c>
     </row>
     <row r="26" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B26" s="50">
+      <c r="B26" s="2">
         <v>-120.760204081632</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26" s="2">
         <v>-1.45453865900117</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="2">
         <v>-0.58735432070152405</v>
       </c>
       <c r="E26" s="7"/>
@@ -51426,13 +51399,13 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="O26" s="50">
+      <c r="O26" s="2">
         <v>-120.84693877551</v>
       </c>
-      <c r="P26" s="50">
+      <c r="P26" s="2">
         <v>-0.17698801830549199</v>
       </c>
-      <c r="Q26" s="50">
+      <c r="Q26" s="2">
         <v>1.0744274053682401</v>
       </c>
       <c r="R26" s="7"/>
@@ -51488,13 +51461,13 @@
       </c>
     </row>
     <row r="27" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B27" s="50">
+      <c r="B27" s="2">
         <v>-117.275510204081</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="2">
         <v>-1.4818319333137</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="2">
         <v>-0.60465858630781399</v>
       </c>
       <c r="E27" s="7"/>
@@ -51503,13 +51476,13 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="O27" s="50">
+      <c r="O27" s="2">
         <v>-117.367346938775</v>
       </c>
-      <c r="P27" s="50">
+      <c r="P27" s="2">
         <v>-0.16855940112953</v>
       </c>
-      <c r="Q27" s="50">
+      <c r="Q27" s="2">
         <v>1.0996409783005201</v>
       </c>
       <c r="R27" s="7"/>
@@ -51565,13 +51538,13 @@
       </c>
     </row>
     <row r="28" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B28" s="50">
+      <c r="B28" s="2">
         <v>-113.79081632653001</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="2">
         <v>-1.50522616843873</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="2">
         <v>-0.619490813970347</v>
       </c>
       <c r="E28" s="7"/>
@@ -51580,13 +51553,13 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="O28" s="50">
+      <c r="O28" s="2">
         <v>-113.88775510204</v>
       </c>
-      <c r="P28" s="50">
+      <c r="P28" s="2">
         <v>-0.161334872121563</v>
       </c>
-      <c r="Q28" s="50">
+      <c r="Q28" s="2">
         <v>1.12125261224246</v>
       </c>
       <c r="R28" s="7"/>
@@ -51642,13 +51615,13 @@
       </c>
     </row>
     <row r="29" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B29" s="50">
+      <c r="B29" s="2">
         <v>-110.306122448979</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="2">
         <v>-1.5247213643762501</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="2">
         <v>-0.63185100368912495</v>
       </c>
       <c r="E29" s="7"/>
@@ -51657,13 +51630,13 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="O29" s="50">
+      <c r="O29" s="2">
         <v>-110.408163265306</v>
       </c>
-      <c r="P29" s="50">
+      <c r="P29" s="2">
         <v>-0.15531443128159</v>
       </c>
-      <c r="Q29" s="50">
+      <c r="Q29" s="2">
         <v>1.1392623071940799</v>
       </c>
       <c r="R29" s="7"/>
@@ -51719,13 +51692,13 @@
       </c>
     </row>
     <row r="30" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B30" s="50">
+      <c r="B30" s="2">
         <v>-106.821428571428</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="2">
         <v>-1.5403175211262701</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="2">
         <v>-0.64173915546414795</v>
       </c>
       <c r="E30" s="7"/>
@@ -51734,13 +51707,13 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="O30" s="50">
+      <c r="O30" s="2">
         <v>-106.928571428571</v>
       </c>
-      <c r="P30" s="50">
+      <c r="P30" s="2">
         <v>-0.15049807860961201</v>
       </c>
-      <c r="Q30" s="50">
+      <c r="Q30" s="2">
         <v>1.15367006315538</v>
       </c>
       <c r="R30" s="7"/>
@@ -51796,13 +51769,13 @@
       </c>
     </row>
     <row r="31" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B31" s="50">
+      <c r="B31" s="2">
         <v>-103.33673469387701</v>
       </c>
-      <c r="C31" s="50">
+      <c r="C31" s="2">
         <v>-1.5520146386887801</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D31" s="2">
         <v>-0.64915526929541501</v>
       </c>
       <c r="E31" s="7"/>
@@ -51811,13 +51784,13 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="O31" s="50">
+      <c r="O31" s="2">
         <v>-103.44897959183599</v>
       </c>
-      <c r="P31" s="50">
+      <c r="P31" s="2">
         <v>-0.14688581410562901</v>
       </c>
-      <c r="Q31" s="50">
+      <c r="Q31" s="2">
         <v>1.1644758801263599</v>
       </c>
       <c r="R31" s="7"/>
@@ -51873,13 +51846,13 @@
       </c>
     </row>
     <row r="32" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B32" s="50">
+      <c r="B32" s="2">
         <v>-99.852040816326493</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="2">
         <v>-1.5598127170637901</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="2">
         <v>-0.65409934518292601</v>
       </c>
       <c r="E32" s="7"/>
@@ -51888,13 +51861,13 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="O32" s="50">
+      <c r="O32" s="2">
         <v>-99.969387755102005</v>
       </c>
-      <c r="P32" s="50">
+      <c r="P32" s="2">
         <v>-0.14447763776964001</v>
       </c>
-      <c r="Q32" s="50">
+      <c r="Q32" s="2">
         <v>1.171679758107</v>
       </c>
       <c r="R32" s="7"/>
@@ -51950,13 +51923,13 @@
       </c>
     </row>
     <row r="33" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B33" s="50">
+      <c r="B33" s="2">
         <v>-96.367346938775498</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33" s="2">
         <v>-1.5637117562513001</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="2">
         <v>-0.65657138312668095</v>
       </c>
       <c r="E33" s="7"/>
@@ -51965,13 +51938,13 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="O33" s="50">
+      <c r="O33" s="2">
         <v>-96.489795918367307</v>
       </c>
-      <c r="P33" s="50">
+      <c r="P33" s="2">
         <v>-0.14327354960164501</v>
       </c>
-      <c r="Q33" s="50">
+      <c r="Q33" s="2">
         <v>1.1752816970973301</v>
       </c>
       <c r="R33" s="7"/>
@@ -52027,13 +52000,13 @@
       </c>
     </row>
     <row r="34" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B34" s="50">
+      <c r="B34" s="2">
         <v>-92.882653061224403</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="2">
         <v>-1.5637117562513001</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="2">
         <v>-0.65657138312668095</v>
       </c>
       <c r="E34" s="7"/>
@@ -52042,13 +52015,13 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-      <c r="O34" s="50">
+      <c r="O34" s="2">
         <v>-93.010204081632594</v>
       </c>
-      <c r="P34" s="50">
+      <c r="P34" s="2">
         <v>-0.14327354960164501</v>
       </c>
-      <c r="Q34" s="50">
+      <c r="Q34" s="2">
         <v>1.1752816970973301</v>
       </c>
       <c r="R34" s="7"/>
@@ -52104,13 +52077,13 @@
       </c>
     </row>
     <row r="35" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B35" s="50">
+      <c r="B35" s="2">
         <v>-89.397959183673393</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="2">
         <v>-1.5598127170637901</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35" s="2">
         <v>-0.65409934518292601</v>
       </c>
       <c r="E35" s="7"/>
@@ -52119,13 +52092,13 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="O35" s="50">
+      <c r="O35" s="2">
         <v>-89.530612244897895</v>
       </c>
-      <c r="P35" s="50">
+      <c r="P35" s="2">
         <v>-0.14447763776964001</v>
       </c>
-      <c r="Q35" s="50">
+      <c r="Q35" s="2">
         <v>1.171679758107</v>
       </c>
       <c r="R35" s="7"/>
@@ -52181,13 +52154,13 @@
       </c>
     </row>
     <row r="36" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B36" s="50">
+      <c r="B36" s="2">
         <v>-85.913265306122398</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="2">
         <v>-1.5520146386887801</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="2">
         <v>-0.64915526929541501</v>
       </c>
       <c r="E36" s="7"/>
@@ -52196,13 +52169,13 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="O36" s="50">
+      <c r="O36" s="2">
         <v>-86.051020408163197</v>
       </c>
-      <c r="P36" s="50">
+      <c r="P36" s="2">
         <v>-0.14688581410562901</v>
       </c>
-      <c r="Q36" s="50">
+      <c r="Q36" s="2">
         <v>1.1644758801263599</v>
       </c>
       <c r="R36" s="7"/>
@@ -52258,13 +52231,13 @@
       </c>
     </row>
     <row r="37" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B37" s="50">
+      <c r="B37" s="2">
         <v>-82.428571428571402</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37" s="2">
         <v>-1.5403175211262701</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="2">
         <v>-0.64173915546414795</v>
       </c>
       <c r="E37" s="7"/>
@@ -52273,13 +52246,13 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="O37" s="50">
+      <c r="O37" s="2">
         <v>-82.571428571428498</v>
       </c>
-      <c r="P37" s="50">
+      <c r="P37" s="2">
         <v>-0.15049807860961201</v>
       </c>
-      <c r="Q37" s="50">
+      <c r="Q37" s="2">
         <v>1.15367006315538</v>
       </c>
       <c r="R37" s="7"/>
@@ -52335,13 +52308,13 @@
       </c>
     </row>
     <row r="38" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B38" s="50">
+      <c r="B38" s="2">
         <v>-78.943877551020407</v>
       </c>
-      <c r="C38" s="50">
+      <c r="C38" s="2">
         <v>-1.5247213643762501</v>
       </c>
-      <c r="D38" s="50">
+      <c r="D38" s="2">
         <v>-0.63185100368912495</v>
       </c>
       <c r="E38" s="7"/>
@@ -52350,13 +52323,13 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-      <c r="O38" s="50">
+      <c r="O38" s="2">
         <v>-79.0918367346938</v>
       </c>
-      <c r="P38" s="50">
+      <c r="P38" s="2">
         <v>-0.15531443128159</v>
       </c>
-      <c r="Q38" s="50">
+      <c r="Q38" s="2">
         <v>1.1392623071940799</v>
       </c>
       <c r="R38" s="7"/>
@@ -52412,13 +52385,13 @@
       </c>
     </row>
     <row r="39" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B39" s="50">
+      <c r="B39" s="2">
         <v>-75.459183673469298</v>
       </c>
-      <c r="C39" s="50">
+      <c r="C39" s="2">
         <v>-1.50522616843873</v>
       </c>
-      <c r="D39" s="50">
+      <c r="D39" s="2">
         <v>-0.619490813970347</v>
       </c>
       <c r="E39" s="7"/>
@@ -52427,13 +52400,13 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
-      <c r="O39" s="50">
+      <c r="O39" s="2">
         <v>-75.612244897959101</v>
       </c>
-      <c r="P39" s="50">
+      <c r="P39" s="2">
         <v>-0.161334872121563</v>
       </c>
-      <c r="Q39" s="50">
+      <c r="Q39" s="2">
         <v>1.12125261224246</v>
       </c>
       <c r="R39" s="7"/>
@@ -52489,13 +52462,13 @@
       </c>
     </row>
     <row r="40" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B40" s="50">
+      <c r="B40" s="2">
         <v>-71.974489795918302</v>
       </c>
-      <c r="C40" s="50">
+      <c r="C40" s="2">
         <v>-1.4818319333137</v>
       </c>
-      <c r="D40" s="50">
+      <c r="D40" s="2">
         <v>-0.60465858630781399</v>
       </c>
       <c r="E40" s="7"/>
@@ -52504,13 +52477,13 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="O40" s="50">
+      <c r="O40" s="2">
         <v>-72.132653061224403</v>
       </c>
-      <c r="P40" s="50">
+      <c r="P40" s="2">
         <v>-0.16855940112953</v>
       </c>
-      <c r="Q40" s="50">
+      <c r="Q40" s="2">
         <v>1.0996409783005201</v>
       </c>
       <c r="R40" s="7"/>
@@ -52566,13 +52539,13 @@
       </c>
     </row>
     <row r="41" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B41" s="50">
+      <c r="B41" s="2">
         <v>-68.489795918367307</v>
       </c>
-      <c r="C41" s="50">
+      <c r="C41" s="2">
         <v>-1.45453865900117</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="2">
         <v>-0.58735432070152405</v>
       </c>
       <c r="E41" s="7"/>
@@ -52581,13 +52554,13 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="O41" s="50">
+      <c r="O41" s="2">
         <v>-68.653061224489704</v>
       </c>
-      <c r="P41" s="50">
+      <c r="P41" s="2">
         <v>-0.17698801830549199</v>
       </c>
-      <c r="Q41" s="50">
+      <c r="Q41" s="2">
         <v>1.0744274053682401</v>
       </c>
       <c r="R41" s="7"/>
@@ -52643,13 +52616,13 @@
       </c>
     </row>
     <row r="42" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B42" s="50">
+      <c r="B42" s="2">
         <v>-65.005102040816297</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="2">
         <v>-1.4233463455011399</v>
       </c>
-      <c r="D42" s="50">
+      <c r="D42" s="2">
         <v>-0.56757801715148004</v>
       </c>
       <c r="E42" s="7"/>
@@ -52658,13 +52631,13 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="O42" s="50">
+      <c r="O42" s="2">
         <v>-65.173469387755006</v>
       </c>
-      <c r="P42" s="50">
+      <c r="P42" s="2">
         <v>-0.18662072364944801</v>
       </c>
-      <c r="Q42" s="50">
+      <c r="Q42" s="2">
         <v>1.04561189344565</v>
       </c>
       <c r="R42" s="7"/>
@@ -52720,13 +52693,13 @@
       </c>
     </row>
     <row r="43" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B43" s="50">
+      <c r="B43" s="2">
         <v>-61.520408163265301</v>
       </c>
-      <c r="C43" s="50">
+      <c r="C43" s="2">
         <v>-1.3882549928136001</v>
       </c>
-      <c r="D43" s="50">
+      <c r="D43" s="2">
         <v>-0.54532967565767898</v>
       </c>
       <c r="E43" s="7"/>
@@ -52735,13 +52708,13 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
-      <c r="O43" s="50">
+      <c r="O43" s="2">
         <v>-61.6938775510204</v>
       </c>
-      <c r="P43" s="50">
+      <c r="P43" s="2">
         <v>-0.19745751716139801</v>
       </c>
-      <c r="Q43" s="50">
+      <c r="Q43" s="2">
         <v>1.0131944425327299</v>
       </c>
       <c r="R43" s="7"/>
@@ -52797,13 +52770,13 @@
       </c>
     </row>
     <row r="44" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B44" s="50">
+      <c r="B44" s="2">
         <v>-58.035714285714199</v>
       </c>
-      <c r="C44" s="50">
+      <c r="C44" s="2">
         <v>-1.34926460093856</v>
       </c>
-      <c r="D44" s="50">
+      <c r="D44" s="2">
         <v>-0.52060929622012297</v>
       </c>
       <c r="E44" s="7"/>
@@ -52812,13 +52785,13 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-      <c r="O44" s="50">
+      <c r="O44" s="2">
         <v>-58.214285714285701</v>
       </c>
-      <c r="P44" s="50">
+      <c r="P44" s="2">
         <v>-0.209498398841343</v>
       </c>
-      <c r="Q44" s="50">
+      <c r="Q44" s="2">
         <v>0.977175052629489</v>
       </c>
       <c r="R44" s="7"/>
@@ -52874,13 +52847,13 @@
       </c>
     </row>
     <row r="45" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B45" s="50">
+      <c r="B45" s="2">
         <v>-54.551020408163197</v>
       </c>
-      <c r="C45" s="50">
+      <c r="C45" s="2">
         <v>-1.30637516987601</v>
       </c>
-      <c r="D45" s="50">
+      <c r="D45" s="2">
         <v>-0.49341687883881102</v>
       </c>
       <c r="E45" s="7"/>
@@ -52889,13 +52862,13 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
-      <c r="O45" s="50">
+      <c r="O45" s="2">
         <v>-54.734693877551003</v>
       </c>
-      <c r="P45" s="50">
+      <c r="P45" s="2">
         <v>-0.22274336868928299</v>
       </c>
-      <c r="Q45" s="50">
+      <c r="Q45" s="2">
         <v>0.93755372373592005</v>
       </c>
       <c r="R45" s="7"/>
@@ -52951,13 +52924,13 @@
       </c>
     </row>
     <row r="46" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B46" s="50">
+      <c r="B46" s="2">
         <v>-51.066326530612201</v>
       </c>
-      <c r="C46" s="50">
+      <c r="C46" s="2">
         <v>-1.2595866996259599</v>
       </c>
-      <c r="D46" s="50">
+      <c r="D46" s="2">
         <v>-0.46375242351374402</v>
       </c>
       <c r="E46" s="7"/>
@@ -52966,13 +52939,13 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
-      <c r="O46" s="50">
+      <c r="O46" s="2">
         <v>-51.255102040816297</v>
       </c>
-      <c r="P46" s="50">
+      <c r="P46" s="2">
         <v>-0.23719242670521701</v>
       </c>
-      <c r="Q46" s="50">
+      <c r="Q46" s="2">
         <v>0.89433045585202697</v>
       </c>
       <c r="R46" s="7"/>
@@ -53028,13 +53001,13 @@
       </c>
     </row>
     <row r="47" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B47" s="50">
+      <c r="B47" s="2">
         <v>-47.581632653061199</v>
       </c>
-      <c r="C47" s="50">
+      <c r="C47" s="2">
         <v>-1.2088991901884001</v>
       </c>
-      <c r="D47" s="50">
+      <c r="D47" s="2">
         <v>-0.43161593024492101</v>
       </c>
       <c r="E47" s="7"/>
@@ -53043,13 +53016,13 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
-      <c r="O47" s="50">
+      <c r="O47" s="2">
         <v>-47.775510204081598</v>
       </c>
-      <c r="P47" s="50">
+      <c r="P47" s="2">
         <v>-0.252845572889146</v>
       </c>
-      <c r="Q47" s="50">
+      <c r="Q47" s="2">
         <v>0.84750524897780899</v>
       </c>
       <c r="R47" s="7"/>
@@ -53105,13 +53078,13 @@
       </c>
     </row>
     <row r="48" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B48" s="50">
+      <c r="B48" s="2">
         <v>-44.096938775510203</v>
       </c>
-      <c r="C48" s="50">
+      <c r="C48" s="2">
         <v>-1.15431264156334</v>
       </c>
-      <c r="D48" s="50">
+      <c r="D48" s="2">
         <v>-0.397007399032343</v>
       </c>
       <c r="E48" s="7"/>
@@ -53120,13 +53093,13 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
-      <c r="O48" s="50">
+      <c r="O48" s="2">
         <v>-44.2959183673469</v>
       </c>
-      <c r="P48" s="50">
+      <c r="P48" s="2">
         <v>-0.26970280724106899</v>
       </c>
-      <c r="Q48" s="50">
+      <c r="Q48" s="2">
         <v>0.79707810311326599</v>
       </c>
       <c r="R48" s="7"/>
@@ -53182,13 +53155,13 @@
       </c>
     </row>
     <row r="49" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B49" s="50">
+      <c r="B49" s="2">
         <v>-40.612244897959101</v>
       </c>
-      <c r="C49" s="50">
+      <c r="C49" s="2">
         <v>-1.0958270537507799</v>
       </c>
-      <c r="D49" s="50">
+      <c r="D49" s="2">
         <v>-0.35992682987600899</v>
       </c>
       <c r="E49" s="7"/>
@@ -53197,13 +53170,13 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="O49" s="50">
+      <c r="O49" s="2">
         <v>-40.816326530612201</v>
       </c>
-      <c r="P49" s="50">
+      <c r="P49" s="2">
         <v>-0.28776412976098698</v>
       </c>
-      <c r="Q49" s="50">
+      <c r="Q49" s="2">
         <v>0.74304901825839997</v>
       </c>
       <c r="R49" s="7"/>
@@ -53259,13 +53232,13 @@
       </c>
     </row>
     <row r="50" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B50" s="50">
+      <c r="B50" s="2">
         <v>-37.127551020408099</v>
       </c>
-      <c r="C50" s="50">
+      <c r="C50" s="2">
         <v>-1.0334424267507101</v>
       </c>
-      <c r="D50" s="50">
+      <c r="D50" s="2">
         <v>-0.32037422277591898</v>
       </c>
       <c r="E50" s="7"/>
@@ -53274,13 +53247,13 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-      <c r="O50" s="50">
+      <c r="O50" s="2">
         <v>-37.336734693877503</v>
       </c>
-      <c r="P50" s="50">
+      <c r="P50" s="2">
         <v>-0.30702954044889902</v>
       </c>
-      <c r="Q50" s="50">
+      <c r="Q50" s="2">
         <v>0.68541799441320905</v>
       </c>
       <c r="R50" s="7"/>
@@ -53336,13 +53309,13 @@
       </c>
     </row>
     <row r="51" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B51" s="50">
+      <c r="B51" s="2">
         <v>-33.642857142857103</v>
       </c>
-      <c r="C51" s="50">
+      <c r="C51" s="2">
         <v>-0.96715876056313699</v>
       </c>
-      <c r="D51" s="50">
+      <c r="D51" s="2">
         <v>-0.27834957773207403</v>
       </c>
       <c r="E51" s="7"/>
@@ -53351,13 +53324,13 @@
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="O51" s="50">
+      <c r="O51" s="2">
         <v>-33.857142857142797</v>
       </c>
-      <c r="P51" s="50">
+      <c r="P51" s="2">
         <v>-0.32749903930480601</v>
       </c>
-      <c r="Q51" s="50">
+      <c r="Q51" s="2">
         <v>0.62418503157769301</v>
       </c>
       <c r="R51" s="7"/>
@@ -53413,13 +53386,13 @@
       </c>
     </row>
     <row r="52" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B52" s="50">
+      <c r="B52" s="2">
         <v>-30.158163265306101</v>
       </c>
-      <c r="C52" s="50">
+      <c r="C52" s="2">
         <v>-0.89697605518805801</v>
       </c>
-      <c r="D52" s="50">
+      <c r="D52" s="2">
         <v>-0.23385289474447299</v>
       </c>
       <c r="E52" s="7"/>
@@ -53428,13 +53401,13 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
-      <c r="O52" s="50">
+      <c r="O52" s="2">
         <v>-30.377551020408099</v>
       </c>
-      <c r="P52" s="50">
+      <c r="P52" s="2">
         <v>-0.34917262632870699</v>
       </c>
-      <c r="Q52" s="50">
+      <c r="Q52" s="2">
         <v>0.55935012975185305</v>
       </c>
       <c r="R52" s="7"/>
@@ -53490,13 +53463,13 @@
       </c>
     </row>
     <row r="53" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B53" s="50">
+      <c r="B53" s="2">
         <v>-26.673469387755102</v>
       </c>
-      <c r="C53" s="50">
+      <c r="C53" s="2">
         <v>-0.82289431062547702</v>
       </c>
-      <c r="D53" s="50">
+      <c r="D53" s="2">
         <v>-0.18688417381311601</v>
       </c>
       <c r="E53" s="7"/>
@@ -53505,13 +53478,13 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
-      <c r="O53" s="50">
+      <c r="O53" s="2">
         <v>-26.8979591836734</v>
       </c>
-      <c r="P53" s="50">
+      <c r="P53" s="2">
         <v>-0.37205030152060298</v>
       </c>
-      <c r="Q53" s="50">
+      <c r="Q53" s="2">
         <v>0.49091328893568897</v>
       </c>
       <c r="R53" s="7"/>
@@ -53567,13 +53540,13 @@
       </c>
     </row>
     <row r="54" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B54" s="50">
+      <c r="B54" s="2">
         <v>-23.188775510204</v>
       </c>
-      <c r="C54" s="50">
+      <c r="C54" s="2">
         <v>-0.74491352687539003</v>
       </c>
-      <c r="D54" s="50">
+      <c r="D54" s="2">
         <v>-0.13744341493800399</v>
       </c>
       <c r="E54" s="7"/>
@@ -53582,13 +53555,13 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
-      <c r="O54" s="50">
+      <c r="O54" s="2">
         <v>-23.418367346938702</v>
       </c>
-      <c r="P54" s="50">
+      <c r="P54" s="2">
         <v>-0.39613206488049302</v>
       </c>
-      <c r="Q54" s="50">
+      <c r="Q54" s="2">
         <v>0.41887450912919999</v>
       </c>
       <c r="R54" s="7"/>
@@ -53644,13 +53617,13 @@
       </c>
     </row>
     <row r="55" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B55" s="50">
+      <c r="B55" s="2">
         <v>-19.704081632653001</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="2">
         <v>-0.66303370393779903</v>
       </c>
-      <c r="D55" s="50">
+      <c r="D55" s="2">
         <v>-8.5530618119136897E-2</v>
       </c>
       <c r="E55" s="7"/>
@@ -53659,13 +53632,13 @@
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
-      <c r="O55" s="50">
+      <c r="O55" s="2">
         <v>-19.938775510204</v>
       </c>
-      <c r="P55" s="50">
+      <c r="P55" s="2">
         <v>-0.421417916408378</v>
       </c>
-      <c r="Q55" s="50">
+      <c r="Q55" s="2">
         <v>0.34323379033238599</v>
       </c>
       <c r="R55" s="7"/>
@@ -53721,13 +53694,13 @@
       </c>
     </row>
     <row r="56" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B56" s="50">
+      <c r="B56" s="2">
         <v>-16.219387755102002</v>
       </c>
-      <c r="C56" s="50">
+      <c r="C56" s="2">
         <v>-0.57725484181270303</v>
       </c>
-      <c r="D56" s="50">
+      <c r="D56" s="2">
         <v>-3.1145783356513499E-2</v>
       </c>
       <c r="E56" s="7"/>
@@ -53736,13 +53709,13 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
-      <c r="O56" s="50">
+      <c r="O56" s="2">
         <v>-16.459183673469301</v>
       </c>
-      <c r="P56" s="50">
+      <c r="P56" s="2">
         <v>-0.44790785610425699</v>
       </c>
-      <c r="Q56" s="50">
+      <c r="Q56" s="2">
         <v>0.26399113254524798</v>
       </c>
       <c r="R56" s="7"/>
@@ -53798,13 +53771,13 @@
       </c>
     </row>
     <row r="57" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B57" s="50">
+      <c r="B57" s="2">
         <v>-12.734693877551001</v>
       </c>
-      <c r="C57" s="50">
+      <c r="C57" s="2">
         <v>-0.48757694050010397</v>
       </c>
-      <c r="D57" s="50">
+      <c r="D57" s="2">
         <v>2.57110893498654E-2</v>
       </c>
       <c r="E57" s="7"/>
@@ -53813,13 +53786,13 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
-      <c r="O57" s="50">
+      <c r="O57" s="2">
         <v>-12.979591836734601</v>
       </c>
-      <c r="P57" s="50">
+      <c r="P57" s="2">
         <v>-0.47560188396813102</v>
       </c>
-      <c r="Q57" s="50">
+      <c r="Q57" s="2">
         <v>0.181146535767786</v>
       </c>
       <c r="R57" s="7"/>
@@ -53875,13 +53848,13 @@
       </c>
     </row>
     <row r="58" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B58" s="50">
+      <c r="B58" s="2">
         <v>-9.25</v>
       </c>
-      <c r="C58" s="50">
+      <c r="C58" s="2">
         <v>-0.39400000000000002</v>
       </c>
-      <c r="D58" s="50">
+      <c r="D58" s="2">
         <v>8.5040000000000004E-2</v>
       </c>
       <c r="E58" s="7"/>
@@ -53890,13 +53863,13 @@
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
-      <c r="O58" s="50">
+      <c r="O58" s="2">
         <v>-9.5</v>
       </c>
-      <c r="P58" s="50">
+      <c r="P58" s="2">
         <v>-0.50449999999999895</v>
       </c>
-      <c r="Q58" s="50">
+      <c r="Q58" s="2">
         <v>9.4700000000000006E-2</v>
       </c>
       <c r="R58" s="7"/>
@@ -53952,13 +53925,13 @@
       </c>
     </row>
     <row r="59" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B59" s="50">
+      <c r="B59" s="2">
         <v>-9.25</v>
       </c>
-      <c r="C59" s="50">
+      <c r="C59" s="2">
         <v>-0.39400000000000002</v>
       </c>
-      <c r="D59" s="50">
+      <c r="D59" s="2">
         <v>8.5040000000000004E-2</v>
       </c>
       <c r="E59" s="7"/>
@@ -53967,13 +53940,13 @@
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
-      <c r="O59" s="50">
+      <c r="O59" s="2">
         <v>-9.5</v>
       </c>
-      <c r="P59" s="50">
+      <c r="P59" s="2">
         <v>-0.50449999999999895</v>
       </c>
-      <c r="Q59" s="50">
+      <c r="Q59" s="2">
         <v>9.4700000000000006E-2</v>
       </c>
       <c r="R59" s="7"/>
@@ -54030,13 +54003,13 @@
       </c>
     </row>
     <row r="60" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B60" s="50">
+      <c r="B60" s="2">
         <v>-8.9848484848484809</v>
       </c>
-      <c r="C60" s="50">
+      <c r="C60" s="2">
         <v>-0.407039255101518</v>
       </c>
-      <c r="D60" s="50">
+      <c r="D60" s="2">
         <v>8.1306509939228402E-2</v>
       </c>
       <c r="E60" s="7"/>
@@ -54045,13 +54018,13 @@
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
-      <c r="O60" s="50">
+      <c r="O60" s="2">
         <v>-9.2171717171717091</v>
       </c>
-      <c r="P60" s="50">
+      <c r="P60" s="2">
         <v>-0.50686574783719496</v>
       </c>
-      <c r="Q60" s="50">
+      <c r="Q60" s="2">
         <v>8.7387085134467898E-2</v>
       </c>
       <c r="R60" s="7"/>
@@ -54108,13 +54081,13 @@
       </c>
     </row>
     <row r="61" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B61" s="50">
+      <c r="B61" s="2">
         <v>-8.71969696969696</v>
       </c>
-      <c r="C61" s="50">
+      <c r="C61" s="2">
         <v>-0.49868120533967603</v>
       </c>
-      <c r="D61" s="50">
+      <c r="D61" s="2">
         <v>4.29194733758263E-2</v>
       </c>
       <c r="E61" s="7"/>
@@ -54123,13 +54096,13 @@
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
-      <c r="O61" s="50">
+      <c r="O61" s="2">
         <v>-8.9343434343434307</v>
       </c>
-      <c r="P61" s="50">
+      <c r="P61" s="2">
         <v>-0.51054757015923102</v>
       </c>
-      <c r="Q61" s="50">
+      <c r="Q61" s="2">
         <v>7.9449963743407001E-2</v>
       </c>
       <c r="R61" s="7"/>
@@ -54186,13 +54159,13 @@
       </c>
     </row>
     <row r="62" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B62" s="50">
+      <c r="B62" s="2">
         <v>-8.4545454545454497</v>
       </c>
-      <c r="C62" s="50">
+      <c r="C62" s="2">
         <v>-0.494316792796275</v>
       </c>
-      <c r="D62" s="50">
+      <c r="D62" s="2">
         <v>3.3569645101205602E-2</v>
       </c>
       <c r="E62" s="7"/>
@@ -54201,13 +54174,13 @@
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
-      <c r="O62" s="50">
+      <c r="O62" s="2">
         <v>-8.6515151515151505</v>
       </c>
-      <c r="P62" s="50">
+      <c r="P62" s="2">
         <v>-0.51876149163121299</v>
       </c>
-      <c r="Q62" s="50">
+      <c r="Q62" s="2">
         <v>7.1783423415788403E-2</v>
       </c>
       <c r="R62" s="7"/>
@@ -54264,13 +54237,13 @@
       </c>
     </row>
     <row r="63" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B63" s="50">
+      <c r="B63" s="2">
         <v>-8.1893939393939306</v>
       </c>
-      <c r="C63" s="50">
+      <c r="C63" s="2">
         <v>-0.46881850254825802</v>
       </c>
-      <c r="D63" s="50">
+      <c r="D63" s="2">
         <v>2.9294622353350199E-2</v>
       </c>
       <c r="E63" s="7"/>
@@ -54279,13 +54252,13 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
-      <c r="O63" s="50">
+      <c r="O63" s="2">
         <v>-8.3686868686868596</v>
       </c>
-      <c r="P63" s="50">
+      <c r="P63" s="2">
         <v>-0.52134564826300001</v>
       </c>
-      <c r="Q63" s="50">
+      <c r="Q63" s="2">
         <v>6.6008550774393104E-2</v>
       </c>
       <c r="R63" s="7"/>
@@ -54342,13 +54315,13 @@
       </c>
     </row>
     <row r="64" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B64" s="50">
+      <c r="B64" s="2">
         <v>-7.9242424242424203</v>
       </c>
-      <c r="C64" s="50">
+      <c r="C64" s="2">
         <v>-0.44053768525257297</v>
       </c>
-      <c r="D64" s="50">
+      <c r="D64" s="2">
         <v>2.64750683384005E-2</v>
       </c>
       <c r="E64" s="7"/>
@@ -54357,13 +54330,13 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
-      <c r="O64" s="50">
+      <c r="O64" s="2">
         <v>-8.0858585858585794</v>
       </c>
-      <c r="P64" s="50">
+      <c r="P64" s="2">
         <v>-0.54787390647588297</v>
       </c>
-      <c r="Q64" s="50">
+      <c r="Q64" s="2">
         <v>5.3738146413137101E-2</v>
       </c>
       <c r="R64" s="7"/>
@@ -54420,13 +54393,13 @@
       </c>
     </row>
     <row r="65" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B65" s="50">
+      <c r="B65" s="2">
         <v>-7.6590909090909003</v>
       </c>
-      <c r="C65" s="50">
+      <c r="C65" s="2">
         <v>-0.42143334425802698</v>
       </c>
-      <c r="D65" s="50">
+      <c r="D65" s="2">
         <v>2.2386509753066899E-2</v>
       </c>
       <c r="E65" s="7"/>
@@ -54435,13 +54408,13 @@
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
-      <c r="O65" s="50">
+      <c r="O65" s="2">
         <v>-7.8030303030303001</v>
       </c>
-      <c r="P65" s="50">
+      <c r="P65" s="2">
         <v>-0.54197468991946796</v>
       </c>
-      <c r="Q65" s="50">
+      <c r="Q65" s="2">
         <v>4.7751725083292597E-2</v>
       </c>
       <c r="R65" s="7"/>
@@ -54498,13 +54471,13 @@
       </c>
     </row>
     <row r="66" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B66" s="50">
+      <c r="B66" s="2">
         <v>-7.39393939393939</v>
       </c>
-      <c r="C66" s="50">
+      <c r="C66" s="2">
         <v>-0.38922055151499202</v>
       </c>
-      <c r="D66" s="50">
+      <c r="D66" s="2">
         <v>2.0958925924925601E-2</v>
       </c>
       <c r="E66" s="7"/>
@@ -54513,13 +54486,13 @@
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
-      <c r="O66" s="50">
+      <c r="O66" s="2">
         <v>-7.5202020202020199</v>
       </c>
-      <c r="P66" s="50">
+      <c r="P66" s="2">
         <v>-0.52666523627465001</v>
       </c>
-      <c r="Q66" s="50">
+      <c r="Q66" s="2">
         <v>4.2585691549859001E-2</v>
       </c>
       <c r="R66" s="7"/>
@@ -54576,13 +54549,13 @@
       </c>
     </row>
     <row r="67" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B67" s="50">
+      <c r="B67" s="2">
         <v>-7.12878787878787</v>
       </c>
-      <c r="C67" s="50">
+      <c r="C67" s="2">
         <v>-0.36019335684588899</v>
       </c>
-      <c r="D67" s="50">
+      <c r="D67" s="2">
         <v>1.9661039832246301E-2</v>
       </c>
       <c r="E67" s="7"/>
@@ -54591,13 +54564,13 @@
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
-      <c r="O67" s="50">
+      <c r="O67" s="2">
         <v>-7.2373737373737299</v>
       </c>
-      <c r="P67" s="50">
+      <c r="P67" s="2">
         <v>-0.563058659826568</v>
       </c>
-      <c r="Q67" s="50">
+      <c r="Q67" s="2">
         <v>2.44290719774083E-2</v>
       </c>
       <c r="R67" s="7"/>
@@ -54654,13 +54627,13 @@
       </c>
     </row>
     <row r="68" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B68" s="50">
+      <c r="B68" s="2">
         <v>-6.8636363636363598</v>
       </c>
-      <c r="C68" s="50">
+      <c r="C68" s="2">
         <v>-0.33315947004761198</v>
       </c>
-      <c r="D68" s="50">
+      <c r="D68" s="2">
         <v>1.8711155495617301E-2</v>
       </c>
       <c r="E68" s="7"/>
@@ -54669,13 +54642,13 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-      <c r="O68" s="50">
+      <c r="O68" s="2">
         <v>-6.9545454545454497</v>
       </c>
-      <c r="P68" s="50">
+      <c r="P68" s="2">
         <v>-0.53540437221451498</v>
       </c>
-      <c r="Q68" s="50">
+      <c r="Q68" s="2">
         <v>2.5649018330359302E-2</v>
       </c>
       <c r="R68" s="7"/>
@@ -54732,13 +54705,13 @@
       </c>
     </row>
     <row r="69" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B69" s="50">
+      <c r="B69" s="2">
         <v>-6.5984848484848397</v>
       </c>
-      <c r="C69" s="50">
+      <c r="C69" s="2">
         <v>-0.30427391709128998</v>
       </c>
-      <c r="D69" s="50">
+      <c r="D69" s="2">
         <v>1.7654010614223E-2</v>
       </c>
       <c r="E69" s="7"/>
@@ -54747,13 +54720,13 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
-      <c r="O69" s="50">
+      <c r="O69" s="2">
         <v>-6.6717171717171704</v>
       </c>
-      <c r="P69" s="50">
+      <c r="P69" s="2">
         <v>-0.51485228368462999</v>
       </c>
-      <c r="Q69" s="50">
+      <c r="Q69" s="2">
         <v>2.4735565476518302E-2</v>
       </c>
       <c r="R69" s="7"/>
@@ -54810,13 +54783,13 @@
       </c>
     </row>
     <row r="70" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B70" s="50">
+      <c r="B70" s="2">
         <v>-6.3333333333333304</v>
       </c>
-      <c r="C70" s="50">
+      <c r="C70" s="2">
         <v>-0.27799667941495398</v>
       </c>
-      <c r="D70" s="50">
+      <c r="D70" s="2">
         <v>1.65953745684588E-2</v>
       </c>
       <c r="E70" s="7"/>
@@ -54825,13 +54798,13 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
-      <c r="O70" s="50">
+      <c r="O70" s="2">
         <v>-6.3888888888888804</v>
       </c>
-      <c r="P70" s="50">
+      <c r="P70" s="2">
         <v>-0.49841900646005</v>
       </c>
-      <c r="Q70" s="50">
+      <c r="Q70" s="2">
         <v>2.15696958453136E-2</v>
       </c>
       <c r="R70" s="7"/>
@@ -54888,13 +54861,13 @@
       </c>
     </row>
     <row r="71" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B71" s="50">
+      <c r="B71" s="2">
         <v>-6.0681818181818103</v>
       </c>
-      <c r="C71" s="50">
+      <c r="C71" s="2">
         <v>-0.249806818885106</v>
       </c>
-      <c r="D71" s="50">
+      <c r="D71" s="2">
         <v>1.5651505968596598E-2</v>
       </c>
       <c r="E71" s="7"/>
@@ -54903,13 +54876,13 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
-      <c r="O71" s="50">
+      <c r="O71" s="2">
         <v>-6.1060606060606002</v>
       </c>
-      <c r="P71" s="50">
+      <c r="P71" s="2">
         <v>-0.47508974602648302</v>
       </c>
-      <c r="Q71" s="50">
+      <c r="Q71" s="2">
         <v>2.07145381944152E-2</v>
       </c>
       <c r="R71" s="7"/>
@@ -54966,13 +54939,13 @@
       </c>
     </row>
     <row r="72" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B72" s="50">
+      <c r="B72" s="2">
         <v>-5.8030303030303001</v>
       </c>
-      <c r="C72" s="50">
+      <c r="C72" s="2">
         <v>-0.22339725846856301</v>
       </c>
-      <c r="D72" s="50">
+      <c r="D72" s="2">
         <v>1.4855027336159799E-2</v>
       </c>
       <c r="E72" s="7"/>
@@ -54981,13 +54954,13 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
-      <c r="O72" s="50">
+      <c r="O72" s="2">
         <v>-5.82323232323232</v>
       </c>
-      <c r="P72" s="50">
+      <c r="P72" s="2">
         <v>-0.44814302521466398</v>
       </c>
-      <c r="Q72" s="50">
+      <c r="Q72" s="2">
         <v>2.0744210022921799E-2</v>
       </c>
       <c r="R72" s="7"/>
@@ -55044,13 +55017,13 @@
       </c>
     </row>
     <row r="73" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B73" s="50">
+      <c r="B73" s="2">
         <v>-5.5378787878787801</v>
       </c>
-      <c r="C73" s="50">
+      <c r="C73" s="2">
         <v>-0.19550497027615901</v>
       </c>
-      <c r="D73" s="50">
+      <c r="D73" s="2">
         <v>1.41649582183647E-2</v>
       </c>
       <c r="E73" s="7"/>
@@ -55059,13 +55032,13 @@
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
-      <c r="O73" s="50">
+      <c r="O73" s="2">
         <v>-5.5404040404040398</v>
       </c>
-      <c r="P73" s="50">
+      <c r="P73" s="2">
         <v>-0.423455980526252</v>
       </c>
-      <c r="Q73" s="50">
+      <c r="Q73" s="2">
         <v>1.9504860161998799E-2</v>
       </c>
       <c r="R73" s="7"/>
@@ -55122,13 +55095,13 @@
       </c>
     </row>
     <row r="74" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B74" s="50">
+      <c r="B74" s="2">
         <v>-5.2727272727272698</v>
       </c>
-      <c r="C74" s="50">
+      <c r="C74" s="2">
         <v>-0.168174542256876</v>
       </c>
-      <c r="D74" s="50">
+      <c r="D74" s="2">
         <v>1.3651031065583101E-2</v>
       </c>
       <c r="E74" s="7"/>
@@ -55137,13 +55110,13 @@
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
-      <c r="O74" s="50">
+      <c r="O74" s="2">
         <v>-5.2575757575757498</v>
       </c>
-      <c r="P74" s="50">
+      <c r="P74" s="2">
         <v>-0.396810954112711</v>
       </c>
-      <c r="Q74" s="50">
+      <c r="Q74" s="2">
         <v>1.8810489937384E-2</v>
       </c>
       <c r="R74" s="7"/>
@@ -55200,13 +55173,13 @@
       </c>
     </row>
     <row r="75" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B75" s="50">
+      <c r="B75" s="2">
         <v>-5.0075757575757498</v>
       </c>
-      <c r="C75" s="50">
+      <c r="C75" s="2">
         <v>-0.13989018185559399</v>
       </c>
-      <c r="D75" s="50">
+      <c r="D75" s="2">
         <v>1.3137495811961599E-2</v>
       </c>
       <c r="E75" s="7"/>
@@ -55215,13 +55188,13 @@
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
-      <c r="O75" s="50">
+      <c r="O75" s="2">
         <v>-4.9747474747474696</v>
       </c>
-      <c r="P75" s="50">
+      <c r="P75" s="2">
         <v>-0.370302548228652</v>
       </c>
-      <c r="Q75" s="50">
+      <c r="Q75" s="2">
         <v>1.82711732014674E-2</v>
       </c>
       <c r="R75" s="7"/>
@@ -55278,13 +55251,13 @@
       </c>
     </row>
     <row r="76" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B76" s="50">
+      <c r="B76" s="2">
         <v>-4.7424242424242404</v>
       </c>
-      <c r="C76" s="50">
+      <c r="C76" s="2">
         <v>-0.113137488302573</v>
       </c>
-      <c r="D76" s="50">
+      <c r="D76" s="2">
         <v>1.2417471716028E-2</v>
       </c>
       <c r="E76" s="7"/>
@@ -55293,13 +55266,13 @@
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
-      <c r="O76" s="50">
+      <c r="O76" s="2">
         <v>-4.6919191919191903</v>
       </c>
-      <c r="P76" s="50">
+      <c r="P76" s="2">
         <v>-0.34083344962831602</v>
       </c>
-      <c r="Q76" s="50">
+      <c r="Q76" s="2">
         <v>1.7236938882864601E-2</v>
       </c>
       <c r="R76" s="7"/>
@@ -55356,13 +55329,13 @@
       </c>
     </row>
     <row r="77" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B77" s="50">
+      <c r="B77" s="2">
         <v>-4.4772727272727204</v>
       </c>
-      <c r="C77" s="50">
+      <c r="C77" s="2">
         <v>-8.6187044097236903E-2</v>
       </c>
-      <c r="D77" s="50">
+      <c r="D77" s="2">
         <v>1.16563540693695E-2</v>
       </c>
       <c r="E77" s="7"/>
@@ -55371,13 +55344,13 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
-      <c r="O77" s="50">
+      <c r="O77" s="2">
         <v>-4.4090909090909003</v>
       </c>
-      <c r="P77" s="50">
+      <c r="P77" s="2">
         <v>-0.31261848248951901</v>
       </c>
-      <c r="Q77" s="50">
+      <c r="Q77" s="2">
         <v>1.65037259652876E-2</v>
       </c>
       <c r="R77" s="7"/>
@@ -55434,13 +55407,13 @@
       </c>
     </row>
     <row r="78" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B78" s="50">
+      <c r="B78" s="2">
         <v>-4.2121212121212102</v>
       </c>
-      <c r="C78" s="50">
+      <c r="C78" s="2">
         <v>-5.8918137298040303E-2</v>
       </c>
-      <c r="D78" s="50">
+      <c r="D78" s="2">
         <v>1.1193602702825701E-2</v>
       </c>
       <c r="E78" s="7"/>
@@ -55449,13 +55422,13 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
-      <c r="O78" s="50">
+      <c r="O78" s="2">
         <v>-4.1262626262626201</v>
       </c>
-      <c r="P78" s="50">
+      <c r="P78" s="2">
         <v>-0.28427344430324603</v>
       </c>
-      <c r="Q78" s="50">
+      <c r="Q78" s="2">
         <v>1.4863508918017699E-2</v>
       </c>
       <c r="R78" s="7"/>
@@ -55512,13 +55485,13 @@
       </c>
     </row>
     <row r="79" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B79" s="50">
+      <c r="B79" s="2">
         <v>-3.9469696969696901</v>
       </c>
-      <c r="C79" s="50">
+      <c r="C79" s="2">
         <v>-3.07316316647499E-2</v>
       </c>
-      <c r="D79" s="50">
+      <c r="D79" s="2">
         <v>1.08434357027402E-2</v>
       </c>
       <c r="E79" s="7"/>
@@ -55527,13 +55500,13 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
-      <c r="O79" s="50">
+      <c r="O79" s="2">
         <v>-3.8434343434343399</v>
       </c>
-      <c r="P79" s="50">
+      <c r="P79" s="2">
         <v>-0.25456401716625798</v>
       </c>
-      <c r="Q79" s="50">
+      <c r="Q79" s="2">
         <v>1.4262043401324099E-2</v>
       </c>
       <c r="R79" s="7"/>
@@ -55590,13 +55563,13 @@
       </c>
     </row>
     <row r="80" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B80" s="50">
+      <c r="B80" s="2">
         <v>-3.6818181818181799</v>
       </c>
-      <c r="C80" s="50">
+      <c r="C80" s="2">
         <v>-2.95080841449928E-3</v>
       </c>
-      <c r="D80" s="50">
+      <c r="D80" s="2">
         <v>1.0535682638043199E-2</v>
       </c>
       <c r="E80" s="7"/>
@@ -55605,13 +55578,13 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
-      <c r="O80" s="50">
+      <c r="O80" s="2">
         <v>-3.5606060606060601</v>
       </c>
-      <c r="P80" s="50">
+      <c r="P80" s="2">
         <v>-0.22561072820942599</v>
       </c>
-      <c r="Q80" s="50">
+      <c r="Q80" s="2">
         <v>1.37192212366635E-2</v>
       </c>
       <c r="R80" s="7"/>
@@ -55668,13 +55641,13 @@
       </c>
     </row>
     <row r="81" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B81" s="50">
+      <c r="B81" s="2">
         <v>-3.4166666666666599</v>
       </c>
-      <c r="C81" s="50">
+      <c r="C81" s="2">
         <v>2.5760321532233999E-2</v>
       </c>
-      <c r="D81" s="50">
+      <c r="D81" s="2">
         <v>1.02950642959938E-2</v>
       </c>
       <c r="E81" s="7"/>
@@ -55683,13 +55656,13 @@
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
-      <c r="O81" s="50">
+      <c r="O81" s="2">
         <v>-3.2777777777777701</v>
       </c>
-      <c r="P81" s="50">
+      <c r="P81" s="2">
         <v>-0.19679203921968999</v>
       </c>
-      <c r="Q81" s="50">
+      <c r="Q81" s="2">
         <v>1.31280605655133E-2</v>
       </c>
       <c r="R81" s="7"/>
@@ -55746,13 +55719,13 @@
       </c>
     </row>
     <row r="82" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B82" s="50">
+      <c r="B82" s="2">
         <v>-3.15151515151515</v>
       </c>
-      <c r="C82" s="50">
+      <c r="C82" s="2">
         <v>5.4252014472684899E-2</v>
       </c>
-      <c r="D82" s="50">
+      <c r="D82" s="2">
         <v>1.00421072110862E-2</v>
       </c>
       <c r="E82" s="7"/>
@@ -55761,13 +55734,13 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
-      <c r="O82" s="50">
+      <c r="O82" s="2">
         <v>-2.9949494949494899</v>
       </c>
-      <c r="P82" s="50">
+      <c r="P82" s="2">
         <v>-0.166990603117181</v>
       </c>
-      <c r="Q82" s="50">
+      <c r="Q82" s="2">
         <v>1.2676798506345699E-2</v>
       </c>
       <c r="R82" s="7"/>
@@ -55824,13 +55797,13 @@
       </c>
     </row>
     <row r="83" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B83" s="50">
+      <c r="B83" s="2">
         <v>-2.88636363636363</v>
       </c>
-      <c r="C83" s="50">
+      <c r="C83" s="2">
         <v>8.26233973618892E-2</v>
       </c>
-      <c r="D83" s="50">
+      <c r="D83" s="2">
         <v>9.7500260294116608E-3</v>
       </c>
       <c r="E83" s="7"/>
@@ -55839,13 +55812,13 @@
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
-      <c r="O83" s="50">
+      <c r="O83" s="2">
         <v>-2.7121212121212102</v>
       </c>
-      <c r="P83" s="50">
+      <c r="P83" s="2">
         <v>-0.139689060290249</v>
       </c>
-      <c r="Q83" s="50">
+      <c r="Q83" s="2">
         <v>1.1712555973604301E-2</v>
       </c>
       <c r="R83" s="7"/>
@@ -55902,13 +55875,13 @@
       </c>
     </row>
     <row r="84" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B84" s="50">
+      <c r="B84" s="2">
         <v>-2.6212121212121202</v>
       </c>
-      <c r="C84" s="50">
+      <c r="C84" s="2">
         <v>0.111347801887415</v>
       </c>
-      <c r="D84" s="50">
+      <c r="D84" s="2">
         <v>9.5381256472629895E-3</v>
       </c>
       <c r="E84" s="7"/>
@@ -55917,13 +55890,13 @@
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-      <c r="O84" s="50">
+      <c r="O84" s="2">
         <v>-2.4292929292929202</v>
       </c>
-      <c r="P84" s="50">
+      <c r="P84" s="2">
         <v>-0.111087317894176</v>
       </c>
-      <c r="Q84" s="50">
+      <c r="Q84" s="2">
         <v>1.11928298155932E-2</v>
       </c>
       <c r="R84" s="7"/>
@@ -55980,13 +55953,13 @@
       </c>
     </row>
     <row r="85" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B85" s="50">
+      <c r="B85" s="2">
         <v>-2.3560606060606002</v>
       </c>
-      <c r="C85" s="50">
+      <c r="C85" s="2">
         <v>0.139696529432175</v>
       </c>
-      <c r="D85" s="50">
+      <c r="D85" s="2">
         <v>9.2670404823174193E-3</v>
       </c>
       <c r="E85" s="7"/>
@@ -55995,13 +55968,13 @@
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
-      <c r="O85" s="50">
+      <c r="O85" s="2">
         <v>-2.14646464646464</v>
       </c>
-      <c r="P85" s="50">
+      <c r="P85" s="2">
         <v>-8.1701890736867205E-2</v>
       </c>
-      <c r="Q85" s="50">
+      <c r="Q85" s="2">
         <v>1.08075141213598E-2</v>
       </c>
       <c r="R85" s="7"/>
@@ -56058,13 +56031,13 @@
       </c>
     </row>
     <row r="86" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B86" s="50">
+      <c r="B86" s="2">
         <v>-2.0909090909090899</v>
       </c>
-      <c r="C86" s="50">
+      <c r="C86" s="2">
         <v>0.16782686319413301</v>
       </c>
-      <c r="D86" s="50">
+      <c r="D86" s="2">
         <v>8.9730094473427103E-3</v>
       </c>
       <c r="E86" s="7"/>
@@ -56073,13 +56046,13 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
-      <c r="O86" s="50">
+      <c r="O86" s="2">
         <v>-1.86363636363636</v>
       </c>
-      <c r="P86" s="50">
+      <c r="P86" s="2">
         <v>-5.1959168893357097E-2</v>
       </c>
-      <c r="Q86" s="50">
+      <c r="Q86" s="2">
         <v>1.0487003644592201E-2</v>
       </c>
       <c r="R86" s="7"/>
@@ -56136,13 +56109,13 @@
       </c>
     </row>
     <row r="87" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B87" s="50">
+      <c r="B87" s="2">
         <v>-1.8257575757575699</v>
       </c>
-      <c r="C87" s="50">
+      <c r="C87" s="2">
         <v>0.19570969907343999</v>
       </c>
-      <c r="D87" s="50">
+      <c r="D87" s="2">
         <v>8.6692742298324996E-3</v>
       </c>
       <c r="E87" s="7"/>
@@ -56151,13 +56124,13 @@
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
-      <c r="O87" s="50">
+      <c r="O87" s="2">
         <v>-1.58080808080808</v>
       </c>
-      <c r="P87" s="50">
+      <c r="P87" s="2">
         <v>-2.1742923371089299E-2</v>
       </c>
-      <c r="Q87" s="50">
+      <c r="Q87" s="2">
         <v>1.0189030132435301E-2</v>
       </c>
       <c r="R87" s="7"/>
@@ -56214,13 +56187,13 @@
       </c>
     </row>
     <row r="88" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B88" s="50">
+      <c r="B88" s="2">
         <v>-1.5606060606060601</v>
       </c>
-      <c r="C88" s="50">
+      <c r="C88" s="2">
         <v>0.223823811894971</v>
       </c>
-      <c r="D88" s="50">
+      <c r="D88" s="2">
         <v>8.4261891659711593E-3</v>
       </c>
       <c r="E88" s="7"/>
@@ -56229,13 +56202,13 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
-      <c r="O88" s="50">
+      <c r="O88" s="2">
         <v>-1.29797979797979</v>
       </c>
-      <c r="P88" s="50">
+      <c r="P88" s="2">
         <v>7.9533962813231607E-3</v>
       </c>
-      <c r="Q88" s="50">
+      <c r="Q88" s="2">
         <v>9.8355071317174202E-3</v>
       </c>
       <c r="R88" s="7"/>
@@ -56292,13 +56265,13 @@
       </c>
     </row>
     <row r="89" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B89" s="50">
+      <c r="B89" s="2">
         <v>-1.2954545454545401</v>
       </c>
-      <c r="C89" s="50">
+      <c r="C89" s="2">
         <v>0.25224000593644202</v>
       </c>
-      <c r="D89" s="50">
+      <c r="D89" s="2">
         <v>8.2342480100254106E-3</v>
       </c>
       <c r="E89" s="7"/>
@@ -56307,13 +56280,13 @@
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
-      <c r="O89" s="50">
+      <c r="O89" s="2">
         <v>-1.01515151515151</v>
       </c>
-      <c r="P89" s="50">
+      <c r="P89" s="2">
         <v>3.8575571937216301E-2</v>
       </c>
-      <c r="Q89" s="50">
+      <c r="Q89" s="2">
         <v>9.5756417855177006E-3</v>
       </c>
       <c r="R89" s="7"/>
@@ -56370,13 +56343,13 @@
       </c>
     </row>
     <row r="90" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B90" s="50">
+      <c r="B90" s="2">
         <v>-1.0303030303030301</v>
       </c>
-      <c r="C90" s="50">
+      <c r="C90" s="2">
         <v>0.28041196145702102</v>
       </c>
-      <c r="D90" s="50">
+      <c r="D90" s="2">
         <v>8.0165166391031901E-3</v>
       </c>
       <c r="E90" s="7"/>
@@ -56385,13 +56358,13 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
-      <c r="O90" s="50">
+      <c r="O90" s="2">
         <v>-0.73232323232323104</v>
       </c>
-      <c r="P90" s="50">
+      <c r="P90" s="2">
         <v>6.7977839490740002E-2</v>
       </c>
-      <c r="Q90" s="50">
+      <c r="Q90" s="2">
         <v>9.2005800833633994E-3</v>
       </c>
       <c r="R90" s="7"/>
@@ -56448,13 +56421,13 @@
       </c>
     </row>
     <row r="91" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B91" s="50">
+      <c r="B91" s="2">
         <v>-0.76515151515151503</v>
       </c>
-      <c r="C91" s="50">
+      <c r="C91" s="2">
         <v>0.30796556109592899</v>
       </c>
-      <c r="D91" s="50">
+      <c r="D91" s="2">
         <v>7.7596853051642703E-3</v>
       </c>
       <c r="E91" s="7"/>
@@ -56463,13 +56436,13 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
-      <c r="O91" s="50">
+      <c r="O91" s="2">
         <v>-0.449494949494949</v>
       </c>
-      <c r="P91" s="50">
+      <c r="P91" s="2">
         <v>8.2915224257075301E-2</v>
       </c>
-      <c r="Q91" s="50">
+      <c r="Q91" s="2">
         <v>7.0073329336964403E-3</v>
       </c>
       <c r="R91" s="7"/>
@@ -56526,13 +56499,13 @@
       </c>
     </row>
     <row r="92" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B92" s="50">
+      <c r="B92" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C92" s="50">
+      <c r="C92" s="2">
         <v>0.33379999999999899</v>
       </c>
-      <c r="D92" s="50">
+      <c r="D92" s="2">
         <v>7.3200000000000001E-3</v>
       </c>
       <c r="E92" s="7"/>
@@ -56541,13 +56514,13 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
-      <c r="O92" s="50">
+      <c r="O92" s="2">
         <v>-0.16666666666666699</v>
       </c>
-      <c r="P92" s="50">
+      <c r="P92" s="2">
         <v>0.127343729856254</v>
       </c>
-      <c r="Q92" s="50">
+      <c r="Q92" s="2">
         <v>6.2611115588435103E-3</v>
       </c>
       <c r="R92" s="7"/>
@@ -56604,13 +56577,13 @@
       </c>
     </row>
     <row r="93" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B93" s="50">
+      <c r="B93" s="2">
         <v>-0.234848484848484</v>
       </c>
-      <c r="C93" s="50">
+      <c r="C93" s="2">
         <v>0.35629245262646497</v>
       </c>
-      <c r="D93" s="50">
+      <c r="D93" s="2">
         <v>6.8141752889981904E-3</v>
       </c>
       <c r="E93" s="7"/>
@@ -56619,13 +56592,13 @@
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
-      <c r="O93" s="50">
+      <c r="O93" s="2">
         <v>0.11616161616161499</v>
       </c>
-      <c r="P93" s="50">
+      <c r="P93" s="2">
         <v>0.19547178783892899</v>
       </c>
-      <c r="Q93" s="50">
+      <c r="Q93" s="2">
         <v>6.8908794725398804E-3</v>
       </c>
       <c r="R93" s="7"/>
@@ -56682,13 +56655,13 @@
       </c>
     </row>
     <row r="94" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B94" s="50">
+      <c r="B94" s="2">
         <v>3.0303030303029301E-2</v>
       </c>
-      <c r="C94" s="50">
+      <c r="C94" s="2">
         <v>0.37944281606895203</v>
       </c>
-      <c r="D94" s="50">
+      <c r="D94" s="2">
         <v>6.5058611083734898E-3</v>
       </c>
       <c r="E94" s="7"/>
@@ -56697,13 +56670,13 @@
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
-      <c r="O94" s="50">
+      <c r="O94" s="2">
         <v>0.39898989898989701</v>
       </c>
-      <c r="P94" s="50">
+      <c r="P94" s="2">
         <v>0.274510851379762</v>
       </c>
-      <c r="Q94" s="50">
+      <c r="Q94" s="2">
         <v>7.2907153590601199E-3</v>
       </c>
       <c r="R94" s="7"/>
@@ -56760,13 +56733,13 @@
       </c>
     </row>
     <row r="95" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B95" s="50">
+      <c r="B95" s="2">
         <v>0.29545454545454403</v>
       </c>
-      <c r="C95" s="50">
+      <c r="C95" s="2">
         <v>0.41783364896381298</v>
       </c>
-      <c r="D95" s="50">
+      <c r="D95" s="2">
         <v>6.5558315420366801E-3</v>
       </c>
       <c r="E95" s="7"/>
@@ -56775,13 +56748,13 @@
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
-      <c r="O95" s="50">
+      <c r="O95" s="2">
         <v>0.68181818181818099</v>
       </c>
-      <c r="P95" s="50">
+      <c r="P95" s="2">
         <v>0.32663365858763199</v>
       </c>
-      <c r="Q95" s="50">
+      <c r="Q95" s="2">
         <v>7.34052631418929E-3</v>
       </c>
       <c r="R95" s="7"/>
@@ -56838,13 +56811,13 @@
       </c>
     </row>
     <row r="96" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B96" s="50">
+      <c r="B96" s="2">
         <v>0.56060606060606</v>
       </c>
-      <c r="C96" s="50">
+      <c r="C96" s="2">
         <v>0.46589945400143801</v>
       </c>
-      <c r="D96" s="50">
+      <c r="D96" s="2">
         <v>6.6471910127688704E-3</v>
       </c>
       <c r="E96" s="7"/>
@@ -56853,13 +56826,13 @@
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="O96" s="50">
+      <c r="O96" s="2">
         <v>0.96464646464646298</v>
       </c>
-      <c r="P96" s="50">
+      <c r="P96" s="2">
         <v>0.357616335530688</v>
       </c>
-      <c r="Q96" s="50">
+      <c r="Q96" s="2">
         <v>7.3599806248596704E-3</v>
       </c>
       <c r="R96" s="7"/>
@@ -56916,13 +56889,13 @@
       </c>
     </row>
     <row r="97" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B97" s="50">
+      <c r="B97" s="2">
         <v>0.82575757575757402</v>
       </c>
-      <c r="C97" s="50">
+      <c r="C97" s="2">
         <v>0.51980022436043005</v>
       </c>
-      <c r="D97" s="50">
+      <c r="D97" s="2">
         <v>6.7074623443459797E-3</v>
       </c>
       <c r="E97" s="7"/>
@@ -56931,13 +56904,13 @@
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
-      <c r="O97" s="50">
+      <c r="O97" s="2">
         <v>1.2474747474747401</v>
       </c>
-      <c r="P97" s="50">
+      <c r="P97" s="2">
         <v>0.38851855924512102</v>
       </c>
-      <c r="Q97" s="50">
+      <c r="Q97" s="2">
         <v>7.5367749095637798E-3</v>
       </c>
       <c r="R97" s="7"/>
@@ -56994,13 +56967,13 @@
       </c>
     </row>
     <row r="98" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B98" s="50">
+      <c r="B98" s="2">
         <v>1.0909090909090799</v>
       </c>
-      <c r="C98" s="50">
+      <c r="C98" s="2">
         <v>0.55377241875359096</v>
       </c>
-      <c r="D98" s="50">
+      <c r="D98" s="2">
         <v>6.7736210666432496E-3</v>
       </c>
       <c r="E98" s="7"/>
@@ -57009,13 +56982,13 @@
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
-      <c r="O98" s="50">
+      <c r="O98" s="2">
         <v>1.5303030303030201</v>
       </c>
-      <c r="P98" s="50">
+      <c r="P98" s="2">
         <v>0.42028390361093398</v>
       </c>
-      <c r="Q98" s="50">
+      <c r="Q98" s="2">
         <v>8.0624609671242995E-3</v>
       </c>
       <c r="R98" s="7"/>
@@ -57072,13 +57045,13 @@
       </c>
     </row>
     <row r="99" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B99" s="50">
+      <c r="B99" s="2">
         <v>1.3560606060606</v>
       </c>
-      <c r="C99" s="50">
+      <c r="C99" s="2">
         <v>0.579053213801768</v>
       </c>
-      <c r="D99" s="50">
+      <c r="D99" s="2">
         <v>6.8572695788928304E-3</v>
       </c>
       <c r="E99" s="7"/>
@@ -57087,13 +57060,13 @@
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
-      <c r="O99" s="50">
+      <c r="O99" s="2">
         <v>1.81313131313131</v>
       </c>
-      <c r="P99" s="50">
+      <c r="P99" s="2">
         <v>0.45133813444562498</v>
       </c>
-      <c r="Q99" s="50">
+      <c r="Q99" s="2">
         <v>8.6268593566174497E-3</v>
       </c>
       <c r="R99" s="7"/>
@@ -57150,13 +57123,13 @@
       </c>
     </row>
     <row r="100" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B100" s="50">
+      <c r="B100" s="2">
         <v>1.62121212121212</v>
       </c>
-      <c r="C100" s="50">
+      <c r="C100" s="2">
         <v>0.605353087080304</v>
       </c>
-      <c r="D100" s="50">
+      <c r="D100" s="2">
         <v>6.9492924693119601E-3</v>
       </c>
       <c r="E100" s="7"/>
@@ -57165,13 +57138,13 @@
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
-      <c r="O100" s="50">
+      <c r="O100" s="2">
         <v>2.0959595959595898</v>
       </c>
-      <c r="P100" s="50">
+      <c r="P100" s="2">
         <v>0.48143784397515998</v>
       </c>
-      <c r="Q100" s="50">
+      <c r="Q100" s="2">
         <v>9.05524791150405E-3</v>
       </c>
       <c r="R100" s="7"/>
@@ -57228,13 +57201,13 @@
       </c>
     </row>
     <row r="101" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B101" s="50">
+      <c r="B101" s="2">
         <v>1.88636363636363</v>
       </c>
-      <c r="C101" s="50">
+      <c r="C101" s="2">
         <v>0.63142830005693995</v>
       </c>
-      <c r="D101" s="50">
+      <c r="D101" s="2">
         <v>7.0369389711084501E-3</v>
       </c>
       <c r="E101" s="7"/>
@@ -57243,13 +57216,13 @@
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
-      <c r="O101" s="50">
+      <c r="O101" s="2">
         <v>2.37878787878787</v>
       </c>
-      <c r="P101" s="50">
+      <c r="P101" s="2">
         <v>0.51106032035354299</v>
       </c>
-      <c r="Q101" s="50">
+      <c r="Q101" s="2">
         <v>9.3339003270134606E-3</v>
       </c>
       <c r="R101" s="7"/>
@@ -57306,13 +57279,13 @@
       </c>
     </row>
     <row r="102" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B102" s="50">
+      <c r="B102" s="2">
         <v>2.15151515151515</v>
       </c>
-      <c r="C102" s="50">
+      <c r="C102" s="2">
         <v>0.65741206883989001</v>
       </c>
-      <c r="D102" s="50">
+      <c r="D102" s="2">
         <v>7.1441158879103402E-3</v>
       </c>
       <c r="E102" s="7"/>
@@ -57321,13 +57294,13 @@
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="O102" s="50">
+      <c r="O102" s="2">
         <v>2.66161616161616</v>
       </c>
-      <c r="P102" s="50">
+      <c r="P102" s="2">
         <v>0.54052647750332194</v>
       </c>
-      <c r="Q102" s="50">
+      <c r="Q102" s="2">
         <v>9.5535233054115098E-3</v>
       </c>
       <c r="R102" s="7"/>
@@ -57384,13 +57357,13 @@
       </c>
     </row>
     <row r="103" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B103" s="50">
+      <c r="B103" s="2">
         <v>2.4166666666666599</v>
       </c>
-      <c r="C103" s="50">
+      <c r="C103" s="2">
         <v>0.68316582441709806</v>
       </c>
-      <c r="D103" s="50">
+      <c r="D103" s="2">
         <v>7.2751556854254301E-3</v>
       </c>
       <c r="E103" s="7"/>
@@ -57399,13 +57372,13 @@
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
-      <c r="O103" s="50">
+      <c r="O103" s="2">
         <v>2.9444444444444402</v>
       </c>
-      <c r="P103" s="50">
+      <c r="P103" s="2">
         <v>0.56978530543747796</v>
       </c>
-      <c r="Q103" s="50">
+      <c r="Q103" s="2">
         <v>9.7664483714361792E-3</v>
       </c>
       <c r="R103" s="7"/>
@@ -57462,13 +57435,13 @@
       </c>
     </row>
     <row r="104" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B104" s="50">
+      <c r="B104" s="2">
         <v>2.6818181818181799</v>
       </c>
-      <c r="C104" s="50">
+      <c r="C104" s="2">
         <v>0.70859524463961798</v>
       </c>
-      <c r="D104" s="50">
+      <c r="D104" s="2">
         <v>7.4211319091077397E-3</v>
       </c>
       <c r="E104" s="7"/>
@@ -57477,13 +57450,13 @@
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
-      <c r="O104" s="50">
+      <c r="O104" s="2">
         <v>3.22727272727272</v>
       </c>
-      <c r="P104" s="50">
+      <c r="P104" s="2">
         <v>0.59877808446214398</v>
       </c>
-      <c r="Q104" s="50">
+      <c r="Q104" s="2">
         <v>9.9933265803357901E-3</v>
       </c>
       <c r="R104" s="7"/>
@@ -57540,13 +57513,13 @@
       </c>
     </row>
     <row r="105" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B105" s="50">
+      <c r="B105" s="2">
         <v>2.9469696969696901</v>
       </c>
-      <c r="C105" s="50">
+      <c r="C105" s="2">
         <v>0.73387222690723797</v>
       </c>
-      <c r="D105" s="50">
+      <c r="D105" s="2">
         <v>7.5760035994102502E-3</v>
       </c>
       <c r="E105" s="7"/>
@@ -57555,13 +57528,13 @@
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
-      <c r="O105" s="50">
+      <c r="O105" s="2">
         <v>3.5101010101010099</v>
       </c>
-      <c r="P105" s="50">
+      <c r="P105" s="2">
         <v>0.62762981251627903</v>
       </c>
-      <c r="Q105" s="50">
+      <c r="Q105" s="2">
         <v>1.0176358287548801E-2</v>
       </c>
       <c r="R105" s="7"/>
@@ -57618,13 +57591,13 @@
       </c>
     </row>
     <row r="106" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B106" s="50">
+      <c r="B106" s="2">
         <v>3.2121212121212102</v>
       </c>
-      <c r="C106" s="50">
+      <c r="C106" s="2">
         <v>0.75885717845894896</v>
       </c>
-      <c r="D106" s="50">
+      <c r="D106" s="2">
         <v>7.76107726209298E-3</v>
       </c>
       <c r="E106" s="7"/>
@@ -57633,13 +57606,13 @@
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
-      <c r="O106" s="50">
+      <c r="O106" s="2">
         <v>3.7929292929292902</v>
       </c>
-      <c r="P106" s="50">
+      <c r="P106" s="2">
         <v>0.65630595250596102</v>
       </c>
-      <c r="Q106" s="50">
+      <c r="Q106" s="2">
         <v>1.0374734461291101E-2</v>
       </c>
       <c r="R106" s="7"/>
@@ -57696,13 +57669,13 @@
       </c>
     </row>
     <row r="107" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B107" s="50">
+      <c r="B107" s="2">
         <v>3.47727272727272</v>
       </c>
-      <c r="C107" s="50">
+      <c r="C107" s="2">
         <v>0.78357813929332698</v>
       </c>
-      <c r="D107" s="50">
+      <c r="D107" s="2">
         <v>7.9717232229792202E-3</v>
       </c>
       <c r="E107" s="7"/>
@@ -57711,13 +57684,13 @@
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
-      <c r="O107" s="50">
+      <c r="O107" s="2">
         <v>4.0757575757575699</v>
       </c>
-      <c r="P107" s="50">
+      <c r="P107" s="2">
         <v>0.68445397506880501</v>
       </c>
-      <c r="Q107" s="50">
+      <c r="Q107" s="2">
         <v>1.0601384341415301E-2</v>
       </c>
       <c r="R107" s="7"/>
@@ -57774,13 +57747,13 @@
       </c>
     </row>
     <row r="108" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B108" s="50">
+      <c r="B108" s="2">
         <v>3.74242424242424</v>
       </c>
-      <c r="C108" s="50">
+      <c r="C108" s="2">
         <v>0.808304538980812</v>
       </c>
-      <c r="D108" s="50">
+      <c r="D108" s="2">
         <v>8.1926898539820894E-3</v>
       </c>
       <c r="E108" s="7"/>
@@ -57789,13 +57762,13 @@
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
-      <c r="O108" s="50">
+      <c r="O108" s="2">
         <v>4.3585858585858501</v>
       </c>
-      <c r="P108" s="50">
+      <c r="P108" s="2">
         <v>0.712467907424157</v>
       </c>
-      <c r="Q108" s="50">
+      <c r="Q108" s="2">
         <v>1.0797377968710499E-2</v>
       </c>
       <c r="R108" s="7"/>
@@ -57852,13 +57825,13 @@
       </c>
     </row>
     <row r="109" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B109" s="50">
+      <c r="B109" s="2">
         <v>4.0075757575757498</v>
       </c>
-      <c r="C109" s="50">
+      <c r="C109" s="2">
         <v>0.83217389585964396</v>
       </c>
-      <c r="D109" s="50">
+      <c r="D109" s="2">
         <v>8.4892192958802692E-3</v>
       </c>
       <c r="E109" s="2"/>
@@ -57867,13 +57840,13 @@
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
-      <c r="O109" s="50">
+      <c r="O109" s="2">
         <v>4.6414141414141401</v>
       </c>
-      <c r="P109" s="50">
+      <c r="P109" s="2">
         <v>0.74022269577798105</v>
       </c>
-      <c r="Q109" s="50">
+      <c r="Q109" s="2">
         <v>1.1029605397837899E-2</v>
       </c>
       <c r="R109" s="2"/>
@@ -57888,13 +57861,13 @@
       <c r="BB109" s="2"/>
     </row>
     <row r="110" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B110" s="50">
+      <c r="B110" s="2">
         <v>4.2727272727272698</v>
       </c>
-      <c r="C110" s="50">
+      <c r="C110" s="2">
         <v>0.85559974997309396</v>
       </c>
-      <c r="D110" s="50">
+      <c r="D110" s="2">
         <v>8.8305806223276506E-3</v>
       </c>
       <c r="E110" s="2"/>
@@ -57903,13 +57876,13 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
-      <c r="O110" s="50">
+      <c r="O110" s="2">
         <v>4.9242424242424203</v>
       </c>
-      <c r="P110" s="50">
+      <c r="P110" s="2">
         <v>0.767892554793285</v>
       </c>
-      <c r="Q110" s="50">
+      <c r="Q110" s="2">
         <v>1.1241904568542601E-2</v>
       </c>
       <c r="R110" s="2"/>
@@ -57923,13 +57896,13 @@
       <c r="BB110" s="2"/>
     </row>
     <row r="111" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B111" s="50">
+      <c r="B111" s="2">
         <v>4.5378787878787801</v>
       </c>
-      <c r="C111" s="50">
+      <c r="C111" s="2">
         <v>0.87912796427058404</v>
       </c>
-      <c r="D111" s="50">
+      <c r="D111" s="2">
         <v>9.1888266703518493E-3</v>
       </c>
       <c r="E111" s="2"/>
@@ -57938,13 +57911,13 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
-      <c r="O111" s="50">
+      <c r="O111" s="2">
         <v>5.2070707070706996</v>
       </c>
-      <c r="P111" s="50">
+      <c r="P111" s="2">
         <v>0.79496143340748904</v>
       </c>
-      <c r="Q111" s="50">
+      <c r="Q111" s="2">
         <v>1.15318748532266E-2</v>
       </c>
       <c r="R111" s="2"/>
@@ -57955,13 +57928,13 @@
       <c r="W111" s="2"/>
     </row>
     <row r="112" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B112" s="50">
+      <c r="B112" s="2">
         <v>4.8030303030303001</v>
       </c>
-      <c r="C112" s="50">
+      <c r="C112" s="2">
         <v>0.90362309749189296</v>
       </c>
-      <c r="D112" s="50">
+      <c r="D112" s="2">
         <v>9.5160725590692705E-3</v>
       </c>
       <c r="E112" s="2"/>
@@ -57970,13 +57943,13 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
-      <c r="O112" s="50">
+      <c r="O112" s="2">
         <v>5.4898989898989798</v>
       </c>
-      <c r="P112" s="50">
+      <c r="P112" s="2">
         <v>0.82252628620558299</v>
       </c>
-      <c r="Q112" s="50">
+      <c r="Q112" s="2">
         <v>1.17221083685014E-2</v>
       </c>
       <c r="R112" s="2"/>
@@ -57987,13 +57960,13 @@
       <c r="W112" s="2"/>
     </row>
     <row r="113" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B113" s="50">
+      <c r="B113" s="2">
         <v>5.0681818181818103</v>
       </c>
-      <c r="C113" s="50">
+      <c r="C113" s="2">
         <v>0.92842391172941596</v>
       </c>
-      <c r="D113" s="50">
+      <c r="D113" s="2">
         <v>9.8387926659643209E-3</v>
       </c>
       <c r="E113" s="2"/>
@@ -58002,13 +57975,13 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
-      <c r="O113" s="50">
+      <c r="O113" s="2">
         <v>5.7727272727272698</v>
       </c>
-      <c r="P113" s="50">
+      <c r="P113" s="2">
         <v>0.84922295765018496</v>
       </c>
-      <c r="Q113" s="50">
+      <c r="Q113" s="2">
         <v>1.20156257744479E-2</v>
       </c>
       <c r="R113" s="2"/>
@@ -58019,13 +57992,13 @@
       <c r="W113" s="2"/>
     </row>
     <row r="114" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B114" s="50">
+      <c r="B114" s="2">
         <v>5.3333333333333304</v>
       </c>
-      <c r="C114" s="50">
+      <c r="C114" s="2">
         <v>0.95366866402283701</v>
       </c>
-      <c r="D114" s="50">
+      <c r="D114" s="2">
         <v>1.01341091529262E-2</v>
       </c>
       <c r="E114" s="2"/>
@@ -58034,13 +58007,13 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
-      <c r="O114" s="50">
+      <c r="O114" s="2">
         <v>6.05555555555555</v>
       </c>
-      <c r="P114" s="50">
+      <c r="P114" s="2">
         <v>0.87580141005524004</v>
       </c>
-      <c r="Q114" s="50">
+      <c r="Q114" s="2">
         <v>1.23087688389097E-2</v>
       </c>
       <c r="R114" s="2"/>
@@ -58051,13 +58024,13 @@
       <c r="W114" s="2"/>
     </row>
     <row r="115" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B115" s="50">
+      <c r="B115" s="2">
         <v>5.5984848484848397</v>
       </c>
-      <c r="C115" s="50">
+      <c r="C115" s="2">
         <v>0.97923513200273504</v>
       </c>
-      <c r="D115" s="50">
+      <c r="D115" s="2">
         <v>1.0421316085795201E-2</v>
       </c>
       <c r="E115" s="2"/>
@@ -58066,13 +58039,13 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
-      <c r="O115" s="50">
+      <c r="O115" s="2">
         <v>6.3383838383838302</v>
       </c>
-      <c r="P115" s="50">
+      <c r="P115" s="2">
         <v>0.90284170703520195</v>
       </c>
-      <c r="Q115" s="50">
+      <c r="Q115" s="2">
         <v>1.25389136604134E-2</v>
       </c>
       <c r="R115" s="2"/>
@@ -58083,13 +58056,13 @@
       <c r="W115" s="2"/>
     </row>
     <row r="116" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B116" s="50">
+      <c r="B116" s="2">
         <v>5.8636363636363598</v>
       </c>
-      <c r="C116" s="50">
+      <c r="C116" s="2">
         <v>1.0051551615335299</v>
       </c>
-      <c r="D116" s="50">
+      <c r="D116" s="2">
         <v>1.06822502265551E-2</v>
       </c>
       <c r="E116" s="2"/>
@@ -58098,13 +58071,13 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
-      <c r="O116" s="50">
+      <c r="O116" s="2">
         <v>6.6212121212121202</v>
       </c>
-      <c r="P116" s="50">
+      <c r="P116" s="2">
         <v>0.92839987499390697</v>
       </c>
-      <c r="Q116" s="50">
+      <c r="Q116" s="2">
         <v>1.29068933232005E-2</v>
       </c>
       <c r="R116" s="2"/>
@@ -58115,13 +58088,13 @@
       <c r="W116" s="2"/>
     </row>
     <row r="117" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B117" s="50">
+      <c r="B117" s="2">
         <v>6.12878787878787</v>
       </c>
-      <c r="C117" s="50">
+      <c r="C117" s="2">
         <v>1.0309048974119399</v>
       </c>
-      <c r="D117" s="50">
+      <c r="D117" s="2">
         <v>1.0955486015089499E-2</v>
       </c>
       <c r="F117" s="2"/>
@@ -58129,13 +58102,13 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
-      <c r="O117" s="50">
+      <c r="O117" s="2">
         <v>6.9040404040404004</v>
       </c>
-      <c r="P117" s="50">
+      <c r="P117" s="2">
         <v>0.95459777903340504</v>
       </c>
-      <c r="Q117" s="50">
+      <c r="Q117" s="2">
         <v>1.31990405963834E-2</v>
       </c>
       <c r="S117" s="2"/>
@@ -58145,1827 +58118,1842 @@
       <c r="W117" s="2"/>
     </row>
     <row r="118" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B118" s="50">
+      <c r="B118" s="2">
         <v>6.39393939393939</v>
       </c>
-      <c r="C118" s="50">
+      <c r="C118" s="2">
         <v>1.0567413989996901</v>
       </c>
-      <c r="D118" s="50">
+      <c r="D118" s="2">
         <v>1.12151536472627E-2</v>
       </c>
-      <c r="O118" s="50">
+      <c r="O118" s="2">
         <v>7.1868686868686797</v>
       </c>
-      <c r="P118" s="50">
+      <c r="P118" s="2">
         <v>0.98112616875956005</v>
       </c>
-      <c r="Q118" s="50">
+      <c r="Q118" s="2">
         <v>1.34418043713405E-2</v>
       </c>
     </row>
     <row r="119" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B119" s="50">
+      <c r="B119" s="2">
         <v>6.6590909090909003</v>
       </c>
-      <c r="C119" s="50">
+      <c r="C119" s="2">
         <v>1.0822685955087199</v>
       </c>
-      <c r="D119" s="50">
+      <c r="D119" s="2">
         <v>1.1501512736791401E-2</v>
       </c>
-      <c r="O119" s="50">
+      <c r="O119" s="2">
         <v>7.46969696969696</v>
       </c>
-      <c r="P119" s="50">
+      <c r="P119" s="2">
         <v>1.0066997337085</v>
       </c>
-      <c r="Q119" s="50">
+      <c r="Q119" s="2">
         <v>1.37702147305237E-2</v>
       </c>
     </row>
     <row r="120" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B120" s="50">
+      <c r="B120" s="2">
         <v>6.9242424242424203</v>
       </c>
-      <c r="C120" s="50">
+      <c r="C120" s="2">
         <v>1.1081616060635899</v>
       </c>
-      <c r="D120" s="50">
+      <c r="D120" s="2">
         <v>1.17568423616977E-2</v>
       </c>
-      <c r="O120" s="50">
+      <c r="O120" s="2">
         <v>7.7525252525252499</v>
       </c>
-      <c r="P120" s="50">
+      <c r="P120" s="2">
         <v>1.03022158042185</v>
       </c>
-      <c r="Q120" s="50">
+      <c r="Q120" s="2">
         <v>1.4313501287011801E-2</v>
       </c>
     </row>
     <row r="121" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B121" s="50">
+      <c r="B121" s="2">
         <v>7.1893939393939297</v>
       </c>
-      <c r="C121" s="50">
+      <c r="C121" s="2">
         <v>1.1331425060631299</v>
       </c>
-      <c r="D121" s="50">
+      <c r="D121" s="2">
         <v>1.20498956346083E-2</v>
       </c>
-      <c r="O121" s="50">
+      <c r="O121" s="2">
         <v>8.0353535353535293</v>
       </c>
-      <c r="P121" s="50">
+      <c r="P121" s="2">
         <v>1.05656994998399</v>
       </c>
-      <c r="Q121" s="50">
+      <c r="Q121" s="2">
         <v>1.45293947593816E-2</v>
       </c>
     </row>
     <row r="122" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B122" s="50">
+      <c r="B122" s="2">
         <v>7.4545454545454497</v>
       </c>
-      <c r="C122" s="50">
+      <c r="C122" s="2">
         <v>1.15832924959941</v>
       </c>
-      <c r="D122" s="50">
+      <c r="D122" s="2">
         <v>1.23347360758219E-2</v>
       </c>
-      <c r="O122" s="50">
+      <c r="O122" s="2">
         <v>8.3181818181818095</v>
       </c>
-      <c r="P122" s="50">
+      <c r="P122" s="2">
         <v>1.0819624392378799</v>
       </c>
-      <c r="Q122" s="50">
+      <c r="Q122" s="2">
         <v>1.4835497667086301E-2</v>
       </c>
     </row>
     <row r="123" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B123" s="50">
+      <c r="B123" s="2">
         <v>7.71969696969696</v>
       </c>
-      <c r="C123" s="50">
+      <c r="C123" s="2">
         <v>1.1837441112509399</v>
       </c>
-      <c r="D123" s="50">
+      <c r="D123" s="2">
         <v>1.25975199405287E-2</v>
       </c>
-      <c r="O123" s="50">
+      <c r="O123" s="2">
         <v>8.6010101010101003</v>
       </c>
-      <c r="P123" s="50">
+      <c r="P123" s="2">
         <v>1.10682271383855</v>
       </c>
-      <c r="Q123" s="50">
+      <c r="Q123" s="2">
         <v>1.51629927148544E-2</v>
       </c>
     </row>
     <row r="124" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B124" s="50">
+      <c r="B124" s="2">
         <v>7.98484848484848</v>
       </c>
-      <c r="C124" s="50">
+      <c r="C124" s="2">
         <v>1.20822979155466</v>
       </c>
-      <c r="D124" s="50">
+      <c r="D124" s="2">
         <v>1.29105693058341E-2</v>
       </c>
-      <c r="O124" s="50">
+      <c r="O124" s="2">
         <v>8.8838383838383805</v>
       </c>
-      <c r="P124" s="50">
+      <c r="P124" s="2">
         <v>1.1298170553492799</v>
       </c>
-      <c r="Q124" s="50">
+      <c r="Q124" s="2">
         <v>1.5684219476342201E-2</v>
       </c>
     </row>
     <row r="125" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B125" s="50">
+      <c r="B125" s="2">
         <v>8.25</v>
       </c>
-      <c r="C125" s="50">
+      <c r="C125" s="2">
         <v>1.2317</v>
       </c>
-      <c r="D125" s="50">
+      <c r="D125" s="2">
         <v>1.328E-2</v>
       </c>
-      <c r="O125" s="50">
+      <c r="O125" s="2">
         <v>9.1666666666666607</v>
       </c>
-      <c r="P125" s="50">
+      <c r="P125" s="2">
         <v>1.15352914837228</v>
       </c>
-      <c r="Q125" s="50">
+      <c r="Q125" s="2">
         <v>1.6104366945450799E-2</v>
       </c>
     </row>
     <row r="126" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B126" s="50">
+      <c r="B126" s="2">
         <v>8.5151515151515103</v>
       </c>
-      <c r="C126" s="50">
+      <c r="C126" s="2">
         <v>1.25312516906148</v>
       </c>
-      <c r="D126" s="50">
+      <c r="D126" s="2">
         <v>1.37850348667405E-2</v>
       </c>
-      <c r="O126" s="50">
+      <c r="O126" s="2">
         <v>9.4494949494949392</v>
       </c>
-      <c r="P126" s="50">
+      <c r="P126" s="2">
         <v>1.17875308946727</v>
       </c>
-      <c r="Q126" s="50">
+      <c r="Q126" s="2">
         <v>1.63280887986515E-2</v>
       </c>
     </row>
     <row r="127" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B127" s="50">
+      <c r="B127" s="2">
         <v>8.7803030303030294</v>
       </c>
-      <c r="C127" s="50">
+      <c r="C127" s="2">
         <v>1.27104585458171</v>
       </c>
-      <c r="D127" s="50">
+      <c r="D127" s="2">
         <v>1.45098964969449E-2</v>
       </c>
-      <c r="O127" s="50">
+      <c r="O127" s="2">
         <v>9.73232323232323</v>
       </c>
-      <c r="P127" s="50">
+      <c r="P127" s="2">
         <v>1.2030840145374999</v>
       </c>
-      <c r="Q127" s="50">
+      <c r="Q127" s="2">
         <v>1.6603795134148801E-2</v>
       </c>
     </row>
     <row r="128" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B128" s="50">
+      <c r="B128" s="2">
         <v>9.0454545454545396</v>
       </c>
-      <c r="C128" s="50">
+      <c r="C128" s="2">
         <v>1.2874804890864999</v>
       </c>
-      <c r="D128" s="50">
+      <c r="D128" s="2">
         <v>1.53305313401463E-2</v>
       </c>
-      <c r="O128" s="50">
+      <c r="O128" s="2">
         <v>10.0151515151515</v>
       </c>
-      <c r="P128" s="50">
+      <c r="P128" s="2">
         <v>1.2245829888445201</v>
       </c>
-      <c r="Q128" s="50">
+      <c r="Q128" s="2">
         <v>1.7124961307463101E-2</v>
       </c>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B129" s="50">
+      <c r="B129" s="2">
         <v>9.3106060606060499</v>
       </c>
-      <c r="C129" s="50">
+      <c r="C129" s="2">
         <v>1.3035698719300901</v>
       </c>
-      <c r="D129" s="50">
+      <c r="D129" s="2">
         <v>1.6104636233412201E-2</v>
       </c>
-      <c r="O129" s="50">
+      <c r="O129" s="2">
         <v>10.2979797979797</v>
       </c>
-      <c r="P129" s="50">
+      <c r="P129" s="2">
         <v>1.2479531671472399</v>
       </c>
-      <c r="Q129" s="50">
+      <c r="Q129" s="2">
         <v>1.74692230175338E-2</v>
       </c>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B130" s="50">
+      <c r="B130" s="2">
         <v>9.5757575757575708</v>
       </c>
-      <c r="C130" s="50">
+      <c r="C130" s="2">
         <v>1.3195405831047999</v>
       </c>
-      <c r="D130" s="50">
+      <c r="D130" s="2">
         <v>1.6789207706818399E-2</v>
       </c>
-      <c r="O130" s="50">
+      <c r="O130" s="2">
         <v>10.580808080808</v>
       </c>
-      <c r="P130" s="50">
+      <c r="P130" s="2">
         <v>1.27185003932736</v>
       </c>
-      <c r="Q130" s="50">
+      <c r="Q130" s="2">
         <v>1.7739325289385498E-2</v>
       </c>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B131" s="50">
+      <c r="B131" s="2">
         <v>9.8409090909090793</v>
       </c>
-      <c r="C131" s="50">
+      <c r="C131" s="2">
         <v>1.33524844993873</v>
       </c>
-      <c r="D131" s="50">
+      <c r="D131" s="2">
         <v>1.7509275065724E-2</v>
       </c>
-      <c r="O131" s="50">
+      <c r="O131" s="2">
         <v>10.863636363636299</v>
       </c>
-      <c r="P131" s="50">
+      <c r="P131" s="2">
         <v>1.29219450195283</v>
       </c>
-      <c r="Q131" s="50">
+      <c r="Q131" s="2">
         <v>1.82414330587213E-2</v>
       </c>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B132" s="50">
+      <c r="B132" s="2">
         <v>10.1060606060606</v>
       </c>
-      <c r="C132" s="50">
+      <c r="C132" s="2">
         <v>1.35126036201598</v>
       </c>
-      <c r="D132" s="50">
+      <c r="D132" s="2">
         <v>1.8211751641662999E-2</v>
       </c>
-      <c r="O132" s="50">
+      <c r="O132" s="2">
         <v>11.146464646464599</v>
       </c>
-      <c r="P132" s="50">
+      <c r="P132" s="2">
         <v>1.3129714649914199</v>
       </c>
-      <c r="Q132" s="50">
+      <c r="Q132" s="2">
         <v>1.8702742804407101E-2</v>
       </c>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B133" s="50">
+      <c r="B133" s="2">
         <v>10.3712121212121</v>
       </c>
-      <c r="C133" s="50">
+      <c r="C133" s="2">
         <v>1.3674087525990499</v>
       </c>
-      <c r="D133" s="50">
+      <c r="D133" s="2">
         <v>1.8912318834103398E-2</v>
       </c>
-      <c r="O133" s="50">
+      <c r="O133" s="2">
         <v>11.429292929292901</v>
       </c>
-      <c r="P133" s="50">
+      <c r="P133" s="2">
         <v>1.33606671388892</v>
       </c>
-      <c r="Q133" s="50">
+      <c r="Q133" s="2">
         <v>1.89635005705776E-2</v>
       </c>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B134" s="50">
+      <c r="B134" s="2">
         <v>10.636363636363599</v>
       </c>
-      <c r="C134" s="50">
+      <c r="C134" s="2">
         <v>1.3819497039615301</v>
       </c>
-      <c r="D134" s="50">
+      <c r="D134" s="2">
         <v>1.9720322513239099E-2</v>
       </c>
-      <c r="O134" s="50">
+      <c r="O134" s="2">
         <v>11.7121212121212</v>
       </c>
-      <c r="P134" s="50">
+      <c r="P134" s="2">
         <v>1.35237333529137</v>
       </c>
-      <c r="Q134" s="50">
+      <c r="Q134" s="2">
         <v>1.9624632780378501E-2</v>
       </c>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B135" s="50">
+      <c r="B135" s="2">
         <v>10.901515151515101</v>
       </c>
-      <c r="C135" s="50">
+      <c r="C135" s="2">
         <v>1.3906057734558499</v>
       </c>
-      <c r="D135" s="50">
+      <c r="D135" s="2">
         <v>2.0929184843007501E-2</v>
       </c>
-      <c r="O135" s="50">
+      <c r="O135" s="2">
         <v>11.994949494949401</v>
       </c>
-      <c r="P135" s="50">
+      <c r="P135" s="2">
         <v>1.3737559581157299</v>
       </c>
-      <c r="Q135" s="50">
+      <c r="Q135" s="2">
         <v>1.99827823298925E-2</v>
       </c>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B136" s="50">
+      <c r="B136" s="2">
         <v>11.1666666666666</v>
       </c>
-      <c r="C136" s="50">
+      <c r="C136" s="2">
         <v>1.3916311947334301</v>
       </c>
-      <c r="D136" s="50">
+      <c r="D136" s="2">
         <v>2.26972204063812E-2</v>
       </c>
-      <c r="O136" s="50">
+      <c r="O136" s="2">
         <v>12.2777777777777</v>
       </c>
-      <c r="P136" s="50">
+      <c r="P136" s="2">
         <v>1.38858658131051</v>
       </c>
-      <c r="Q136" s="50">
+      <c r="Q136" s="2">
         <v>2.0564669308685099E-2</v>
       </c>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B137" s="50">
+      <c r="B137" s="2">
         <v>11.4318181818181</v>
       </c>
-      <c r="C137" s="50">
+      <c r="C137" s="2">
         <v>1.39747244115794</v>
       </c>
-      <c r="D137" s="50">
+      <c r="D137" s="2">
         <v>2.4185092349521601E-2</v>
       </c>
-      <c r="O137" s="50">
+      <c r="O137" s="2">
         <v>12.560606060606</v>
       </c>
-      <c r="P137" s="50">
+      <c r="P137" s="2">
         <v>1.4022208757885299</v>
       </c>
-      <c r="Q137" s="50">
+      <c r="Q137" s="2">
         <v>2.1224753175545199E-2</v>
       </c>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B138" s="50">
+      <c r="B138" s="2">
         <v>11.6969696969696</v>
       </c>
-      <c r="C138" s="50">
+      <c r="C138" s="2">
         <v>1.4061499520127101</v>
       </c>
-      <c r="D138" s="50">
+      <c r="D138" s="2">
         <v>2.5536050003297499E-2</v>
       </c>
-      <c r="O138" s="50">
+      <c r="O138" s="2">
         <v>12.8434343434343</v>
       </c>
-      <c r="P138" s="50">
+      <c r="P138" s="2">
         <v>1.4165987227380199</v>
       </c>
-      <c r="Q138" s="50">
+      <c r="Q138" s="2">
         <v>2.1958953201227802E-2</v>
       </c>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B139" s="50">
+      <c r="B139" s="2">
         <v>11.9621212121212</v>
       </c>
-      <c r="C139" s="50">
+      <c r="C139" s="2">
         <v>1.4151402585570401</v>
       </c>
-      <c r="D139" s="50">
+      <c r="D139" s="2">
         <v>2.6901014076141601E-2</v>
       </c>
-      <c r="O139" s="50">
+      <c r="O139" s="2">
         <v>13.1262626262626</v>
       </c>
-      <c r="P139" s="50">
+      <c r="P139" s="2">
         <v>1.42970588850173</v>
       </c>
-      <c r="Q139" s="50">
+      <c r="Q139" s="2">
         <v>2.2832606100202799E-2</v>
       </c>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B140" s="50">
+      <c r="B140" s="2">
         <v>12.2272727272727</v>
       </c>
-      <c r="C140" s="50">
+      <c r="C140" s="2">
         <v>1.4218666971968099</v>
       </c>
-      <c r="D140" s="50">
+      <c r="D140" s="2">
         <v>2.8499423713322002E-2</v>
       </c>
-      <c r="O140" s="50">
+      <c r="O140" s="2">
         <v>13.409090909090899</v>
       </c>
-      <c r="P140" s="50">
+      <c r="P140" s="2">
         <v>1.4409048746277899</v>
       </c>
-      <c r="Q140" s="50">
+      <c r="Q140" s="2">
         <v>2.3918287977090402E-2</v>
       </c>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B141" s="50">
+      <c r="B141" s="2">
         <v>12.4924242424242</v>
       </c>
-      <c r="C141" s="50">
+      <c r="C141" s="2">
         <v>1.4251002527956</v>
       </c>
-      <c r="D141" s="50">
+      <c r="D141" s="2">
         <v>3.0435051183496601E-2</v>
       </c>
-      <c r="O141" s="50">
+      <c r="O141" s="2">
         <v>13.6919191919191</v>
       </c>
-      <c r="P141" s="50">
+      <c r="P141" s="2">
         <v>1.45243980936886</v>
       </c>
-      <c r="Q141" s="50">
+      <c r="Q141" s="2">
         <v>2.5037003025354099E-2</v>
       </c>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B142" s="50">
+      <c r="B142" s="2">
         <v>12.757575757575699</v>
       </c>
-      <c r="C142" s="50">
+      <c r="C142" s="2">
         <v>1.42375414781001</v>
       </c>
-      <c r="D142" s="50">
+      <c r="D142" s="2">
         <v>3.2882823842569499E-2</v>
       </c>
-      <c r="O142" s="50">
+      <c r="O142" s="2">
         <v>13.974747474747399</v>
       </c>
-      <c r="P142" s="50">
+      <c r="P142" s="2">
         <v>1.4626836225097699</v>
       </c>
-      <c r="Q142" s="50">
+      <c r="Q142" s="2">
         <v>2.62980573600042E-2</v>
       </c>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B143" s="50">
+      <c r="B143" s="2">
         <v>13.022727272727201</v>
       </c>
-      <c r="C143" s="50">
+      <c r="C143" s="2">
         <v>1.4291132201366099</v>
       </c>
-      <c r="D143" s="50">
+      <c r="D143" s="2">
         <v>3.48135500324388E-2</v>
       </c>
-      <c r="O143" s="50">
+      <c r="O143" s="2">
         <v>14.257575757575699</v>
       </c>
-      <c r="P143" s="50">
+      <c r="P143" s="2">
         <v>1.4648003747243299</v>
       </c>
-      <c r="Q143" s="50">
+      <c r="Q143" s="2">
         <v>2.8221932060838499E-2</v>
       </c>
     </row>
     <row r="144" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B144" s="50">
+      <c r="B144" s="2">
         <v>13.2878787878787</v>
       </c>
-      <c r="C144" s="50">
+      <c r="C144" s="2">
         <v>1.4319813729401001</v>
       </c>
-      <c r="D144" s="50">
+      <c r="D144" s="2">
         <v>3.7069896599420997E-2</v>
       </c>
-      <c r="O144" s="50">
+      <c r="O144" s="2">
         <v>14.540404040404001</v>
       </c>
-      <c r="P144" s="50">
+      <c r="P144" s="2">
         <v>1.4776454826123699</v>
       </c>
-      <c r="Q144" s="50">
+      <c r="Q144" s="2">
         <v>2.9426973402780901E-2</v>
       </c>
     </row>
     <row r="145" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B145" s="50">
+      <c r="B145" s="2">
         <v>13.553030303030299</v>
       </c>
-      <c r="C145" s="50">
+      <c r="C145" s="2">
         <v>1.4329187491523501</v>
       </c>
-      <c r="D145" s="50">
+      <c r="D145" s="2">
         <v>3.9599569376439402E-2</v>
       </c>
-      <c r="O145" s="50">
+      <c r="O145" s="2">
         <v>14.8232323232323</v>
       </c>
-      <c r="P145" s="50">
+      <c r="P145" s="2">
         <v>1.48335614969512</v>
       </c>
-      <c r="Q145" s="50">
+      <c r="Q145" s="2">
         <v>3.1239836773951701E-2</v>
       </c>
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B146" s="50">
+      <c r="B146" s="2">
         <v>13.818181818181801</v>
       </c>
-      <c r="C146" s="50">
+      <c r="C146" s="2">
         <v>1.4318875134651401</v>
       </c>
-      <c r="D146" s="50">
+      <c r="D146" s="2">
         <v>4.2422481864832301E-2</v>
       </c>
-      <c r="O146" s="50">
+      <c r="O146" s="2">
         <v>15.1060606060606</v>
       </c>
-      <c r="P146" s="50">
+      <c r="P146" s="2">
         <v>1.48295087454583</v>
       </c>
-      <c r="Q146" s="50">
+      <c r="Q146" s="2">
         <v>3.3684158690320397E-2</v>
       </c>
     </row>
     <row r="147" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B147" s="50">
+      <c r="B147" s="2">
         <v>14.0833333333333</v>
       </c>
-      <c r="C147" s="50">
+      <c r="C147" s="2">
         <v>1.4293252079893</v>
       </c>
-      <c r="D147" s="50">
+      <c r="D147" s="2">
         <v>4.5527081517849302E-2</v>
       </c>
-      <c r="O147" s="50">
+      <c r="O147" s="2">
         <v>15.3888888888888</v>
       </c>
-      <c r="P147" s="50">
+      <c r="P147" s="2">
         <v>1.48654889284379</v>
       </c>
-      <c r="Q147" s="50">
+      <c r="Q147" s="2">
         <v>3.5890522986126001E-2</v>
       </c>
     </row>
     <row r="148" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B148" s="50">
+      <c r="B148" s="2">
         <v>14.3484848484848</v>
       </c>
-      <c r="C148" s="50">
+      <c r="C148" s="2">
         <v>1.4251616645988401</v>
       </c>
-      <c r="D148" s="50">
+      <c r="D148" s="2">
         <v>4.8930426050201398E-2</v>
       </c>
-      <c r="O148" s="50">
+      <c r="O148" s="2">
         <v>15.6717171717171</v>
       </c>
-      <c r="P148" s="50">
+      <c r="P148" s="2">
         <v>1.49293336054069</v>
       </c>
-      <c r="Q148" s="50">
+      <c r="Q148" s="2">
         <v>3.7926551719851299E-2</v>
       </c>
     </row>
     <row r="149" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B149" s="50">
+      <c r="B149" s="2">
         <v>14.613636363636299</v>
       </c>
-      <c r="C149" s="50">
+      <c r="C149" s="2">
         <v>1.41919296684429</v>
       </c>
-      <c r="D149" s="50">
+      <c r="D149" s="2">
         <v>5.26997178914905E-2</v>
       </c>
-      <c r="O149" s="50">
+      <c r="O149" s="2">
         <v>15.9545454545454</v>
       </c>
-      <c r="P149" s="50">
+      <c r="P149" s="2">
         <v>1.4934408172407401</v>
       </c>
-      <c r="Q149" s="50">
+      <c r="Q149" s="2">
         <v>4.0646842727137998E-2</v>
       </c>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B150" s="50">
+      <c r="B150" s="2">
         <v>14.878787878787801</v>
       </c>
-      <c r="C150" s="50">
+      <c r="C150" s="2">
         <v>1.4110628808052901</v>
       </c>
-      <c r="D150" s="50">
+      <c r="D150" s="2">
         <v>5.6908103683535299E-2</v>
       </c>
-      <c r="O150" s="50">
+      <c r="O150" s="2">
         <v>16.237373737373701</v>
       </c>
-      <c r="P150" s="50">
+      <c r="P150" s="2">
         <v>1.48865184441069</v>
       </c>
-      <c r="Q150" s="50">
+      <c r="Q150" s="2">
         <v>4.40649101118828E-2</v>
       </c>
     </row>
     <row r="151" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B151" s="50">
+      <c r="B151" s="2">
         <v>15.1439393939393</v>
       </c>
-      <c r="C151" s="50">
+      <c r="C151" s="2">
         <v>1.40072641822239</v>
       </c>
-      <c r="D151" s="50">
+      <c r="D151" s="2">
         <v>6.15216044086443E-2</v>
       </c>
-      <c r="O151" s="50">
+      <c r="O151" s="2">
         <v>16.520202020201999</v>
       </c>
-      <c r="P151" s="50">
+      <c r="P151" s="2">
         <v>1.4759462804401</v>
       </c>
-      <c r="Q151" s="50">
+      <c r="Q151" s="2">
         <v>4.8646693555221103E-2</v>
       </c>
     </row>
     <row r="152" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B152" s="50">
+      <c r="B152" s="2">
         <v>15.409090909090899</v>
       </c>
-      <c r="C152" s="50">
+      <c r="C152" s="2">
         <v>1.3877888654013499</v>
       </c>
-      <c r="D152" s="50">
+      <c r="D152" s="2">
         <v>6.6597000408168697E-2</v>
       </c>
-      <c r="O152" s="50">
+      <c r="O152" s="2">
         <v>16.803030303030301</v>
       </c>
-      <c r="P152" s="50">
+      <c r="P152" s="2">
         <v>1.4708269971136001</v>
       </c>
-      <c r="Q152" s="50">
+      <c r="Q152" s="2">
         <v>5.2621446026101602E-2</v>
       </c>
     </row>
     <row r="153" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B153" s="50">
+      <c r="B153" s="2">
         <v>15.674242424242401</v>
       </c>
-      <c r="C153" s="50">
+      <c r="C153" s="2">
         <v>1.3753540432187299</v>
       </c>
-      <c r="D153" s="50">
+      <c r="D153" s="2">
         <v>7.1693180403521295E-2</v>
       </c>
-      <c r="O153" s="50">
+      <c r="O153" s="2">
         <v>17.085858585858499</v>
       </c>
-      <c r="P153" s="50">
+      <c r="P153" s="2">
         <v>1.4623528699172299</v>
       </c>
-      <c r="Q153" s="50">
+      <c r="Q153" s="2">
         <v>5.7330022215658298E-2</v>
       </c>
     </row>
     <row r="154" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B154" s="50">
+      <c r="B154" s="2">
         <v>15.9393939393939</v>
       </c>
-      <c r="C154" s="50">
+      <c r="C154" s="2">
         <v>1.37059182731989</v>
       </c>
-      <c r="D154" s="50">
+      <c r="D154" s="2">
         <v>7.5967742471939298E-2</v>
       </c>
-      <c r="O154" s="50">
+      <c r="O154" s="2">
         <v>17.368686868686801</v>
       </c>
-      <c r="P154" s="50">
+      <c r="P154" s="2">
         <v>1.4487107471887199</v>
       </c>
-      <c r="Q154" s="50">
+      <c r="Q154" s="2">
         <v>6.3142660334090397E-2</v>
       </c>
     </row>
     <row r="155" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B155" s="50">
+      <c r="B155" s="2">
         <v>16.2045454545454</v>
       </c>
-      <c r="C155" s="50">
+      <c r="C155" s="2">
         <v>1.36698593726855</v>
       </c>
-      <c r="D155" s="50">
+      <c r="D155" s="2">
         <v>8.0197422252393097E-2</v>
       </c>
-      <c r="O155" s="50">
+      <c r="O155" s="2">
         <v>17.651515151515099</v>
       </c>
-      <c r="P155" s="50">
+      <c r="P155" s="2">
         <v>1.4286063041050401</v>
       </c>
-      <c r="Q155" s="50">
+      <c r="Q155" s="2">
         <v>7.0304573167603204E-2</v>
       </c>
     </row>
     <row r="156" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B156" s="50">
+      <c r="B156" s="2">
         <v>16.469696969696901</v>
       </c>
-      <c r="C156" s="50">
+      <c r="C156" s="2">
         <v>1.3620941254239001</v>
       </c>
-      <c r="D156" s="50">
+      <c r="D156" s="2">
         <v>8.46527714387518E-2</v>
       </c>
-      <c r="O156" s="50">
+      <c r="O156" s="2">
         <v>17.934343434343401</v>
       </c>
-      <c r="P156" s="50">
+      <c r="P156" s="2">
         <v>1.4028581637152799</v>
       </c>
-      <c r="Q156" s="50">
+      <c r="Q156" s="2">
         <v>7.8708101292891505E-2</v>
       </c>
     </row>
     <row r="157" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B157" s="50">
+      <c r="B157" s="2">
         <v>16.734848484848399</v>
       </c>
-      <c r="C157" s="50">
+      <c r="C157" s="2">
         <v>1.3567189672456601</v>
       </c>
-      <c r="D157" s="50">
+      <c r="D157" s="2">
         <v>8.9217534914574098E-2</v>
       </c>
-      <c r="O157" s="50">
+      <c r="O157" s="2">
         <v>18.217171717171698</v>
       </c>
-      <c r="P157" s="50">
+      <c r="P157" s="2">
         <v>1.37264456723424</v>
       </c>
-      <c r="Q157" s="50">
+      <c r="Q157" s="2">
         <v>8.7987170449441002E-2</v>
       </c>
     </row>
     <row r="158" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B158" s="50">
+      <c r="B158" s="2">
         <v>17</v>
       </c>
-      <c r="C158" s="50">
+      <c r="C158" s="2">
         <v>1.35099999999999</v>
       </c>
-      <c r="D158" s="50">
+      <c r="D158" s="2">
         <v>9.3820000000000001E-2</v>
       </c>
-      <c r="O158" s="50">
+      <c r="O158" s="2">
         <v>18.5</v>
       </c>
-      <c r="P158" s="50">
+      <c r="P158" s="2">
         <v>1.34109999999999</v>
       </c>
-      <c r="Q158" s="50">
+      <c r="Q158" s="2">
         <v>9.7530000000000006E-2</v>
       </c>
     </row>
     <row r="159" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B159" s="50">
+      <c r="B159" s="2">
         <v>17</v>
       </c>
-      <c r="C159" s="50">
+      <c r="C159" s="2">
         <v>1.35099999999999</v>
       </c>
-      <c r="D159" s="50">
+      <c r="D159" s="2">
         <v>9.3820000000000001E-2</v>
       </c>
-      <c r="O159" s="50">
+      <c r="O159" s="2">
         <v>18.5</v>
       </c>
-      <c r="P159" s="50">
+      <c r="P159" s="2">
         <v>1.34109999999999</v>
       </c>
-      <c r="Q159" s="50">
+      <c r="Q159" s="2">
         <v>9.7530000000000006E-2</v>
       </c>
     </row>
     <row r="160" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B160" s="50">
+      <c r="B160" s="2">
         <v>20.326530612244799</v>
       </c>
-      <c r="C160" s="50">
+      <c r="C160" s="2">
         <v>1.28013555990303</v>
       </c>
-      <c r="D160" s="50">
+      <c r="D160" s="2">
         <v>0.15036915849500601</v>
       </c>
-      <c r="O160" s="50">
+      <c r="O160" s="2">
         <v>21.7959183673469</v>
       </c>
-      <c r="P160" s="50">
+      <c r="P160" s="2">
         <v>0.98062906091393998</v>
       </c>
-      <c r="Q160" s="50">
+      <c r="Q160" s="2">
         <v>0.206566901758969</v>
       </c>
     </row>
     <row r="161" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B161" s="50">
+      <c r="B161" s="2">
         <v>23.653061224489701</v>
       </c>
-      <c r="C161" s="50">
+      <c r="C161" s="2">
         <v>1.2122238048100999</v>
       </c>
-      <c r="D161" s="50">
+      <c r="D161" s="2">
         <v>0.20456210205272099</v>
       </c>
-      <c r="O161" s="50">
+      <c r="O161" s="2">
         <v>25.0918367346938</v>
       </c>
-      <c r="P161" s="50">
+      <c r="P161" s="2">
         <v>0.63517774428979901</v>
       </c>
-      <c r="Q161" s="50">
+      <c r="Q161" s="2">
         <v>0.31106059927798102</v>
       </c>
     </row>
     <row r="162" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B162" s="50">
+      <c r="B162" s="2">
         <v>26.979591836734599</v>
       </c>
-      <c r="C162" s="50">
+      <c r="C162" s="2">
         <v>1.1472647347212199</v>
       </c>
-      <c r="D162" s="50">
+      <c r="D162" s="2">
         <v>0.25639883067314401</v>
       </c>
-      <c r="O162" s="50">
+      <c r="O162" s="2">
         <v>28.387755102040799</v>
       </c>
-      <c r="P162" s="50">
+      <c r="P162" s="2">
         <v>0.30474605012757799</v>
       </c>
-      <c r="Q162" s="50">
+      <c r="Q162" s="2">
         <v>0.411011092557036</v>
       </c>
     </row>
     <row r="163" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B163" s="50">
+      <c r="B163" s="2">
         <v>30.306122448979501</v>
       </c>
-      <c r="C163" s="50">
+      <c r="C163" s="2">
         <v>1.0852583496363699</v>
       </c>
-      <c r="D163" s="50">
+      <c r="D163" s="2">
         <v>0.30587934435627501</v>
       </c>
-      <c r="O163" s="50">
+      <c r="O163" s="2">
         <v>31.683673469387699</v>
       </c>
-      <c r="P163" s="50">
+      <c r="P163" s="2">
         <v>-1.06660215727238E-2</v>
       </c>
-      <c r="Q163" s="50">
+      <c r="Q163" s="2">
         <v>0.50641838159613495</v>
       </c>
     </row>
     <row r="164" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B164" s="50">
+      <c r="B164" s="2">
         <v>33.632653061224403</v>
       </c>
-      <c r="C164" s="50">
+      <c r="C164" s="2">
         <v>1.0262046495555699</v>
       </c>
-      <c r="D164" s="50">
+      <c r="D164" s="2">
         <v>0.35300364310211302</v>
       </c>
-      <c r="O164" s="50">
+      <c r="O164" s="2">
         <v>34.979591836734599</v>
       </c>
-      <c r="P164" s="50">
+      <c r="P164" s="2">
         <v>-0.31105847081110699</v>
       </c>
-      <c r="Q164" s="50">
+      <c r="Q164" s="2">
         <v>0.59728246639527605</v>
       </c>
     </row>
     <row r="165" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B165" s="50">
+      <c r="B165" s="2">
         <v>36.959183673469298</v>
       </c>
-      <c r="C165" s="50">
+      <c r="C165" s="2">
         <v>0.97010363447880499</v>
       </c>
-      <c r="D165" s="50">
+      <c r="D165" s="2">
         <v>0.39777172691065998</v>
       </c>
-      <c r="O165" s="50">
+      <c r="O165" s="2">
         <v>38.275510204081598</v>
       </c>
-      <c r="P165" s="50">
+      <c r="P165" s="2">
         <v>-0.59643129758756996</v>
       </c>
-      <c r="Q165" s="50">
+      <c r="Q165" s="2">
         <v>0.68360334695446001</v>
       </c>
     </row>
     <row r="166" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B166" s="50">
+      <c r="B166" s="2">
         <v>40.285714285714199</v>
       </c>
-      <c r="C166" s="50">
+      <c r="C166" s="2">
         <v>0.91695530440607997</v>
       </c>
-      <c r="D166" s="50">
+      <c r="D166" s="2">
         <v>0.44018359578191502</v>
       </c>
-      <c r="O166" s="50">
+      <c r="O166" s="2">
         <v>41.571428571428498</v>
       </c>
-      <c r="P166" s="50">
+      <c r="P166" s="2">
         <v>-0.86678450190211498</v>
       </c>
-      <c r="Q166" s="50">
+      <c r="Q166" s="2">
         <v>0.76538102327368696</v>
       </c>
     </row>
     <row r="167" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B167" s="50">
+      <c r="B167" s="2">
         <v>43.612244897959101</v>
       </c>
-      <c r="C167" s="50">
+      <c r="C167" s="2">
         <v>0.86675965933739596</v>
       </c>
-      <c r="D167" s="50">
+      <c r="D167" s="2">
         <v>0.480239249715879</v>
       </c>
-      <c r="O167" s="50">
+      <c r="O167" s="2">
         <v>44.867346938775498</v>
       </c>
-      <c r="P167" s="50">
+      <c r="P167" s="2">
         <v>-1.12211808375474</v>
       </c>
-      <c r="Q167" s="50">
+      <c r="Q167" s="2">
         <v>0.84261549535295699</v>
       </c>
     </row>
     <row r="168" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B168" s="50">
+      <c r="B168" s="2">
         <v>46.938775510204003</v>
       </c>
-      <c r="C168" s="50">
+      <c r="C168" s="2">
         <v>0.81951669927275095</v>
       </c>
-      <c r="D168" s="50">
+      <c r="D168" s="2">
         <v>0.517938688712549</v>
       </c>
-      <c r="O168" s="50">
+      <c r="O168" s="2">
         <v>48.163265306122398</v>
       </c>
-      <c r="P168" s="50">
+      <c r="P168" s="2">
         <v>-1.36243204314544</v>
       </c>
-      <c r="Q168" s="50">
+      <c r="Q168" s="2">
         <v>0.91530676319227</v>
       </c>
     </row>
     <row r="169" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B169" s="50">
+      <c r="B169" s="2">
         <v>50.265306122448898</v>
       </c>
-      <c r="C169" s="50">
+      <c r="C169" s="2">
         <v>0.77522642421214805</v>
       </c>
-      <c r="D169" s="50">
+      <c r="D169" s="2">
         <v>0.55328191277192895</v>
       </c>
-      <c r="O169" s="50">
+      <c r="O169" s="2">
         <v>51.459183673469298</v>
       </c>
-      <c r="P169" s="50">
+      <c r="P169" s="2">
         <v>-1.5877263800742301</v>
       </c>
-      <c r="Q169" s="50">
+      <c r="Q169" s="2">
         <v>0.98345482679162599</v>
       </c>
     </row>
     <row r="170" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B170" s="50">
+      <c r="B170" s="2">
         <v>53.5918367346938</v>
       </c>
-      <c r="C170" s="50">
+      <c r="C170" s="2">
         <v>0.73388883415558404</v>
       </c>
-      <c r="D170" s="50">
+      <c r="D170" s="2">
         <v>0.58626892189401603</v>
       </c>
-      <c r="O170" s="50">
+      <c r="O170" s="2">
         <v>54.755102040816297</v>
       </c>
-      <c r="P170" s="50">
+      <c r="P170" s="2">
         <v>-1.7980010945411</v>
       </c>
-      <c r="Q170" s="50">
+      <c r="Q170" s="2">
         <v>1.04705968615102</v>
       </c>
     </row>
     <row r="171" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B171" s="50">
+      <c r="B171" s="2">
         <v>56.918367346938702</v>
       </c>
-      <c r="C171" s="50">
+      <c r="C171" s="2">
         <v>0.69550392910306003</v>
       </c>
-      <c r="D171" s="50">
+      <c r="D171" s="2">
         <v>0.616899716078811</v>
       </c>
-      <c r="O171" s="50">
+      <c r="O171" s="2">
         <v>58.051020408163197</v>
       </c>
-      <c r="P171" s="50">
+      <c r="P171" s="2">
         <v>-1.9932561865460501</v>
       </c>
-      <c r="Q171" s="50">
+      <c r="Q171" s="2">
         <v>1.10612134127046</v>
       </c>
     </row>
     <row r="172" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B172" s="50">
+      <c r="B172" s="2">
         <v>60.244897959183596</v>
       </c>
-      <c r="C172" s="50">
+      <c r="C172" s="2">
         <v>0.66007170905457702</v>
       </c>
-      <c r="D172" s="50">
+      <c r="D172" s="2">
         <v>0.64517429532631498</v>
       </c>
-      <c r="O172" s="50">
+      <c r="O172" s="2">
         <v>61.346938775510203</v>
       </c>
-      <c r="P172" s="50">
+      <c r="P172" s="2">
         <v>-2.1734916560890798</v>
       </c>
-      <c r="Q172" s="50">
+      <c r="Q172" s="2">
         <v>1.1606397921499501</v>
       </c>
     </row>
     <row r="173" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B173" s="50">
+      <c r="B173" s="2">
         <v>63.571428571428498</v>
       </c>
-      <c r="C173" s="50">
+      <c r="C173" s="2">
         <v>0.62759217401013401</v>
       </c>
-      <c r="D173" s="50">
+      <c r="D173" s="2">
         <v>0.67109265963652598</v>
       </c>
-      <c r="O173" s="50">
+      <c r="O173" s="2">
         <v>64.642857142857096</v>
       </c>
-      <c r="P173" s="50">
+      <c r="P173" s="2">
         <v>-2.3387075031701898</v>
       </c>
-      <c r="Q173" s="50">
+      <c r="Q173" s="2">
         <v>1.2106150387894701</v>
       </c>
     </row>
     <row r="174" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B174" s="50">
+      <c r="B174" s="2">
         <v>66.897959183673393</v>
       </c>
-      <c r="C174" s="50">
+      <c r="C174" s="2">
         <v>0.598065323969732</v>
       </c>
-      <c r="D174" s="50">
+      <c r="D174" s="2">
         <v>0.69465480900944498</v>
       </c>
-      <c r="O174" s="50">
+      <c r="O174" s="2">
         <v>67.938775510203996</v>
       </c>
-      <c r="P174" s="50">
+      <c r="P174" s="2">
         <v>-2.48890372778938</v>
       </c>
-      <c r="Q174" s="50">
+      <c r="Q174" s="2">
         <v>1.2560470811890401</v>
       </c>
     </row>
     <row r="175" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B175" s="50">
+      <c r="B175" s="2">
         <v>70.224489795918302</v>
       </c>
-      <c r="C175" s="50">
+      <c r="C175" s="2">
         <v>0.57149115893336899</v>
       </c>
-      <c r="D175" s="50">
+      <c r="D175" s="2">
         <v>0.715860743445073</v>
       </c>
-      <c r="O175" s="50">
+      <c r="O175" s="2">
         <v>71.234693877550995</v>
       </c>
-      <c r="P175" s="50">
+      <c r="P175" s="2">
         <v>-2.6240803299466502</v>
       </c>
-      <c r="Q175" s="50">
+      <c r="Q175" s="2">
         <v>1.29693591934866</v>
       </c>
     </row>
     <row r="176" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B176" s="50">
+      <c r="B176" s="2">
         <v>73.551020408163197</v>
       </c>
-      <c r="C176" s="50">
+      <c r="C176" s="2">
         <v>0.54786967890104699</v>
       </c>
-      <c r="D176" s="50">
+      <c r="D176" s="2">
         <v>0.73471046294340803</v>
       </c>
-      <c r="O176" s="50">
+      <c r="O176" s="2">
         <v>74.530612244897895</v>
       </c>
-      <c r="P176" s="50">
+      <c r="P176" s="2">
         <v>-2.7442373096420001</v>
       </c>
-      <c r="Q176" s="50">
+      <c r="Q176" s="2">
         <v>1.33328155326831</v>
       </c>
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B177" s="50">
+      <c r="B177" s="2">
         <v>76.877551020408106</v>
       </c>
-      <c r="C177" s="50">
+      <c r="C177" s="2">
         <v>0.52720088387276498</v>
       </c>
-      <c r="D177" s="50">
+      <c r="D177" s="2">
         <v>0.75120396750445195</v>
       </c>
-      <c r="O177" s="50">
+      <c r="O177" s="2">
         <v>77.826530612244895</v>
       </c>
-      <c r="P177" s="50">
+      <c r="P177" s="2">
         <v>-2.8493746668754398</v>
       </c>
-      <c r="Q177" s="50">
+      <c r="Q177" s="2">
         <v>1.3650839829480099</v>
       </c>
     </row>
     <row r="178" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B178" s="50">
+      <c r="B178" s="2">
         <v>80.204081632653001</v>
       </c>
-      <c r="C178" s="50">
+      <c r="C178" s="2">
         <v>0.50948477384852398</v>
       </c>
-      <c r="D178" s="50">
+      <c r="D178" s="2">
         <v>0.765341257128204</v>
       </c>
-      <c r="O178" s="50">
+      <c r="O178" s="2">
         <v>81.122448979591795</v>
       </c>
-      <c r="P178" s="50">
+      <c r="P178" s="2">
         <v>-2.9394924016469499</v>
       </c>
-      <c r="Q178" s="50">
+      <c r="Q178" s="2">
         <v>1.39234320838776</v>
       </c>
     </row>
     <row r="179" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B179" s="50">
+      <c r="B179" s="2">
         <v>83.530612244897895</v>
       </c>
-      <c r="C179" s="50">
+      <c r="C179" s="2">
         <v>0.49472134882832203</v>
       </c>
-      <c r="D179" s="50">
+      <c r="D179" s="2">
         <v>0.77712233181466295</v>
       </c>
-      <c r="O179" s="50">
+      <c r="O179" s="2">
         <v>84.418367346938695</v>
       </c>
-      <c r="P179" s="50">
+      <c r="P179" s="2">
         <v>-3.0145905139565499</v>
       </c>
-      <c r="Q179" s="50">
+      <c r="Q179" s="2">
         <v>1.4150592295875399</v>
       </c>
     </row>
     <row r="180" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B180" s="50">
+      <c r="B180" s="2">
         <v>86.857142857142804</v>
       </c>
-      <c r="C180" s="50">
+      <c r="C180" s="2">
         <v>0.48291060881216102</v>
       </c>
-      <c r="D180" s="50">
+      <c r="D180" s="2">
         <v>0.78654719156383102</v>
       </c>
-      <c r="O180" s="50">
+      <c r="O180" s="2">
         <v>87.714285714285694</v>
       </c>
-      <c r="P180" s="50">
+      <c r="P180" s="2">
         <v>-3.0746690038042299</v>
       </c>
-      <c r="Q180" s="50">
+      <c r="Q180" s="2">
         <v>1.43323204654737</v>
       </c>
     </row>
     <row r="181" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B181" s="50">
+      <c r="B181" s="2">
         <v>90.183673469387699</v>
       </c>
-      <c r="C181" s="50">
+      <c r="C181" s="2">
         <v>0.47405255380004002</v>
       </c>
-      <c r="D181" s="50">
+      <c r="D181" s="2">
         <v>0.79361583637570698</v>
       </c>
-      <c r="O181" s="50">
+      <c r="O181" s="2">
         <v>91.010204081632594</v>
       </c>
-      <c r="P181" s="50">
+      <c r="P181" s="2">
         <v>-3.1197278711899799</v>
       </c>
-      <c r="Q181" s="50">
+      <c r="Q181" s="2">
         <v>1.4468616592672401</v>
       </c>
     </row>
     <row r="182" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B182" s="50">
+      <c r="B182" s="2">
         <v>93.510204081632594</v>
       </c>
-      <c r="C182" s="50">
+      <c r="C182" s="2">
         <v>0.46814718379196002</v>
       </c>
-      <c r="D182" s="50">
+      <c r="D182" s="2">
         <v>0.79832826625029096</v>
       </c>
-      <c r="O182" s="50">
+      <c r="O182" s="2">
         <v>94.306122448979494</v>
       </c>
-      <c r="P182" s="50">
+      <c r="P182" s="2">
         <v>-3.1497671161138201</v>
       </c>
-      <c r="Q182" s="50">
+      <c r="Q182" s="2">
         <v>1.4559480677471599</v>
       </c>
     </row>
     <row r="183" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B183" s="50">
+      <c r="B183" s="2">
         <v>96.836734693877503</v>
       </c>
-      <c r="C183" s="50">
+      <c r="C183" s="2">
         <v>0.46519449878791902</v>
       </c>
-      <c r="D183" s="50">
+      <c r="D183" s="2">
         <v>0.80068448118758295</v>
       </c>
-      <c r="O183" s="50">
+      <c r="O183" s="2">
         <v>97.602040816326493</v>
       </c>
-      <c r="P183" s="50">
+      <c r="P183" s="2">
         <v>-3.16478673857574</v>
       </c>
-      <c r="Q183" s="50">
+      <c r="Q183" s="2">
         <v>1.4604912719871099</v>
       </c>
     </row>
     <row r="184" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B184" s="50">
+      <c r="B184" s="2">
         <v>100.163265306122</v>
       </c>
-      <c r="C184" s="50">
+      <c r="C184" s="2">
         <v>0.46519449878792002</v>
       </c>
-      <c r="D184" s="50">
+      <c r="D184" s="2">
         <v>0.80068448118758295</v>
       </c>
-      <c r="O184" s="50">
+      <c r="O184" s="2">
         <v>100.897959183673</v>
       </c>
-      <c r="P184" s="50">
+      <c r="P184" s="2">
         <v>-3.16478673857574</v>
       </c>
-      <c r="Q184" s="50">
+      <c r="Q184" s="2">
         <v>1.4604912719871099</v>
       </c>
     </row>
     <row r="185" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B185" s="50">
+      <c r="B185" s="2">
         <v>103.48979591836699</v>
       </c>
-      <c r="C185" s="50">
+      <c r="C185" s="2">
         <v>0.46814718379196002</v>
       </c>
-      <c r="D185" s="50">
+      <c r="D185" s="2">
         <v>0.79832826625029096</v>
       </c>
-      <c r="O185" s="50">
+      <c r="O185" s="2">
         <v>104.19387755101999</v>
       </c>
-      <c r="P185" s="50">
+      <c r="P185" s="2">
         <v>-3.1497671161138201</v>
       </c>
-      <c r="Q185" s="50">
+      <c r="Q185" s="2">
         <v>1.4559480677471599</v>
       </c>
     </row>
     <row r="186" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B186" s="50">
+      <c r="B186" s="2">
         <v>106.816326530612</v>
       </c>
-      <c r="C186" s="50">
+      <c r="C186" s="2">
         <v>0.47405255380004002</v>
       </c>
-      <c r="D186" s="50">
+      <c r="D186" s="2">
         <v>0.79361583637570698</v>
       </c>
-      <c r="O186" s="50">
+      <c r="O186" s="2">
         <v>107.48979591836699</v>
       </c>
-      <c r="P186" s="50">
+      <c r="P186" s="2">
         <v>-3.1197278711899799</v>
       </c>
-      <c r="Q186" s="50">
+      <c r="Q186" s="2">
         <v>1.4468616592672401</v>
       </c>
     </row>
     <row r="187" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B187" s="50">
+      <c r="B187" s="2">
         <v>110.142857142857</v>
       </c>
-      <c r="C187" s="50">
+      <c r="C187" s="2">
         <v>0.48291060881216102</v>
       </c>
-      <c r="D187" s="50">
+      <c r="D187" s="2">
         <v>0.78654719156383102</v>
       </c>
-      <c r="O187" s="50">
+      <c r="O187" s="2">
         <v>110.78571428571399</v>
       </c>
-      <c r="P187" s="50">
+      <c r="P187" s="2">
         <v>-3.0746690038042299</v>
       </c>
-      <c r="Q187" s="50">
+      <c r="Q187" s="2">
         <v>1.43323204654737</v>
       </c>
     </row>
     <row r="188" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B188" s="50">
+      <c r="B188" s="2">
         <v>113.46938775510201</v>
       </c>
-      <c r="C188" s="50">
+      <c r="C188" s="2">
         <v>0.49472134882832203</v>
       </c>
-      <c r="D188" s="50">
+      <c r="D188" s="2">
         <v>0.77712233181466295</v>
       </c>
-      <c r="O188" s="50">
+      <c r="O188" s="2">
         <v>114.08163265306101</v>
       </c>
-      <c r="P188" s="50">
+      <c r="P188" s="2">
         <v>-3.0145905139565499</v>
       </c>
-      <c r="Q188" s="50">
+      <c r="Q188" s="2">
         <v>1.4150592295875399</v>
       </c>
     </row>
     <row r="189" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B189" s="50">
+      <c r="B189" s="2">
         <v>116.795918367346</v>
       </c>
-      <c r="C189" s="50">
+      <c r="C189" s="2">
         <v>0.50948477384852298</v>
       </c>
-      <c r="D189" s="50">
+      <c r="D189" s="2">
         <v>0.765341257128204</v>
       </c>
-      <c r="O189" s="50">
+      <c r="O189" s="2">
         <v>117.37755102040801</v>
       </c>
-      <c r="P189" s="50">
+      <c r="P189" s="2">
         <v>-2.9394924016469499</v>
       </c>
-      <c r="Q189" s="50">
+      <c r="Q189" s="2">
         <v>1.39234320838776</v>
       </c>
     </row>
     <row r="190" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B190" s="50">
+      <c r="B190" s="2">
         <v>120.122448979591</v>
       </c>
-      <c r="C190" s="50">
+      <c r="C190" s="2">
         <v>0.52720088387276498</v>
       </c>
-      <c r="D190" s="50">
+      <c r="D190" s="2">
         <v>0.75120396750445195</v>
       </c>
-      <c r="O190" s="50">
+      <c r="O190" s="2">
         <v>120.67346938775501</v>
       </c>
-      <c r="P190" s="50">
+      <c r="P190" s="2">
         <v>-2.8493746668754398</v>
       </c>
-      <c r="Q190" s="50">
+      <c r="Q190" s="2">
         <v>1.3650839829480099</v>
       </c>
     </row>
     <row r="191" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B191" s="50">
+      <c r="B191" s="2">
         <v>123.44897959183599</v>
       </c>
-      <c r="C191" s="50">
+      <c r="C191" s="2">
         <v>0.54786967890104699</v>
       </c>
-      <c r="D191" s="50">
+      <c r="D191" s="2">
         <v>0.73471046294340803</v>
       </c>
-      <c r="O191" s="50">
+      <c r="O191" s="2">
         <v>123.96938775510201</v>
       </c>
-      <c r="P191" s="50">
+      <c r="P191" s="2">
         <v>-2.7442373096420001</v>
       </c>
-      <c r="Q191" s="50">
+      <c r="Q191" s="2">
         <v>1.33328155326831</v>
       </c>
     </row>
     <row r="192" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B192" s="50">
+      <c r="B192" s="2">
         <v>126.775510204081</v>
       </c>
-      <c r="C192" s="50">
+      <c r="C192" s="2">
         <v>0.57149115893336899</v>
       </c>
-      <c r="D192" s="50">
+      <c r="D192" s="2">
         <v>0.715860743445073</v>
       </c>
-      <c r="O192" s="50">
+      <c r="O192" s="2">
         <v>127.265306122448</v>
       </c>
-      <c r="P192" s="50">
+      <c r="P192" s="2">
         <v>-2.6240803299466502</v>
       </c>
-      <c r="Q192" s="50">
+      <c r="Q192" s="2">
         <v>1.29693591934866</v>
       </c>
     </row>
     <row r="193" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B193" s="50">
+      <c r="B193" s="2">
         <v>130.102040816326</v>
       </c>
-      <c r="C193" s="50">
+      <c r="C193" s="2">
         <v>0.598065323969731</v>
       </c>
-      <c r="D193" s="50">
+      <c r="D193" s="2">
         <v>0.69465480900944498</v>
       </c>
-      <c r="O193" s="50">
+      <c r="O193" s="2">
         <v>130.56122448979499</v>
       </c>
-      <c r="P193" s="50">
+      <c r="P193" s="2">
         <v>-2.48890372778938</v>
       </c>
-      <c r="Q193" s="50">
+      <c r="Q193" s="2">
         <v>1.2560470811890401</v>
       </c>
     </row>
     <row r="194" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B194" s="50">
+      <c r="B194" s="2">
         <v>133.42857142857099</v>
       </c>
-      <c r="C194" s="50">
+      <c r="C194" s="2">
         <v>0.62759217401013401</v>
       </c>
-      <c r="D194" s="50">
+      <c r="D194" s="2">
         <v>0.67109265963652598</v>
       </c>
-      <c r="O194" s="50">
+      <c r="O194" s="2">
         <v>133.85714285714201</v>
       </c>
-      <c r="P194" s="50">
+      <c r="P194" s="2">
         <v>-2.3387075031701898</v>
       </c>
-      <c r="Q194" s="50">
+      <c r="Q194" s="2">
         <v>1.2106150387894701</v>
       </c>
     </row>
     <row r="195" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B195" s="50">
+      <c r="B195" s="2">
         <v>136.75510204081601</v>
       </c>
-      <c r="C195" s="50">
+      <c r="C195" s="2">
         <v>0.66007170905457702</v>
       </c>
-      <c r="D195" s="50">
+      <c r="D195" s="2">
         <v>0.64517429532631398</v>
       </c>
-      <c r="O195" s="50">
+      <c r="O195" s="2">
         <v>137.15306122448899</v>
       </c>
-      <c r="P195" s="50">
+      <c r="P195" s="2">
         <v>-2.1734916560890798</v>
       </c>
-      <c r="Q195" s="50">
+      <c r="Q195" s="2">
         <v>1.1606397921499501</v>
       </c>
     </row>
     <row r="196" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B196" s="50">
+      <c r="B196" s="2">
         <v>140.08163265306101</v>
       </c>
-      <c r="C196" s="50">
+      <c r="C196" s="2">
         <v>0.69550392910306003</v>
       </c>
-      <c r="D196" s="50">
+      <c r="D196" s="2">
         <v>0.616899716078811</v>
       </c>
-      <c r="O196" s="50">
+      <c r="O196" s="2">
         <v>140.44897959183601</v>
       </c>
-      <c r="P196" s="50">
+      <c r="P196" s="2">
         <v>-1.9932561865460501</v>
       </c>
-      <c r="Q196" s="50">
+      <c r="Q196" s="2">
         <v>1.10612134127046</v>
       </c>
     </row>
     <row r="197" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B197" s="50">
+      <c r="B197" s="2">
         <v>143.408163265306</v>
       </c>
-      <c r="C197" s="50">
+      <c r="C197" s="2">
         <v>0.73388883415558404</v>
       </c>
-      <c r="D197" s="50">
+      <c r="D197" s="2">
         <v>0.58626892189401603</v>
       </c>
-      <c r="O197" s="50">
+      <c r="O197" s="2">
         <v>143.74489795918299</v>
       </c>
-      <c r="P197" s="50">
+      <c r="P197" s="2">
         <v>-1.7980010945411</v>
       </c>
-      <c r="Q197" s="50">
+      <c r="Q197" s="2">
         <v>1.04705968615102</v>
       </c>
     </row>
     <row r="198" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B198" s="50">
+      <c r="B198" s="2">
         <v>146.734693877551</v>
       </c>
-      <c r="C198" s="50">
+      <c r="C198" s="2">
         <v>0.77522642421214805</v>
       </c>
-      <c r="D198" s="50">
+      <c r="D198" s="2">
         <v>0.55328191277192895</v>
       </c>
-      <c r="O198" s="50">
+      <c r="O198" s="2">
         <v>147.04081632653001</v>
       </c>
-      <c r="P198" s="50">
+      <c r="P198" s="2">
         <v>-1.5877263800742301</v>
       </c>
-      <c r="Q198" s="50">
+      <c r="Q198" s="2">
         <v>0.98345482679162499</v>
       </c>
     </row>
     <row r="199" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B199" s="50">
+      <c r="B199" s="2">
         <v>150.06122448979499</v>
       </c>
-      <c r="C199" s="50">
+      <c r="C199" s="2">
         <v>0.81951669927275095</v>
       </c>
-      <c r="D199" s="50">
+      <c r="D199" s="2">
         <v>0.51793868871255</v>
       </c>
-      <c r="O199" s="50">
+      <c r="O199" s="2">
         <v>150.33673469387699</v>
       </c>
-      <c r="P199" s="50">
+      <c r="P199" s="2">
         <v>-1.36243204314544</v>
       </c>
-      <c r="Q199" s="50">
+      <c r="Q199" s="2">
         <v>0.91530676319227</v>
       </c>
     </row>
     <row r="200" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B200" s="50">
+      <c r="B200" s="2">
         <v>153.38775510203999</v>
       </c>
-      <c r="C200" s="50">
+      <c r="C200" s="2">
         <v>0.86675965933739596</v>
       </c>
-      <c r="D200" s="50">
+      <c r="D200" s="2">
         <v>0.480239249715879</v>
       </c>
-      <c r="O200" s="50">
+      <c r="O200" s="2">
         <v>153.632653061224</v>
       </c>
-      <c r="P200" s="50">
+      <c r="P200" s="2">
         <v>-1.12211808375474</v>
       </c>
-      <c r="Q200" s="50">
+      <c r="Q200" s="2">
         <v>0.84261549535295699</v>
       </c>
     </row>
     <row r="201" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B201" s="50">
+      <c r="B201" s="2">
         <v>156.71428571428501</v>
       </c>
-      <c r="C201" s="50">
+      <c r="C201" s="2">
         <v>0.91695530440607997</v>
       </c>
-      <c r="D201" s="50">
+      <c r="D201" s="2">
         <v>0.44018359578191502</v>
       </c>
-      <c r="O201" s="50">
+      <c r="O201" s="2">
         <v>156.92857142857099</v>
       </c>
-      <c r="P201" s="50">
+      <c r="P201" s="2">
         <v>-0.86678450190211398</v>
       </c>
-      <c r="Q201" s="50">
+      <c r="Q201" s="2">
         <v>0.76538102327368696</v>
       </c>
     </row>
     <row r="202" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B202" s="50">
+      <c r="B202" s="2">
         <v>160.04081632653001</v>
       </c>
-      <c r="C202" s="50">
+      <c r="C202" s="2">
         <v>0.97010363447880499</v>
       </c>
-      <c r="D202" s="50">
+      <c r="D202" s="2">
         <v>0.39777172691065998</v>
       </c>
-      <c r="O202" s="50">
+      <c r="O202" s="2">
         <v>160.224489795918</v>
       </c>
-      <c r="P202" s="50">
+      <c r="P202" s="2">
         <v>-0.59643129758756996</v>
       </c>
-      <c r="Q202" s="50">
+      <c r="Q202" s="2">
         <v>0.68360334695446001</v>
       </c>
     </row>
     <row r="203" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B203" s="50">
+      <c r="B203" s="2">
         <v>163.367346938775</v>
       </c>
-      <c r="C203" s="50">
+      <c r="C203" s="2">
         <v>1.0262046495555699</v>
       </c>
-      <c r="D203" s="50">
+      <c r="D203" s="2">
         <v>0.35300364310211302</v>
       </c>
-      <c r="O203" s="50">
+      <c r="O203" s="2">
         <v>163.52040816326499</v>
       </c>
-      <c r="P203" s="50">
+      <c r="P203" s="2">
         <v>-0.31105847081110699</v>
       </c>
-      <c r="Q203" s="50">
+      <c r="Q203" s="2">
         <v>0.59728246639527605</v>
       </c>
     </row>
     <row r="204" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B204" s="50">
+      <c r="B204" s="2">
         <v>166.69387755101999</v>
       </c>
-      <c r="C204" s="50">
+      <c r="C204" s="2">
         <v>1.0852583496363699</v>
       </c>
-      <c r="D204" s="50">
+      <c r="D204" s="2">
         <v>0.30587934435627501</v>
       </c>
-      <c r="O204" s="50">
+      <c r="O204" s="2">
         <v>166.816326530612</v>
       </c>
-      <c r="P204" s="50">
+      <c r="P204" s="2">
         <v>-1.0666021572722501E-2</v>
       </c>
-      <c r="Q204" s="50">
+      <c r="Q204" s="2">
         <v>0.50641838159613395</v>
       </c>
     </row>
     <row r="205" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B205" s="50">
+      <c r="B205" s="2">
         <v>170.02040816326499</v>
       </c>
-      <c r="C205" s="50">
+      <c r="C205" s="2">
         <v>1.1472647347212199</v>
       </c>
-      <c r="D205" s="50">
+      <c r="D205" s="2">
         <v>0.25639883067314401</v>
       </c>
-      <c r="O205" s="50">
+      <c r="O205" s="2">
         <v>170.11224489795899</v>
       </c>
-      <c r="P205" s="50">
+      <c r="P205" s="2">
         <v>0.30474605012757799</v>
       </c>
-      <c r="Q205" s="50">
+      <c r="Q205" s="2">
         <v>0.411011092557036</v>
       </c>
     </row>
     <row r="206" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B206" s="50">
+      <c r="B206" s="2">
         <v>173.34693877551001</v>
       </c>
-      <c r="C206" s="50">
+      <c r="C206" s="2">
         <v>1.2122238048100999</v>
       </c>
-      <c r="D206" s="50">
+      <c r="D206" s="2">
         <v>0.20456210205272099</v>
       </c>
-      <c r="O206" s="50">
+      <c r="O206" s="2">
         <v>173.408163265306</v>
       </c>
-      <c r="P206" s="50">
+      <c r="P206" s="2">
         <v>0.63517774428980101</v>
       </c>
-      <c r="Q206" s="50">
+      <c r="Q206" s="2">
         <v>0.31106059927798102</v>
       </c>
     </row>
     <row r="207" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B207" s="50">
+      <c r="B207" s="2">
         <v>176.67346938775501</v>
       </c>
-      <c r="C207" s="50">
+      <c r="C207" s="2">
         <v>1.28013555990303</v>
       </c>
-      <c r="D207" s="50">
+      <c r="D207" s="2">
         <v>0.15036915849500601</v>
       </c>
-      <c r="O207" s="50">
+      <c r="O207" s="2">
         <v>176.70408163265299</v>
       </c>
-      <c r="P207" s="50">
+      <c r="P207" s="2">
         <v>0.98062906091394098</v>
       </c>
-      <c r="Q207" s="50">
+      <c r="Q207" s="2">
         <v>0.206566901758969</v>
       </c>
     </row>
     <row r="208" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B208" s="50">
+      <c r="B208" s="2">
         <v>180</v>
       </c>
-      <c r="C208" s="50">
+      <c r="C208" s="2">
         <v>1.35099999999999</v>
       </c>
-      <c r="D208" s="50">
+      <c r="D208" s="2">
         <v>9.3820000000000001E-2</v>
       </c>
-      <c r="O208" s="50">
+      <c r="O208" s="2">
         <v>180</v>
       </c>
-      <c r="P208" s="50">
+      <c r="P208" s="2">
         <v>1.34109999999999</v>
       </c>
-      <c r="Q208" s="50">
+      <c r="Q208" s="2">
         <v>9.7530000000000006E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="CK3:CM3"/>
+    <mergeCell ref="CN3:CP3"/>
+    <mergeCell ref="CQ3:CS3"/>
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="CE3:CG3"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="BM3:BO3"/>
+    <mergeCell ref="BP3:BR3"/>
+    <mergeCell ref="BS3:BU3"/>
+    <mergeCell ref="BY3:CA3"/>
+    <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AW3"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BD3:BF3"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="AI3:AK3"/>
@@ -59977,21 +59965,6 @@
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="AO3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AW3"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BD3:BF3"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="BM3:BO3"/>
-    <mergeCell ref="BP3:BR3"/>
-    <mergeCell ref="BS3:BU3"/>
-    <mergeCell ref="BY3:CA3"/>
-    <mergeCell ref="CK3:CM3"/>
-    <mergeCell ref="CN3:CP3"/>
-    <mergeCell ref="CQ3:CS3"/>
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="CE3:CG3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -60013,12 +59986,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
@@ -60288,13 +60261,13 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="35" t="s">
